--- a/movies.xlsx
+++ b/movies.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F49A5A-317B-4F07-BAD5-C4ED1ADB2997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="403">
   <si>
     <t>review</t>
   </si>
@@ -328,12 +329,912 @@
   </si>
   <si>
     <t>This IS the worst movie I have ever seen, as well as, the worst that I will probably EVER see. I see no need to rehash what all the others have said previously, just be forewarned...&lt;br /&gt;&lt;br /&gt;This IS NOT one of those bad movies you think you want to watch because you want to be able to make fun of it, its just plain BAD BAD BAD BAD BAD.&lt;br /&gt;&lt;br /&gt;This movie is the equivalent to having a "pet rock" as your friend. You wait and wait and wait and wait and wait and wait and wait and wait for something to happen. Unfortunately, it never does. At least with a pet rock you knew what you were getting into. Lion's Gate completely deceives on this bombshell... No...this is a disaster. After watching this film, you would swear George W. Bush had his hands all over the making of this film... yes its that idiotic.&lt;br /&gt;&lt;br /&gt;Stay away, unless of course you just want to watch the worst movie of all time. Its probably how Lion's Gate figured it would make some money off this piece of tripe.</t>
+  </si>
+  <si>
+    <t>I have been a Mario fan for as long as I can remember, I have very fond memories of playing Super Mario World as a kid, this game has brought back many of those memories while adding something new. Super Mario Galaxy is the latest installment in the amazing Mario franchise. There is much very different about this game from any other Mario before it, while still keeping intact the greatest elements of Mario, the first noticeable difference is that the story takes place in space.&lt;br /&gt;&lt;br /&gt;The story begins much like any other Mario game, Mario receives a letter from Princess Peach inviting him to a celebration at her castle in the Mushroom Kingdom. Upon arriving at Peach's castle Mario finds Bowser and his son (Bowser Jr.) attacking the castle with their airships. Bowser kidnaps Princess Peach and then lifts her castle up into space. In the midst of the castle being lifted into space Mario falls off and lands on an unknown planet. Mario is found by a talking star named Luma and is taken back to the Luma's home, a floating space station, here Mario meets many other Lumas and also meets their leader, a woman named Rosalina. Rosalina tells Mario that Bowser has taken away the space station's Power Stars and scattered them across the universe, it is up to Mario to help the Lumas find them and save Peach, thus the adventure begins.&lt;br /&gt;&lt;br /&gt;The way you play the game is by flying from the space station to other galaxies, each galaxy consists of multiple planets that Mario travels amongst in levels via these shooting stars to retrieve the Power Stars. Mario can at many times walk all the way around planets without losing gravity, some planets are small and others are big, many planets are similar to classic Mario environments. The best thing about the game are the controls, all of the stuff like jumping and such is still the same, but the wiimote is used in many unique ways in this game. You shake the remote Mario will perform a spin that is used as the primary attack in the game, and it will as well activate the shooting stars. You can also point the remote at the screen and use the pointer to fire star bits at enemies or objects in the environment. Then there is the graphics, these are by far the best graphics on the Wii, it is just so hard to describe how great this game looks, you could probably almost say it looks as good as some 360 games.&lt;br /&gt;&lt;br /&gt;My only minor gripes is that the going upside down effect takes some getting used to, and also the story is pretty weak. The worst part is that you lose all of your lives when you turn off the game, no matter how many you had when you last quit you restart at 4 lives. Still these minor problems aside it's a superb game that is highly entertaining and is very challenging. This is the type of game that we've been waiting for on the Wii.&lt;br /&gt;&lt;br /&gt;A perfect 10 out of 10!</t>
+  </si>
+  <si>
+    <t>This short film that inspired the soon-to-be full length feature - Spatula Madness - is a hilarious piece that contends against similar cartoons yielding multiple writers. The short film stars Edward the Spatula who after being fired from his job, joins in the fight against the evil spoons. This premise allows for some funny content near the beginning, but is barely present for the remainder of the feature. This film's 15-minute running time is absorbed by some odd-ball comedy and a small musical number. Unfortunately not much else lies below it. The plot that is set up doesn't really have time to show. But it's surely follows it plot better than many high-budget Hollywood films. This film is worth watching at least a few times. Take it for what it is, and don't expect a deep story.</t>
+  </si>
+  <si>
+    <t>Okay, last night, August 18th, 2004, I had the distinct displeasure of meeting Mr. Van Bebble at a showing of the film The Manson Family at the Three Penny in Chicago as part of the Chicago Underground Film Festival. Here's what I have to say about it. First of all, the film is an obvious rip off of every Kenneth Anger, Roman Polanski, Oliver Stone and Terry Gilliam movie I've ever seen. Second of all, in a short Q &amp; A session after the show Mr. Van Bebble immediately stated that he never made any contact with the actual Manson Family members or Charlie himself, calling them liars and saying he wanted nothing to do with them, that the film was based on his (Van Bebble's) take on the trial having seen it all from his living room on TV and in the news (and I'm assuming from the Autobiography and the book Helter Skelter which were directly mimicked through the narrative). So I had second dibs on questions, I asked if he was trying to present the outsider, Mtv, sex drugs and rock 'n roll version and not necessarily the true story. This question obviously pissed off the by now sloshed director who started shouting "f*** you, shut the f*** up, this is the truth! All those other movies are bullsh**!"&lt;br /&gt;&lt;br /&gt;Well anyway, I didn't even think about how ridiculous this was until the next day when I read the tagline for the film, "You've heard the laws side of the story...now hear the story as it is told by the Manson Family." Excuse me, if this guy has never even spoken to the family and considers them to be liars that he doesn't want to have anything to do with, how in God's name can he tell the story for them!? This is the most ridiculous statement I have ever heard! The film was obviously catered to the sex drugs and rock 'n roll audience that it had no trouble in attracting to the small, dimly lit theatre, and was even more obviously spawned by the sex drugs and rock 'n roll mind of a man who couldn't even watch his own film without getting up every ten minutes to go get more beer or to shout some sort of Rocky Horroresque call line to the actors on screen. This film accomplishes little more than warping the public's image of actual events (which helped shape the state of America and much of the world today) into some sort of Slasher/Comic Book/Porno/Rape fantasy dreamed up by an obviously shallow individual.&lt;br /&gt;&lt;br /&gt;The film was definitely very impressive to look at. The soundtrack was refreshing as it contained actual samples of Charlie's work with the Family off of his Lie album. The editing was nice and choppy to simulate the nauseating uncertainty of most modern music videos. All in all this film would have made a much better addition to the catalogues at Mtv than to the Underground Film Festival or for that matter the minds of any intellectual observers. I felt like I was at a midnight Rocky Horror viewing the way the audience was dressed and behaving (probably the best part of the experience). The cast was very good with the exception of Charlie who resembled some sort of stoned Dungeons and Dragons enthusiast more than the actual role he was portraying. The descriptions the film gave of him as full of energy, throwing ten things at you and being very physical about it all the while did not match at all the slow, lethargic, and chubby representation that was actually presented.&lt;br /&gt;&lt;br /&gt;All in all the film basically explains itself as Sadie (or maybe it was Linda) declares at the end, "You can write a bunch of bullsh** books or make a bunch of bullsh** movies...etc. etc." Case in point. Even the disclaimer "Based on a True Story" is a dead giveaway, signalling that somewhere beneath this psychedelic garbage heap lay the foundation of an actual story with content that will make and has made a difference in the world. All you have to do is a little bit of alchemy to separate the truth from the the crap, or actually, maybe you could just avoid it all together and go read a book instead.&lt;br /&gt;&lt;br /&gt;All I can say is this, when the film ended I got a free beer so I'm glad I went, but not so glad I spent fifteen dollars on my ticket to be told to shut the f*** up for asking the director a question. Peace.</t>
+  </si>
+  <si>
+    <t>I bought this game on an impulse buy from walmart. I am glad I did. It was very entertaining listening to Sean Connery and playing the game. I thought the graphics were the best I have ever seen in a movie/game remake. The bonus levels were very hard! The sniper one I think was too hard, it made me so frustrated I didn't play the game for a week and a half. There were too many people shooting at you with nothing to hide behind or life to handle it. &lt;br /&gt;&lt;br /&gt;The only thing I might change was the upgrade system. I didn't notice any difference from un-upgraded equipment to the upgraded, such as buying an armor upgrade didn't seem to make the armor stronger or more filling on my life meter. I really liked the Q copter. I think the developers did a good job.</t>
+  </si>
+  <si>
+    <t>No, this hilariously horrible 70's made-for-TV horror clinker isn't about a deadly demonically possessed dessert cake. Still, this exceptionally awful, yet undeniably amusing and thus enjoyable cathode ray refuse reaches a breathtaking apex of absolute, unremitting silliness and atrociousness that's quite tasty in a so-execrable-it's-downright-awesome sort of way. Richard Crenna, looking haggard and possibly inebriated, and Yvette Mimieux, who acts as if she never got over the brutal rape she endured in "Jackson County Jail," sluggishly portray a disgustingly nice and respectable suburbanite couple whose quaint, dull, sleepy small town existence gets ripped asunder when the cute German Shepard they take in as the family pet turns out to be some ancient lethal evil spirit. Pretty soon Mimieux and her two repellently cutesy kids Kim Richards and Ike Eisenmann (the psychic alien moppets from the Disney "Witch Mountain" pictures) are worshiping a crude crayon drawing of the nasty, ugly canine entity in the den. Boy, now doesn't that sound really scary and disturbing? Well, scary and disturbing this laughably ludicrous claptrap sure ain't, but it sure is funny, thanks to Curtis ("Night Tide") Harrington's hopelessly weak direction, cartoonish (not so) special effects, an almost painfully risible'n'ridiculous plot, and a game cast that struggles valiantly with the absurd story (besides the leads, both Martine Beswicke and R.G. Armstrong briefly pop up as members of a Satanic cult and Victor Jory has a nice cameo as a helpful Native American shaman). Favorite scene: the malicious Mephestophelion mutt puts the whammy on Crenna, practically forcing him to stick his hand into a wildly spinning lawnmower blade. While stuck-up snobby fright film fans may hold their noses at the perfectly putrid stench of this admittedly smelly schlock, devout TV trash lovers should deem this endearingly abominable offal the boob tube equivalent to Alpo.</t>
+  </si>
+  <si>
+    <t>It is easy to tell early in this movie exactly what will happen, and who will die. It is about 4 women and a man who on a vacation. This was made during the end of the ultra Nazi seventies, when blonde women were supposedly ultra American survivors and brunettes were all deserving of death.&lt;br /&gt;&lt;br /&gt;This movie, like the others of that era, contrives to bring this about, and the viewer knows this. There is no mystery or suspense. The people squabble, but everything is so predictable for the prejudices of the time, it is laughable.&lt;br /&gt;&lt;br /&gt;The five people happen upon two savage young characters, and go nuts. Everyone is nuts, so that the director-writer team can justify their Nazi propaganda.&lt;br /&gt;&lt;br /&gt;For some reason, the guy is attracted to the blonde, who is really not much to look at, and ignores a super hot looking brunette that any heterosexual man would go nuts over. One must remember that in the seventies, movies were meant to appeal to women and not men.&lt;br /&gt;&lt;br /&gt;Totally crap and totally depressing.</t>
+  </si>
+  <si>
+    <t>Marion Davies stars in this remarkable comedy "Show People" released by MGM in 1928. Davies plays a hick from Savannah, Georgia, who arrives in Hollywood with her father (Dell Henderson). The jalopy they arrive in is a hoot - as is Davies outrageous southern costume. Davies lands a job in slapstick comedy, not what she wants, but it brings her success. She meets fellow slapstick star William Haines, who is immediately smitten with her. Well, Davies then gets a job at a more prestigious studio ("High Art Studios") and lands a job in stuffy period pieces. A handsome but fake actor (Andre Telefair) shows her the ropes of how to be the typical pretentious Hollywood star. Davies abandons her slapstick friend and father for the good life, but of course learns that is not who she really is. Marion Davies is wonderful throughout, as she - outrageously - runs the gamut of emotions required of a "serious" actress. William Haines is his usual wonderful comedic self, and there are cameos by Charles Chaplin, John Gilbert, and other famous stars of the day, including the director of the film, King Vidor. This is a silent film with a few "sound effects" as sound pictures were just coming into their own. A treasure of a film.</t>
+  </si>
+  <si>
+    <t>The performance of every actor and actress (in the film) are excellently NATURAL which is what movie acting should be; and the directing skill is so brilliantly handled on every details that I am never tired of seeing it over and over again. However, I am rather surprised to see that this film is not included in some of the actors' and director, Attenborough's credits that puzzles me: aren't they proud of making a claim that they have made such excellent, long lasting film for the audience? I am hoping I would get some answers to my puzzles from some one (possibly one of the "knowledgeable" personnel (insider) of the film.</t>
+  </si>
+  <si>
+    <t>While Star Trek the Motion Picture was mostly boring, Star Trek The Final Frontier is plain bad. In this terrible sequel, the crew is on shore leave when they get a distress signal from the Federation that ambassadors representing Earth, Romulus and Kronos (the Klingon home world) have been kidnapped by a renegade Vulcan bent on his quest to attain a starship to venture into the great barrier. There, he hopes to find God. Using mysticism and bad writing, he persuades many of the senior officers of the Enterprise to betray Kirk and get a hold of the ship. They do reach the inside of the great barrier and find a planet where they do meet a god-like alien. This one is so bad it is hard to figure out where to begin. At the core is a good idea that is never really developed. The plot goes nowhere instead of where no man has gone before. It is almost like the writers had no idea how to end this fiasco. The action scenes don't have the suspense of Wrath of Kahn, the philosophy is boring, and the humor is stale. Now I will focus most of my anger on William Shatner. When he takes the director's chair, the ego gets bigger. Most of the focus is on him, Spock, and McCoy, but does not give the others enough to do. Moreover, whereas Shatner is usually guilty of over-acting in previous movies and television spots, he is just plain bad in this one. Now Kirk is reckless, a practical jokers, and silly. One of the worst scenes involves the three leaders singing the song, "Row Row Row your Boat" in a round by a campfire. In any case, this is the worst of the Star Trek franchise. I should have given it three out of ten instead of five.</t>
+  </si>
+  <si>
+    <t>Despite later claims, this early-talkie melodrama has very little in common with "Citizen Kane": It's a biopic of a ruthless but human fictional plutocrat, told in flashback but hopping around time. The scriptwriter, Preston Sturges, shows none of his later gift for sparkling dialog, and none of the myriad cinematic innovations of "Kane" are evident. Still, it's very watchable, with a young Spencer Tracy (his old-man makeup makes him look just like, well, an old Spencer Tracy) showing depth and authority, and Colleen Moore -- a little past her prime, and not physically well matched -- playing a multifaceted woman-behind-the-man. There's also Helen Vinson as one of the most treacherous femmes fatales in movie history, sending the final third into ecstatic soap-opera reverberations. The surviving print is jumpy and has missing audio snippets, and there are some plot holes left open (how would she know whose son it was if she's sleeping with both of them?), and the music is awfully hokey. For all that, I was quite fascinated.</t>
+  </si>
+  <si>
+    <t>This is the best version (so far) that you will see and the most true to the Bronte work. Dalton is a little tough to imagine as Rochester who Jane Eyre declared "not handsome". But his acting overcomes this and Zelah Clark, pretty as she is, is also a complete and believable Jane Eyre. This production is a lengthy watch but well worth it. Nearly direct quotes from the book are in the script and if you want the very first true 'romance' in literature, this is the way to see it. I own every copy of this movie and have read and re-read the original. The filming may seem a little dated now but there will never be another like this.</t>
+  </si>
+  <si>
+    <t>Apparently, the people that wrote the back of the box did not bother to watch this so-called "movie." They described "blindingly choreographed intrigue and violence." I saw no "intrigue." I instead saw a miserable attempt at dialogue in a supposed kung fu movie. I saw no "violence." At least, I saw nothing which could cause me to suspend my disbelief as to what could possibly hurt a man with "impervious" skin--but here I am perhaps revealing too much of the "plot." Furthermore, as a viewer of many and sundry films (some of which include the occasional kung fu movie), I can authoritatively say that this piece of celluloid is unwatchable. Whatever you may choose to do, I will always remain&lt;br /&gt;&lt;br /&gt; Correct,&lt;br /&gt;&lt;br /&gt; Jonathan Tanner &lt;br /&gt;&lt;br /&gt; &lt;br /&gt;&lt;br /&gt;P.S. I was not blinded by the choreography.</t>
+  </si>
+  <si>
+    <t>I liked Boyle's performance, but that's about the only positive thing I can say. Everything was overdone to the point of absurdity. Most of the actors spoke like you would expect your 9-year-old nephew to speak if he were pretending to be a jaded, stone-hearted cop, or an ultra-evil villain. The raspy voice-overs seemed amateurish to me. I could go buy a cheap synthesizer and crank out better opening music. And what's with the whole 1984ish police torture stuff? It was totally superfluous and had nothing to do with the actual events of the story. Cox added a lot of things, in fact, that he apparently thought would be really cool, but had nothing to do with the story. That's a big disappointment because one of the things that makes Borges' stories so good is his minimalism -- they are tightly bound, with no superfluous details. This movie is just the opposite. I stopped watching after the scene where Lonnrot is questioning the guy from the Yidische Zaitung, or thereabouts. I wasted $4 renting this, but at least I can get some satisfaction from writing this review and hopefully saving others from making the same mistake.</t>
+  </si>
+  <si>
+    <t>It's terrific when a funny movie doesn't make smile you. What a pity!! This film is very boring and so long. It's simply painfull. The story is staggering without goal and no fun.&lt;br /&gt;&lt;br /&gt;You feel better when it's finished.</t>
+  </si>
+  <si>
+    <t>So well made, no CGI crap. Has anyone else been on the "Jumping Crocs" tour of Darwin's Adelaide River before? Black Water was WAY realistic; Rogue was a bit cringeworthy.&lt;br /&gt;&lt;br /&gt;Thought the blonde chick was excellent in it - haven't really seen her before. And the other chick is a babe, she is always excellent. &lt;br /&gt;&lt;br /&gt;V. suspenseful - I would compare it to Jaws over any other man eating animal flick. &lt;br /&gt;&lt;br /&gt;Got the hole Aussie thing down pat without going OTT with struths and crikeys, as well. &lt;br /&gt;&lt;br /&gt;Loved it!</t>
+  </si>
+  <si>
+    <t>The Assignment is an outstanding thriller with several plot twists driven by character, rather than star turns, the need to stage special effects, obligatory romance, and endless car chases. However, there is a car chase in here, and a dandy it is. Aidan Quinn is wonderful as both the terrorist and the naval officer "recruited" to eliminate him. It is rare that a second or third tier actor, such as Quinn, is given an important starring role like this that carries a film. Usually, such a role is given to an A-list actor with box office draw, which is probably why I never heard of this film before I saw it. Donald Sutherland is great as the morally ambiguous, somewhat creepy at times, agent that recruits Quinn. Ben Kingsley is fine also as the Israeli agent. The plot is very complex and there are multiple story lines, which converge in gradual fashion toward the end, and not all at once as we're used to seeing. The paranoia and claustrophobia of these type of thrillers is captured and portrayed with both moral ambiguity and frightening intensity. The locations are convincing and effective. The soundtrack is nothing special, but rarely do we get all of the above mentioned qualities these days, without dumb and/or meaningless plot developments; unconvincing star turns; loud, annoying, music video type soundtracks; a villain that hams it up; and repeatedly a cast, costumes, and plot that cater mostly to an audience under 25. This is an outstanding thriller, which most assuredly did not get its just due upon its release. ***1/2 of 4 stars.</t>
+  </si>
+  <si>
+    <t>this is one of the finest movies i have ever seen....the stark scenery...the isolation...the ignorant bigoted people hiding behind their religion...a backdrop for some wordliness and sophistication...the acting is completely natural...but for me as a"foodie' the best is the actual choosing and preparation of the feast..i have spent time in paris and know the cuisine well...whether or not the cafe anglais really exists i don't know but i do know of similar establishments and babette's menu and choice of wines are authentic...and of course the end where despite themselves the perfect meal mellows them back to friendship is the only ending there could be..this is a 10 out of 10 film and should be seen by anyone with enough brain and taste to understand it</t>
+  </si>
+  <si>
+    <t>Set in the 1794, the second year of the French republic formed after the execution of Louis XVI, this film portrays the power struggle between the revolutionary leaders Danton (Gerard Depardieu, at his finest) and Robespierre (a commanding performance by the Polish actor Wojciech Pszoniak). The moderate revolutionary Danton has returned to Paris from his country seat where he has been since being deposed as leader of the Committee of Public Safety in the previous year by Robespierre. He is opposed to "The Reign Of Terror" which has resulted in the executions of thousands of citizens, mainly by guillotine, who are thought to be opposed to the Revolution. Danton is confident of the support of the ordinary people and tries to persuade Robespierre to curb the bloodletting. But Robespierre and the Committee are afraid that the popularity of Danton will lead to them being overthrown, and put Danton and his supporters on trial for being traitors. This was the first French language film made by Andrzej Wajda after he had arrived in France from Poland. His Polish film company was closed down by the government due to his support for the Solidarity trade union, which had opposed the Polish government in the late seventies and early eighties. His previous film "Man Of Iron" (1981) had dealt with the Solidarity union and its leader Lech Walesa, and it is easy to draw comparisons between the relationship of Walesa and the Polish leader General Jaruselski, and that between Danton and Robespierre. Danton/Walesa are the voice of reason opposed to Robespierre/Jaruselski who continue dictatorial rule despite having lost the support of the people they claim to represent. The film is based on the Polish play "The Danton Affair" written by Stanislawa Przybyszewska in the 1930s, and on its release the film was criticised by some for being static and theatrical. But what the film does is to concentrate on the behind-the-scenes meetings of the Committees and the scenes in the National Assembly and the courtroom rather than the activities on the streets of Paris.</t>
+  </si>
+  <si>
+    <t>Usually I'm a bit of a fan of the bad eighties &amp; early nineties film featuring now has beens...but this film is so incredibly terrible that it was a real endurance test to sit through. Guys dressing up as girls has been done to death - but never so pathetically. Corey Haim's performance was abysmal as usual, Nicole Eggert was not much better. This has no redeeming qualities, even if you are a number 1 fan of an actor/actress in this piece of trash - stay away!</t>
+  </si>
+  <si>
+    <t>I have now seen quite a few films by Pedro AlmodÃ³var, but this would have to be the most disappointing so far. This film seemed to lack the zaniness that is usually everywhere in his films, and the story just never got me interested. Many AlmodÃ³var regulars appear in this film, so it's not like there was a lack of on-screen talent, but this film just seemed more serious than his other films. If there was a comedic edge to this movie, I certainly couldn't find it, and it made for one surprisingly weak movie.</t>
+  </si>
+  <si>
+    <t>I greatly enjoyed Margaret Atwood's novel 'The Robber Bride', and I was thrilled to see there was a movie version. A woman frames a cop boyfriend for her own murder, and his buddy, an ex-cop journalist, tries to clear his name by checking up on the dead woman's crazy female friends. It's fortunate that the movie script fixes Ms. Atwood's clumsy plotting by focusing on the story of these two men, victims of scheming women...&lt;br /&gt;&lt;br /&gt;Heh. Okay, you got me. If these guys are mentioned in the book, and I'm pretty sure they're entirely made up for the movie, I'll eat the dust cover of my hardback copy. Apparently, the three main female characters of the novel aren't enough to carry the movie. Zenia's manipulations aren't interesting unless we see them happen to a man, and a man's life is screwed up. Roz, Charis, and Toni tell their stories -- to a man. Because it's not important if a man doesn't hear them.&lt;br /&gt;&lt;br /&gt;I liked the characters in the book. It hurts to see them pushed off to the side for a man's story. I normally do not look for feminist angles on media, and I tried to enjoy the movie as is. If I hadn't read the book, I might have enjoyed the movie a lot more. So if you like the cop and the ex-cop, and you want to read more about them, you're out of luck. Read the novel, if you want to enjoy luscious prose and characterization subtly layered through a plot. It's the same plot: the movie excavated it, ironed it, and sprinkled it with male angst. It's like Zenia's revenge on Margaret Atwood.</t>
+  </si>
+  <si>
+    <t>this movie gets a 10 because there is a lot of gore in it.who cares about the plot or the acting.this is an Italian horror movie people so you know you can't expect much from the acting or the plot.everybody knows fulci took footage from other movies and added it to this one.since i never seen any of the movies that he took footage from it didn't matter to me.the Italian godfather of gore out done himself with this movie.this is one of the goriest Italian movies you will ever see.no gore hound should be without this movie in their horror movie collection.buy this movie no matter what it is a horehounds dream come true.</t>
+  </si>
+  <si>
+    <t>Ingrid Bergman, playing dentist Walter Matthau's faithful receptionist who harbors a little crush on her boss, is absolutely wonderful in this film. She handles the witty repartee in the script with aplomb and steals a terrific scene where she and Goldie Hawn talk in a record booth (Ingrid's monologue is a front, but her face tells you she believes in it with all her heart). Matthau is an odd choice for the leading man (he's too old for Goldie Hawn and too unrefined for Bergman, not to mention too unfocused to be a dentist), but I liked the way he tries hard to please Goldie and stumbles around trying to free himself from a lie. Hawn (who won a Supporting Oscar) is just as fresh and bubbly as she is today. This bedroom farce isn't terribly sophisticated (and faintly reminds one of "Any Wednesday" besides), but it's a welcome relief from the noisy, teen-oriented comedies they turn out today. "Cactus Flower" is a lovely sigh! *** from ****</t>
+  </si>
+  <si>
+    <t>"A bored television director is introduced to the black arts and astral projection by his girlfriend. Learning the ability to separate his spirit from his body, the man finds a renewed interest in his life and a sense of wellbeing. Unfortunately, the man discovers while he is sleeping, his spirit leaves his body and his uncontrolled body roams the streets in a murderous rampage," according to the DVD sleeve's synopsis.&lt;br /&gt;&lt;br /&gt;The synopsis isn't entirely correct, as it turns out.&lt;br /&gt;&lt;br /&gt;Anyway, the movie opens with a dizzying "out-of-body" example of handsome director Winston Rekert (as Paul Sharpe)'s newly discovered "astral body" experience; it also foreshadows an upcoming dogfight. Young Andrew Bednarski (as Matthew Sharpe), being a kid, draws pictures of "The Blue Man", as his murder spree begins. Handsome detective John Novak (as Stewart Kaufman) discovers the victims are connected to Mr. Rekert. Mr. Novak's investigation leads to the supernatural; a prime example of which is Karen Black (as Janus), with whom Rekert fears he is falling in love.&lt;br /&gt;&lt;br /&gt;Several in the cast perform well; but, "The Blue Man" winds up tying itself up in a knot. Aka "Eternal Evil", its unsatisfying story tries to be far too clever for its own good.</t>
+  </si>
+  <si>
+    <t>Ah yes the 1980s , a time of Reaganomics and Sly , Chuck and a host of other action stars hiding in a remote jungle blowing away commies . At the time I couldn`t believe how movies like RAMBO , MISSING IN ACTION and UNCOMMON VALOR ( And who can forget the ridiculous RED DAWN ? ) made money at the box office , they`re turgid action crap fests with a rather off putting right wing agenda and they have dated very badly . TROMA`S WAR is a tongue in cheek take on these type of movies but you`ve got to ask yourself did they need spoofing in the first place ? Of course not . TROMA`S WAR lacks any sort of sophistication - though it does make the point that there`s no real difference between right wing tyrants and left wing ones - and sometimes feels more like a grade z movie than a send up . Maybe it is ?</t>
+  </si>
+  <si>
+    <t>This tale based on two Edgar Allen Poe pieces ("The Fall of the House of Usher", "Dance of Death" (poem) ) is actually quite creepy from beginning to end. It is similar to some of the old black-and-white movies about people that meet in an old decrepit house (for example, "The Cat and the Canary", "The Old Dark House", "Night of Terror" and so on). Boris Karloff plays a demented inventor of life-size dolls that terrorize the guests. He dies early in the film (or does he ? ) and the residents of the house are subjected to a number of terrifying experiences. I won't go into too much detail here, but it is definitely a must-see for fans of old dark house mysteries.&lt;br /&gt;&lt;br /&gt;Watch it with plenty of popcorn and soda in a darkened room.&lt;br /&gt;&lt;br /&gt;Dan Basinger 8/10</t>
+  </si>
+  <si>
+    <t>I am so happy and surprised that there is so much interest in this movie! Jack Frost was my introduction into the films produced and distributed by A-pix entertainment, and without exception, everything this company deals with is pure crap! First, and this is very important, never ever watch this movie sober! Why would you? Unlike many other entertaingly bad movies, this one I feel was made intentionally bad. I just can't get over how fake the snowman is, which is why its always shown only briefly, the way it moves is the best! This movie is Waaaaaaaaaaay better than the Michael Keaton piece of crap, becuz that was made too be a good movie, and that version is as bad as this.</t>
+  </si>
+  <si>
+    <t>"Revolt of the Zombies" proves that having the same director revamp and recycle an idea doesn't necessarily make lightning strike twice.&lt;br /&gt;&lt;br /&gt;The Halperin brothers, responsible for the horror classic "White Zombie", made this trite piece of garbage a mere few years later to cash in on its popularity and even recycled close-ups of Lugosi's eyes from that previous film. There was a court battle with the "White Zombie" film's rights owners, who didn't want the Halperins to be able to use the word 'zombie' in this title. That word was the only thing that could help this film, because, as everyone knows, bad films can make much more money simply by having the word 'Zombie' appear in the title. Knowing what Victor Halperin was capable of a few years before only makes this uninteresting film more insulting. It seems he never directed another horror film after this debacle. The zombies here seem not to be true walking dead, but simply hypnotism victims.&lt;br /&gt;&lt;br /&gt;Wanna create a mind-controlled army of zombies? Be ready to crack a few eggs, including your own.&lt;br /&gt;&lt;br /&gt;THE LAME PLOT: Man falls in love with scheming woman who plays with his heart and becomes engaged to him only to make his friend, whom she loves, jealous. This sends man into a spiral of madness in which he tries using zombie mind-control techniques to change things to his advantage in an attempt to win over a woman who isn't worth spit.&lt;br /&gt;&lt;br /&gt;This includes one of the most blatantly obvious plot developments I've ever seen. You'd have to be blind or stupid not to see the ending coming. The acting isn't even good. This movie makes the racially insensitive "King of the Zombies" (which appeared on the same double bill DVD I bought) seems like an atmospheric horror masterpiece by comparison and reminds us that not every black and white film is a classic. It makes the atomic age sci-fi alien zombie cheese fest "Invisible Invaders" seem like a serious drama. This is one big ball of cheese so ridiculously melodramatic it could probably make many a Korean film fan twitch (South Korean films are often known for their use of melodrama). The credits list the ironically named company Favorite Films. I'm not sure whose favorite film this would be, but they're obviously an idiot.&lt;br /&gt;&lt;br /&gt;Not recommended for fans of: zombies, romance, or classic films.</t>
+  </si>
+  <si>
+    <t>The complaints are valid, to me the biggest problem is that this soap opera is too aimed for women. I am okay with these night time soaps, like Grey's Anatomy, or Ugly Betty, or West Wing, because there are stories that are interesting even with the given that they will never end. However, when the idea parallels the daytime soaps aimed at just putting hunky men (Taye Diggs, Tim Daly, and Chris Lowell) into sexual tension and romps, and numerous ridiculous difficult situations in a so-called little hospital, it seems like General Hospital...or a female counterpart to Baywatch. That was what men wanted and they had it, so if this is what women want so be it, but the idea that this is a high brow show (or something men will watch) is unrealistic.</t>
+  </si>
+  <si>
+    <t>This movie was one of the best movies that I have seen this year. I didn't see any cameos in the movie, but it is still pretty good. It is similar to Anchorman in the humor department, but I think this is a better put together movie. It actually has a point. If you are going to see a whole bunch of T&amp;A you will be disappointed. Just a well put together movie!!!! If you have nothing to do for the day or you need a lot of humor, you will find this to be a really good movie. I definitely think that Ebert and Roeper's review of this movie is right on. I mean, I don't really like Ebert on most movies, but this is the movie that I will agree about. The movie contains a good enough story that it is actually believable that these type of people are out there. There is definitely something to be said about how they treat virginity in this movie. Yea, sure, you get laughed at when it is found out about, but it still suggests that you wait. Steve did a wonderful job of portraying the person that he did in this movie and yet, it is still funny.</t>
+  </si>
+  <si>
+    <t>I remember seeing this film in the mid 80's thought it a well paced and well acted piece. I now work quite often in Berkeley Square and the had to get a copy of DVD to remind myself how little the area has changed, although my office is newish it just 30 seconds away from "the bank". Even Jack Barclays car dealership is still there selling Bentleys and Rolls Royces.&lt;br /&gt;&lt;br /&gt;It's look like the DVD is due a Region 2 release soon. The region 1 copy I is very poor quality. Let's hope they've cleaned it up.&lt;br /&gt;&lt;br /&gt;Only the slightly dodgy escape sequence from the court spoils what would otherwise be a great film but I guess is in line with the caper tag the film goes with.</t>
+  </si>
+  <si>
+    <t>Two hours ago I was watching this brilliant movie which overwhelmed me with its imprisoning photography. It is quite understandable how it won the prize of Best Camera in Cannes 2000. Close ups predominated it. Close ups of walls, humans and of many other things. The warm colored lighting (which is also usually by the director) gave the movie a warm atmosphere. Only two persons are principally to be seen in most of it. An interesting music and especially three songs or themes accompanied the movie nearly all the time. Each one of these themes represented a certain atmosphere during the whole movie. Silence and slow movements characterize the movie. Some scenes were extended moments or a serious of close-ups. Not only Tony Leung deserves a prize for his superb acting since Maggie Cheung was also so brilliant. I wonder how many dresses she was wearing in the different scenes. The story was also connected somehow with the history of Hong Kong and the region the 1960s. This prevented me from understanding some details of the it especially at the end. In short I would recommend the fans of artistic movies to watch it in the cinema.</t>
+  </si>
+  <si>
+    <t>Luckily for Bill Murray this is such a light-weight project since he pretty much has to carry it. Meatballs is the story of low-rent Camp Northstar and how its counselors deal with the campers as well as one another. Then there is much made of their wealthy rivals from across the lake named Camp Mohawk which culminates in a two-day Olympiad competition. Above it all is Bill Murray clowning around and making a pretty memorable film debut.&lt;br /&gt;&lt;br /&gt;The film is sprinkled with medium-sized laughs, chuckles, and more than a few guffaws along the way. The biggest laughs come from the pranks played on the nerdy camp director. Three of them involve the counselors moving his bed outside in various locations while he's sleeping. Morty, or "Micky" as everyone calls him, wakes up along the side of a road, strung up in some trees several feet above the ground, and finally floating on a raft in the middle of the lake! There are also some funny moments involving the counselors hitting on one another, but this is a PG rated film with little in the way of raunchiness.&lt;br /&gt;&lt;br /&gt;The film takes a serious note involving a shy camper named Rudy who is played by Chris Makepeace. Of course it's up to Murray to teach the kid how to open up, and give him the confidence he needs to run a marathon during the Olympiad. The sentimentality of Rudy's situation seems tacked on to a great degree. Notice how when Murray first sees the kid sitting alone in the grass after getting off the bus he tells him, "you must be the short depressed kid we ordered." Makes you wonder if that line was really in the script or Murray was just ad-libbing while the cameras were rolling. In other words, Murray might as well have said to Makepeace, "you must be that actor we hired to play the stereotypical lonely kid you see in most summer camp films who doesn't fit in." But before it's all over, Murray's performance makes this plot device more than bearable. He really seems to have some good chemistry with Makepeace.&lt;br /&gt;&lt;br /&gt;The film culminates with the games between the two rival camps. Very little of the events we are shown are even slightly believable, but "it just doesn't matter". This is a pretty good film on many levels. Don't let the absurd 5.6 rating this film is currently getting scare you off. Murray will keep you laughing throughout. Just be warned..... avoid the sequels!!!! Especially the one with Corey Feldman!! 8 of 10 stars.&lt;br /&gt;&lt;br /&gt;The Hound.</t>
+  </si>
+  <si>
+    <t>"The Danish Bladerunner" is boldly stated on the box. Are you kidding me?! This film is a complete drag. When I'm thirsty and go for a soda in the kitchen, I usually pause the vcr, so I won't miss anything. Not this time. I actually found myself looking long and hard in the fridge, just so I wouldn't have to go back. Why the hell is there not ONE sciencefiction-scriptwriter out there who has the vaguest clue about how computers work? It's mindboggling. One of the premises of film, is that our hero (who's a hacker), has a little computerassistant to help him (the Microsoft Office paperclip finally caught on in the future). When he loses the assistant in the movie, he's helpless and can't get into any computers. HE'S A HACKER! It's like saying, that you can't drive your car, if you don't have your lucky "driving-cap" on. I won't even go into the lightning-effect when he recieves electroshock...</t>
+  </si>
+  <si>
+    <t>This movie shows a clip of live animal mutilation of an animal getting hacked by a machete and getting its skin ripped off. I know these horrible things happen in the world, but Im watching movies based on the fact that what Im watching is not actually happening on the screen. These live animal clips are not meant to be in movies, they are meant to show people that belong to certain organizations to help the horrible things that humans to do other species.&lt;br /&gt;&lt;br /&gt;This should be banned and destroyed. I have also contacted Netflix and other resources to collaborate getting this movie off the market!!&lt;br /&gt;&lt;br /&gt;This movie should be removed from the public. The person who made this movie needs psychological help.</t>
+  </si>
+  <si>
+    <t>Anyone who thinks Kool Moe Dee, Carol Alt, and Corey Feldman comprise a list of good actors must be smoking something I'd love to try sometime. Where to begin: lousy soundtrack, hammy acting, "action" in places. This is the typical amateurishly written hack fodder that washed-up has-been and never-was's love to star in. I actually felt embarrassed for the "stars" in this "film". The only thespian missing to top this turd was Gary Coleman, who if he would have been in the movie, would have made it at least somewhat howlingly bad, rather than just plain bad.&lt;br /&gt;&lt;br /&gt;There was one part in the film where Carol Alt screamed, "DO YOU THINK I'M AN IDIOT?!?" Yes, Carol, I do, your agent does, and PLEASE for the love of all that is decent and holy... GO AWAY and stop degrading yourself like this! This film is something Anna Nicole Smith would take part in.&lt;br /&gt;&lt;br /&gt;I would tell you what the plot was, but that would be one more sentence fragment to this article, plus my mind drifted many times during the movie anyway, so I barely paid attention.</t>
+  </si>
+  <si>
+    <t>This film could have been a decent re-make, and gosh knows it tried (or Ms. English tried). Assembling talented actors together with a successful &amp; experienced writer/director should be a formula for a decent film. But Ms. English's experience - according to her IMDb bio - is exclusively limited to television work, and it is glaringly obvious throughout this film.&lt;br /&gt;&lt;br /&gt;I am surprised that none of the reviews I have read mention what I found most unlikeable about this film, and what kept it from reaching even a portion of its potential: it looked and felt like it was made for television. To give some credit to Ms. English, many of the jokes that simply did NOT work on a movie screen would have been terrific on TV (and maybe a laugh track would have helped). So much of the camera usage and the lighting would have played out fine on TV but looked awkward or odd on a big screen. If the whole film had been chopped up into a mini-series or a sit-com, I think it could have worked. But this is cinema and sadly Ms. English's talents didn't translate. I cringed at so many different points in my embarrassment for the actors &amp; the writers that I felt like I came out of the theater half shriveled! Meg Ryan is her usual perky, cute self (except for the awful plastic surgery she has had on her face), but where did she have a chance to use her talent?! She has made films where she doesn't recreate her stereo-typed role and done them well... but not here. Annette Bening seemed to simply go through the motions - such a great talent and yet such a poor performance! I enjoyed the other women characters but they were more caricature than substance, and it was sad to see. What worked in this film in the 1930s doesn't translate to the 2000s, and no one helped Ms. English get the changes &amp; updates or subtleties right. If only she (as writer, director AND producer) had reached out for some assistance, I think it could have been good. But it was not.&lt;br /&gt;&lt;br /&gt;It's so frustrating to go to a movie that has good stars and a good writer or director and come away feeling it was a waste of everyone's time &amp; money! This New Yorker cartoon I saw yesterday is appropriate: A few movie execs are having a meeting &amp; the caption reads: "Let's remake a classic with worse everything!"</t>
+  </si>
+  <si>
+    <t>I find it very intriguing that Lee Radziwill, Jackie Kennedy's sister and the cousin of these women, would encourage the Maysles' to make "Big Edie" and "Little Edie" the subject of a film. They certainly could be considered the "skeletons" in the family closet. The extra features on the DVD include several contemporary fashion designers crediting some of their ideas to these oddball women. I'd say that anyone interested in fashion would find the discussion by these designers fascinating. (i.e. "Are they nuts? Or am I missing something?"). This movie is hard to come by. Netflix does not have it. Facets does, though.</t>
+  </si>
+  <si>
+    <t>C'mon guys some previous reviewers have nearly written a novel commenting on this episode. It's just an old 60's TV show ! This episode of Star Trek is notable because of the most serious babe (Yeoman Barrow's) ever used on Star Trek and the fact that it was filmed in a real outdoor location. Unlike the TNG and Voyager series which were totally confined to sound stages.&lt;br /&gt;&lt;br /&gt;This use of an outdoor location (and babe) gives proper depth and an almost film like quality to a quite ordinary episode of this now dated and very familiar show.&lt;br /&gt;&lt;br /&gt;Except a few notable exceptions i.e "The city on the edge of forever" , "assignment Earth" and "Tomorrow is Yesterday" The old series of Star Trek needs to be seriously moth-balled and put out of it's boring misery. Half a dozen good episodes from 79 is quite a poor batting average.&lt;br /&gt;&lt;br /&gt;This is typical of the boring stuff Gene Roddenberry produced back then actually, contrary to popular belief where some people worshiped the ground he walked on, he actually made a LOT of rubbish! He doesn't deserve to be spoken of in the same breath as Irwin Allen for example.&lt;br /&gt;&lt;br /&gt;Just look at the set of the bridge of the Enterprise from a modern point of view. They used wobbly plywood for the floor, cafeteria chairs with plastic backs and cheap cardboard above the instrument panels. You can clearly see the folds in the paper ! Every expense spared or what !</t>
+  </si>
+  <si>
+    <t>I just watched this movie on it's premier night out of curiosity and sheer nostalgia. I liked (not loved) "Mork &amp; Mindy" as a kid, mostly for Robin William's zany energetic performance. This movie made me remember why. Was the original show great? Not really, but Robin certainly was. Which brings me to this movie.&lt;br /&gt;&lt;br /&gt;I was pleasantly surprised, expecting nothing more than a paint by numbers chronological retelling of the show (which in a way it was). But, of course, the real focus was on Robin. It was interesting to see Robin's journey from struggling street jester to national t.v star, and how such a drastic difference affected him and his long suffering wife. And my hat is off to star Chris Diamantopoulos as he portrayed Mr. Williams with integrity, sensitivity, and heart; not just a cute impression, although it was even dead-on. (On an unrelated note, I noticed that Robin's struggles were in some ways similar to Andy Kaufman, who was under-appreciated by network t.v. and held back creatively, but that's the "Taxi" behind the scenes biopic.)&lt;br /&gt;&lt;br /&gt;All in all, this was a very enjoyable flick, in which I felt I got to know a little more of the man behind the Orkan. The acting was solid by all- never melodramatic like I suspected- and the story moved along well. Performances that were particularly good were by those who played Garry Marshall and John Belushi (the scene in which Belushi heckles Robin was a hoot!). Not a great masterpiece by any means (I would have liked to have seen a tad more about Pam Dawber), but definitely watchable, especially for those Robin Williams and "Mork &amp; Mindy" fans out there. Nanoo, nanoo!</t>
+  </si>
+  <si>
+    <t>I caught this film on AZN on cable. It sounded like it would be a good film, a Japanese "Green Card". I can't say I've ever disliked an Asian film, quite the contrary. Some of the most incredible horror films of all time are Japanese and Korean, and I am a HUGE fan of John Woo's Hong Kong films. I an not adverse to a light hearted films, like Tampopo or Chung King Express (two of my favourites), so I thought I would like this. Well, I would rather slit my wrists and drink my own blood than watch this laborious, badly acted film ever again.&lt;br /&gt;&lt;br /&gt;I think the director Steven Okazaki must have spiked the water with Quaalude, because no one in this film had a personality. And when any of the characters DID try to act, as opposed to mumbling a line or two, their performance came across as forced and incredibly fake. I honestly did not think that anyone had ever acted before...the ONLY person who sounded genuine was Brenda Aoki.. I find it amazing that this is promoted as a comedy, because I didn't laugh once. Even MORE surprising is that CBS morning news called this "a refreshing breath of comedy". It was neither refreshing, nor a breath of comedy. And the ending was very predictable, the previous reviewer must be an idiot to think such things.&lt;br /&gt;&lt;br /&gt;AVOID this film unless you want to see a boring predictable plot line and wooden acting. I actually think that "Spike of Bensonhurst" is a better acted film than this...and I walked out half way through that film!</t>
+  </si>
+  <si>
+    <t>Before I begin, let me get something off my chest: I'm a huge fan of John Eyres' first film PROJECT: SHADOWCHASER. The film, a B-grade cross of both THE TERMINATOR &amp; DIE HARD, may not be the work of a cinematic genius, but is a hugely entertaining action film that became a cult hit (&amp; spawned two sequels &amp; a spin off).&lt;br /&gt;&lt;br /&gt;Judge and Jury begins with Joseph Meeker, a convicted killer who was sent to Death Row following his capture after the so-called "Bloody Shootout" (which seems like a poor name for a killing spree Â– Meeker kills three people while trying to rob a convenience store), being led to the electric chair. There is an amusing scene where Meeker talks to the priest about living for sex but meeting his one true love (who was killed during the shootout), expressing his revenge for the person who killed her Â– Michael Silvano, a washed-up football star who spends his days watching his son Alex practicing football with his high school team (and ends up harassing his son's coach). But once executed, Meeker returns as a revenant (or as Kelly Perine calls "a hamburger without the fries"), whose sole aim is to get his revenge, which basically means making Silvano's life a misery.&lt;br /&gt;&lt;br /&gt;Let me point out the fact that Judge and Jury is not a true horror film. It is a supernatural action film, with Meeker chasing Silvano, using his ability to change form (which amounts to David Keith dressing up as everything from an Elvis impersonator, a French chef (with an accent as bad as his moustache), a drag queen, a clown &amp; a stand-up comedian), a shotgun which fires explosive rounds &amp; an invulnerability to death (although that doesn't stop Martin Kove from shooting Keith with a Desert Eagle), to pay Silvano back for killing Meeker's wife.&lt;br /&gt;&lt;br /&gt;Director John Eyres does not seem interested in characterisations, instead focusing solely on action scenes, which the film has plenty of. But that is the film's main flaw, since there's nothing to connect the action scenes together. The acting is surprisingly good, with Keith delivering the best performance, supported ably by Kove, as well as Paul Koslo, who plays the washed-up cop quite well. Kelly Perine is annoying as the cabbie who tries to help but makes the situation worse.</t>
+  </si>
+  <si>
+    <t>Ye Lou's film Purple Butterfly pits a secret organization (Purple Butterfly) against the Japanese forces in war torn Shanghai. Ding Hui (Zhang Ziyi) and her ex-lover Hidehiko Itami (Toru Nakamura) find themselves on opposite sides of the conflict after a chance meeting.&lt;br /&gt;&lt;br /&gt;I agree with the reviewer from Paris. The film substitutes a convoluted, semi-historical conflict for a plot, without giving the audience a single reason to care about the characters or their causes. The sudden time shifting doesn't help matters as it appears completely unwarranted and pointless. Normally I don't mind dark movies, but the absence of light, the bone-jarringly shaky camera footage, and the generally bad film-making techniques really make this a tough film to watch and stay interested in. I also agree with the viewer from Georgia that this film "has a chaotic editing style and claustrophobic cinematography", but I don't think that helps the movie. The backdrop to the film is one of the most potent events of the 20th Century, and I don't believe you can do it any justice by editing it as if it were a Michael Bay film. The overly melodramatic moments don't add to its watchability.&lt;br /&gt;&lt;br /&gt;The actors are all suitably melancholy. Zhang Ziyi once again shows that she has an exceptionally limited acting range as she spends the entire movie doing what she seems to do best in all her films, brooding and looking generally annoyed. However, at least she adds some variety to this role by chainsmoking and engaging in the worst love-making scene since Michael Biehn and Linda Hamilton in The Terminator.&lt;br /&gt;&lt;br /&gt;All in all, a very disappointing film, especially seeing as how it comes from the director of Suzhou He. 2/10</t>
+  </si>
+  <si>
+    <t>After hearing about George Orwell's prophetic masterpiece for all of my life, I'm now 37, but never having read the book, I am totally confused as to what I've just seen.&lt;br /&gt;&lt;br /&gt;I am very familiar with the concepts covered in the novel, as i'm sure most are, but only through hearsay and quotes. Without this limited knowledge this film would have been a complete mystery, and even with it I'm still no more educated about the story of 1984 than I was before I watched it.&lt;br /&gt;&lt;br /&gt;On the plus side...&lt;br /&gt;&lt;br /&gt;The cinematography is amazing, Hurt &amp; Burton deliver fine performances and the overall feel of the movie is wonderfully grim and desolate. The prostitute scene was a fantastically dark piece of film making.&lt;br /&gt;&lt;br /&gt;Now for the down sides, and there are plenty...&lt;br /&gt;&lt;br /&gt;There is a war going on, (at least as far as the propaganda is concerned), but why &amp; with who? Nothing is explained. There are a couple of names bandied about (Eurasia etc), but they mean nothing without explanation.&lt;br /&gt;&lt;br /&gt;Who is Winston? what does he do? where does he come from? where does he work? why is he changing news reports? why isn't he on the front line? Why doesn't he eat the food in the canteen? What is that drink he's drinking through the entire film? Why is he so weak &amp; ill? Why isn't he brainwashed like the rest of them? What's the deal with his mother &amp; sister? What happened to his father? A little back story would have been nice, no scrub that, essential for those like myself that haven't read the book. Without it, this is just a confusing and hard to follow art-house movie that constantly keeps you guessing at what is actually going on.&lt;br /&gt;&lt;br /&gt;The soundtrack was dis-jointed and badly edited and the constant chatter from the Big Brother screens swamps the dialogue in places making it even harder to work out whats going on. I accept that this may have been an artistic choice but it's very annoying all the same.&lt;br /&gt;&lt;br /&gt;Also, I know this has been mentioned before, but why all the nudity? It just seemed totally gratuitous and felt like it had been thrown in there to make up for the lack of any plot coverage.&lt;br /&gt;&lt;br /&gt;I personally can't abide the way Hollywood feels it has to explain story lines word for word these days. We are not all brainwashed simpletons, but this is a few steps too far the other way. I can only imagine that it totally relies on the fact that you've read the book because if this film really is the 'literal translation' that I've seen many people say, I would find it very hard to understand why 1984 is hailed as the classic it is.&lt;br /&gt;&lt;br /&gt;There's no denying that it was light years ahead of it's time and has pretty much predicted every change in our society to date, (maybe this has been a sort of bible to the powers that be?), but many sci-fi novelists have done the same without leaving gaping holes in the storyline.&lt;br /&gt;&lt;br /&gt;I guess I have to do what I should have done from the start and buy a copy of the book if i'm to make any sense out of this.&lt;br /&gt;&lt;br /&gt;All in all, very disappointed in something I've waited for years to watch.</t>
+  </si>
+  <si>
+    <t>This cute animated short features two comic icons - Betty Boop and Henry.&lt;br /&gt;&lt;br /&gt;Henry is the bald, slightly portly boy from the comics who never speaks.&lt;br /&gt;&lt;br /&gt;Well here he does speak!&lt;br /&gt;&lt;br /&gt;He wants to get a puppy from Betty Boop's pet store, and when he is left to mind the store - some hilarious hijinks ensue.&lt;br /&gt;&lt;br /&gt;Betty sings a song about pets, Henry gets in a battle with birds and a monkey, but everything works out in the end.</t>
+  </si>
+  <si>
+    <t>I just got back from this free screening, and this "Osama Witch Project" is the hands-down worst film I've seen this year, worse than even "Catwoman" - which had the decency to at least pass itself off as fiction.&lt;br /&gt;&lt;br /&gt;In "September Tapes," a "film crew" of "documentary journalists" heads to Afghanistan - despite being thoroughly unprepared for the trip, the conditions and, oh yeah, the psychotic and ridiculous vendetta of their filmmaker leader to avenge his wife's death on Sept. 11 - to track down Osama bin Laden.&lt;br /&gt;&lt;br /&gt;They "made" eight tapes on their journey, which now "document" their travels and, of course, their attempts to kill the terrorist leader. (The eight tapes, thankfully, all end at points significant in the narrative, which is convenient for a "documentary.")&lt;br /&gt;&lt;br /&gt;The psychotic, idiotic protagonist - who is given to long, significant speeches that he probably learned watching "MacGyver" - cares nothing for his own life or the life of his innocent crew as he gets them further and further into danger through a series of completely dumb mishaps. I don't know why he didn't just wear a sign on his back that said "Shoot me."&lt;br /&gt;&lt;br /&gt;The crew's translator, supposedly their sensible voice-of-reason, does little more than whine and gets baffled as the idiot hero leads them into doom. &lt;br /&gt;&lt;br /&gt;You wish they'd brought along someone on their trip to call them all morons.&lt;br /&gt;&lt;br /&gt;Around "Tape 4," I began rooting for the terrorists to shoot the film crew.</t>
+  </si>
+  <si>
+    <t>I remember seeing this film in the theater in 1984 when I was 6 years-old (you do the math). I absolutely loved it. I was Tarzan for the 2 weeks after seeing it (climbing the furniture, jumping around making monkey sounds). It started a fascination with Tarzan and monkeys, but oddly enough a longer lasting love for Christopher Lambert (keep in mind that I saw Highlander very shortly after this). 1984 was the last time I saw that film, until about a month ago. It happened to be on cable as I was getting ready for bed at 3:30 am and even though it was late and I was tired and I had to be at work at 9:00 am, I stayed up to watch this movie that I loved as a kid. &lt;br /&gt;&lt;br /&gt;Upon viewing it I realized that it was not that great of a film and even odder then that, that Andie MacDowell's voice was dubbed by someone else. Ian Holme was of course solid as usual, and surprisingly the monkey suits still kind of held up, but what was most surprising was how good Lambert was as Tarzan. He was great! The depth he managed to capture in so few lines, his primal body language and most importantly his ability to bring this character through its extremely large ark, were just amazing.&lt;br /&gt;&lt;br /&gt;As I stated earlier I am Lambert fan, but I'm used to Highlander, The Hunted and Fortress. In this film he was really quite good and it is a shame that he never got a chance to portray a character with such depth again.&lt;br /&gt;&lt;br /&gt;So to make a short story way too long, I was a little disappointed that the film was not that good, but I was glad to see that Lambert was good and I do not regret staying up until 6:00am to see it.</t>
+  </si>
+  <si>
+    <t>A family is traveling through the mid West. There's widower Ben (Charles Bateman), his girlfriend Nicky (Ahna Capri) and Ben's little daughter K.T. (Geri Reischl). Then hit a town named Hillsboro where everyone acts more than a little strangely. Their car breaks down and they're forced to stay. They soon find out a witches coven has a spell over the town and is up to incredible evil.&lt;br /&gt;&lt;br /&gt;The story is not that good. People just figure things out of nothing and they just happen to find out where the witches are at the end. Also there are a lot of loopholes left dangling at the end. The acting is pretty poor too. Bateman and Capri are bland and everybody else is about the same. Only old pros Strother Martin and L.Q. Jones give good performances. Still this movie does work. It forgoes blood and gore (there's some but this is PG) and manges to work with some very creepy visuals and atmosphere. The acting hampers a lot of it but it still works. Martin especially chews the scenery in his role. I can't explain exactly why I (sort of) like this movie but it did work on me. It's a quiet kind of horror that isn't made anymore. Hardly a masterwork but this deserves to be rediscovered. A 7.</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola wrote and directed this stunningly personal story of a married woman's flight from her husband--and the reality that perhaps the youthful glee and excitement of her younger years are behind her. We learn little about this woman's marriage except that she has been feeling her independence slipping away as of late; she's also recently learned she's pregnant, which has further complicated her heart (she doesn't want to be a complacent wifey, despite the maternal way she speaks to her husband over the phone). She meets two men on her journey: a former college football hero who--after an accident during a game--has been left with permanent brain damage, and a sexy, strutting motorcycle cop who has a great deal of trouble in his own life. The clear, clean landscapes (as photographed by the very talented Wilmer Butler) are astutely realized, as are the characters. Shirley Knight, James Caan, and Robert Duvall each deliver strong, gripping performances, most especially since these are not very likable people in conventional terms. Some scenes (such as Knight's first call home from a pay-phone, or her first night alone with Caan where they play 'Simon Says') are almost too intimate to watch. Coppola toys with reality, turning the jagged memories of his characters into scrapbooks we've been made privy to. He allows scenes to play out, yet the editing is quite nimble and the film is never allowed to get too heavy (there are at least two or three very frisky moments). It's a heady endeavor--so much so that the picture was still being shown at festivals nearly five years later. Some may shun Coppola's unapologetic twisting of events in order to underline the finale with bitter irony, however the forcefulness and drive behind the picture nearly obliterate its shortcomings. *** from ****</t>
+  </si>
+  <si>
+    <t>This movie was not very well directed. they almost totally disregarded the book.I guess they were trying 2 save time. the only upside 2 me was that the actor who played finny was cute. Some of the dialog between the main characters appeared a little gay which was not the case in the book. Major parts of the book were once again chopped out.You lost the over all effect it was not as haunting as the book and left me lacking severely. Also the strong language although it was brief was very unnecessary. Also i was surprised ( not pleasantly) by a new character that was no where in the book.One of my favorite characters (leper) was poorly interpreted and portrayed. He seemed more sinister in the movie than the real leper was in the book. Over all disappointing.</t>
+  </si>
+  <si>
+    <t>The buzz for this film has always been about the fabulous graphics that make Kevin Bacon disappear. Sadly, they stopped there. They should have continued to make the script disappear, then the silly set, and finally every visible element of this film. Because, there's nothing else there to show.&lt;br /&gt;&lt;br /&gt;Gary Thompson and Andrew Marlowe are listed as the writing credits for this film. I don't really think they exist. I think they bought this script at "Scripts-R-Us", where you buy a standard blank "Monster Movie" script and just fill in the blanks. There's a monster stalking us. Let's split up. (They actually "let's split up" in this movie). Hit Alien/Giant-bug/Monster/Invisible-man with crowbar. Not dead yet. Burn Huge-rabbit/Shark/Invisible-man in unsurvivable fire. Not dead yet. You know, the standard stuff. Even the minimum number of elements that were specific to an invisible man movie (IR glasses, spraying with something like paint) were handled badly. &lt;br /&gt;&lt;br /&gt;What is sad is that there were lots of possibilities for this to be a fascinating movie. They psychological issues for the subject, the deterioration of the mind due to the process, treating an invisible subject, and many other ideas were touched on for usually less than 2 seconds and would have been far more interesting. Had there been any desire to save Kevin Bacon in the end, it would have been a much better movie. All in all, it stunk.&lt;br /&gt;&lt;br /&gt;I would mention some of the incredibly stupid elements of the ending of the movie, but I don't want to do any spoilers. Suffice it to say that these characters are so stupid they don't think about pulling the plug on a machine rather than...</t>
+  </si>
+  <si>
+    <t>A young girl becomes a war-time marine's pen-pal, and when he visits at war's end expecting someone a bit more "available," comic complications ensue. All ultimately works out well, naturally, but not before everyone involved has thoroughly chewed the scenery. Errol Flynn's dead-on impression of Humphrey Bogart from "Casablanca" is a highlight, as are various send-ups of his own swashbuckling image (the "jumping" scene in the kitchen with Forrest Tucker is a riot). It is Tucker, though, who "tucks" the movie under his arm, lowers his head and barrels over the goal line. He demonstrates the comic flair more fully developed twenty years later in "F-Troop" and imparts a liveliness and energy that Flynn repeatedly plays off to raise his own performance. Eleanor Parker does a fine job as the woman being pursued, and little Patti Brady charms as Tucker's actual pen-pal friend. A fine, lightweight "coming home" comedy in a genteel setting that children and romantics of all ages should find entertaining.</t>
+  </si>
+  <si>
+    <t>This movie is a perfect adaptation of the English Flick Unfaithful. Ashmit plays the role of Richard Gere, Emran that of Olivier and Malikka the perfect cheating wife role of Lane.They have changed the second half of the film to adapt for the Indian masses. &lt;br /&gt;&lt;br /&gt;Even then the movie has got the full traces of Unfaithful, though it couldn't catch up with the original. It was a cheap soft porn of the Bollywood lovers, where Mallika showed a lot more skin than anyone dared to show. Emran did more roles like this and was even nicknamed the serial killer. In the future if the Indian Directors plan to remake a English movie then they have to look into the feasibility of the plot with the Indian Censors. Though the film bombed at the box office, the actors got the undue recognition. In future the directors should be a little more careful in remaking a Oscar nominated film. &lt;br /&gt;&lt;br /&gt;All said, this is not a family film, so take the extra caution while watching it at home with family.</t>
+  </si>
+  <si>
+    <t>Robert Altman's downbeat, new-fangled western from Edmund Naughton's book "McCabe" was overlooked at the time of its release but in the past years has garnered a sterling critical following. Aside from a completely convincing boom-town scenario, the characters here don't merit much interest, and the picture looks (intentionally) brackish and unappealing. Bearded Warren Beatty plays a turn-of-the-century entrepreneur who settles in struggling community on the outskirts of nowhere and helps organize the first brothel; once the profits start coming in, Beatty is naturally menaced by city toughs who want part of the action. Altman creates a solemn, wintry atmosphere for the movie which gives the audience a certain sense of time and place, but the action in this sorry little town is limited--most of the story being made up of vignettes--and Altman's pacing is deliberately slow. There's hardly a statement being made (just the opposite, in fact) and the languid actors stare at each other without much on their minds. It's a self-defeating picture, and yet, in an Altman-quirky way, it wears defeat proudly. ** from ****</t>
+  </si>
+  <si>
+    <t>What seemed at first just another introverted French flick offering no more than baleful sentiment became for me, on second viewing, a genuinely insightful and quite satisfying presentation.&lt;br /&gt;&lt;br /&gt;Spoiler of sorts follows.&lt;br /&gt;&lt;br /&gt;Poor Cedric; he apparently didn't know what hit him. Poor audience; we were at first caught up in what seemed a really beautiful and romantic story only to be led back and forth into the dark reality of mismatch. These two guys just didn't belong together from their first ambiguous encounter. As much as Mathieu and Cedric were sexually attracted to each other, the absence of a deeper emotional tie made it impossible for Mathieu, an intellectual being, to find fulfillment in sharing life with someone whose sensibilities were more attuned to carnival festivities and romps on the beach.&lt;br /&gt;&lt;br /&gt;On a purely technical note, I loved the camera action in this film. Subtitles were totally unnecessary, even though my French is "presque rien." I could watch it again without the annoying English translation and enjoy it even more. This was a polished, very professionally made motion picture. Though many scenes seem superfluous, I rate it nine out of ten.</t>
+  </si>
+  <si>
+    <t>I don't think I've ever gave something a 1/10 rating, but this one easily gets the denomination. I find it hard just to sit through one of his jokes. It's not just that the jokes are so bad, but combine that with the fact that Carson Daily has zero charisma, can't set up or finish a punchline, and you've got a late night comedy recipe that will really turn your stomach.&lt;br /&gt;&lt;br /&gt;I have watched the show, never in its entirety, but many times still. It just creeps up on me after Conan. I usually watch a minute or two just to see if Carson daily is still the worst talk show host ever.&lt;br /&gt;&lt;br /&gt;Actually if you ever do see him interviewing a guest, it's just that, an interview. I feel so sorry every time he has a guest on and their confused smiles try to mask their body language that's screaming, "get me the hell away from this freak!" I do recommend watching the show, not for a laugh, but to ponder, how he got on the air and what he's still doing there. Watch as much as you can, I think you will find its complete awkwardness...interesting.</t>
+  </si>
+  <si>
+    <t>In the standard view, this is a purely awful movie. However, it rates a near perfect score on the unintentional comedy scale. I can think of few actual comedies that make me laugh as hard as I did watching this movie. Andy Griffith's ghost dressed in Native American garb dancing sends me into hysterics everytime. I wouldn't waste the gas or energy driving to the video store to rent it, but if you happen to be laying on the couch at 3 in the morning and it comes on TV, check it out.</t>
+  </si>
+  <si>
+    <t>From the film's first shot - Keira Knightley as Elizabeth Bennet wandering reading through a field at dawn, thus invoking all the clichÃ©s cinema has developed to address the phenomenon of the strong-minded rebellious female character in period drama - I knew I was in for something to make me want to kill myself.&lt;br /&gt;&lt;br /&gt;Joe Wright seemed not only to have not read the book, but to be under the regrettable misapprehension that what he was filming was not in fact Jane Austen's subtle, nuanced comedy of manners conducted through sparkling, delicate social interaction in eighteenth century English drawing-rooms, but a sort of U-certificate Wuthering Heights. Thus we were treated to every scene between Elizabeth and Darcy taking place outside for no apparent reason, in inappropriately rugged scenery and often in the pouring rain. Not to mention that Jane Austen, and in particular P &amp; P, is not about passion, sexual tension or love. It's about different strategies of negotiating the stultification of eighteenth century society. Which was completely ignored, so that the Bennets' house was a rambunctious, chaotic place where everybody shouts at once, runs around, leaves their underwear on chairs, and pigs wander happily through the house; the society balls become rowdy country dances one step away from a Matrix Reloaded style dance-orgy; and everybody says exactly what they think without the slightest regard for propriety.&lt;br /&gt;&lt;br /&gt;The genius of Jane Austen lies in exploring the void created by a society in which nobody says what they think or mean because of an overwhelming regard for propriety, and the tragic predicaments of her characters arise from misunderstandings and miscommunications enabled by that speechless gap. So both the brilliance of Jane Austen and the very factor that allows her plots - particularly in this film - to function was completely erased. Subtlety in general was nowhere int his film, sacrificed in favour of an overwrought drama which jarred entirely with the material and the performances.&lt;br /&gt;&lt;br /&gt;It was so obviously trying to be a *serious* film. The humour - which IS Pride &amp; Prejudice, both Austen's methodology and her appeal - was almost entirely suppressed in favour of all this po-faced melodrama, and when it was allowed in, was handled so clumsily. Pride &amp; Prejudice is a serious narrative which makes serious points, yes, but those serious points and weightier themes are not just intertwined with the humour, they are embedded in it. You can't lose Jane Austen's technique, leaving only the bare bones of the story, and expect the themes to remain. Not even when you replace her techniques with your own heavy-handed mystical-numinous fauxbrow cinematography.&lt;br /&gt;&lt;br /&gt;Elizabeth Bennett is supposed to be a woman, an adult, mature and sensible and clear-sighted. Keira Knightley played the first half of the film like an empty-headed giggling schoolgirl, and the second half like an empty-headed schoolgirl who thinks she is a tragic heroine. Elizabeth's wit, her combative verbal exchanges, her quintessential characteristic of being able to see and laugh at everybody's follies including her own, her strength and composure, and her fantastic clear-sightedness were completely lost and replaced with ... what? A lot of giggling and staring into the distance? Rather than being able to keep her head when all about her were losing theirs, she started to cry and scream at the slightest provocation - and not genuinely raging, either; no, these were petulant hissy fits. And where the great strength of Austen's Elizabeth (at least in Austen's eyes) was her ability to retain integrity and observance while remaining within the boundaries of society and sustaining impeachable propriety, Knightley's Elizabeth had no regard whatsoever for convention. Furthermore, she seemed to think that wandering around barefoot in the mud in the eighteenth century version of overalls established her beyond doubt as spirited and strong-minded, and therefore nothing in the character as written or the performance had to sustain it. An astonishingly unsubtle and bland performance. In which quest for blandness and weakness, she was ably matched by Matthew Macfayden.&lt;br /&gt;&lt;br /&gt;Donald Sutherland as Mr Bennet seemed weak, ineffectual and permanently befuddled without the wicked sense of humour and ironic detachment at the expense of human relationships that makes Mr Bennet so fascinating and tragic. His special bond with Lizzie, as the only two sensible people in a world of fools, was completely lost, not least because both of them were fools in a world of fools, and that completely deprived the end of the film of emotional impact. Mr Bingley was no longer amiable and well-meaning to the point of folly, but was played as a complete retard for cheap laughs, and the woman who was playing Jane was so wildly inconsistent that she may as well not have tried to do anything with the character at all. The script veered wildly between verbatim chunks of Jane Austen - delivered with remarkable clumsiness - and totally contemporaneous language which would not be out of place in a modern day romantic comedy.&lt;br /&gt;&lt;br /&gt;Just get the BBC adaptation on DVD and save yourself the heartache.</t>
+  </si>
+  <si>
+    <t>I've always enjoyed films that depict life as it is. Life sometimes has boring patches, no real plot, and not necessarily a happy ending. "A River Runs Through It" is the perfect name for this film (and Norman Maclean's novel). Life ebbs and flows like a river, and it has it's rough spots, but it is a wonderful trip.&lt;br /&gt;&lt;br /&gt;Robert Redford brings a lot to the film. His narration has a friendly feel that fits the picture perfectly. As a director, he is restrained and calm, and captures some incredibly beautiful scenes. As for the acting, Craig Sheffer and Brad Pitt work surprising well as brothers. I don't know quite how to describe Tom Skerritt and Brenda Blethyn's performances, except that they truly feel real. "A River Runs Through It" is a wonderful film.&lt;br /&gt;&lt;br /&gt;8.6 out of 10</t>
+  </si>
+  <si>
+    <t>The story is very trustworthy and powerful. The technical side of the movie is quite fine.. even the directing of it. The main problem is with the castings, that turned that movie into almost another local and regular clichÃ© with a great lack of impact and even greater lack of impression. Beside the small role of the father, Rafael (played impressively by Asi Dayan), all other actors were unfortunately not in their best. The role of the elder Blind girl, played by Taly Sharon, was fresh but without any intensity as the leading role. therefore the figure she acted had become mild and low profile. There were moments and episodes that looked more like a rehearsal then a real movie. But after all it's a good point to begin from and to make big improvements in the future.</t>
+  </si>
+  <si>
+    <t>This movie was not so much promoted here in Greece,even though it got good actors , great script and rather good photograph was not a so called "blockbuster" movie in my Country. The movie itself is very powerful,it's about the hard time that a newcomer had to go through when he returns in his home-village after been released from a 5yo prison time(drugs) The end is rather sad.... Mourikis is trying to keep up with his part and he handles it pretty well... Lambropoulou is great and very sexy in a strange way and of course Hatzisavvas is for one more time close to excellency... 7 out of 10 because very few Greek movies can make such an impression!</t>
+  </si>
+  <si>
+    <t>MYSTERY MEN has got to be THE stupidest film I've ever seen, but what a film! I thought it was fabulous, excellent and impressive. It was funny, well-done and nice to see ridiculous Super Heroes for a change! And being able to pull it off! This was great! I'll definitely watch it again!</t>
+  </si>
+  <si>
+    <t>You know that mouthwash commercial where the guy has a mouth full of Listerine or whatever it is and he's trying really hard to keep from spitting it up into the sink? That's a great metaphor for this movie. I kept watching, even though it was really difficult. But keeping mouthwash in your mouth will leave you with a minty fresh feeling. This movie left me with a bad taste in my mouth. I should have spit it out when I had the chance.&lt;br /&gt;&lt;br /&gt;The premise is corny enough to be fun. For the first time in like a thousand years, Gargoyles have returned to Romania, and all of the priests who knew how to fight and kill these things are long dead. It's up to Michael Pare and some other secret agents to get to the bottom of things before the Gargoyles run amok. Unfortunately, the premise is completely lost in bad dialog and less than enthusiastic acting on the part of the human leads. The best acting is done by the CG Gargoyles.&lt;br /&gt;&lt;br /&gt;In the end, this movie feels like a poor man's Van Helsing. If you check your brain at the door, this might get you through a dreary Monday night. I gave it 3 out of 10 stars.</t>
+  </si>
+  <si>
+    <t>I can't believe it that was the worst movie i have ever seen in my life. i laughed a couple of times. ( probably because of how stupid it was ) If someone paid me to see that movie again i wouldn't. the plot was so horrible , it made no sense , and the acting was so bad that i couldn't even tell if they were trying. that movie was terrible rating: F</t>
+  </si>
+  <si>
+    <t>This is one of a rarity of movies, where instead of a bowl of popcorn one should watch it with a bottle of vodka. To be completely honest we are a group of people who actually know the man, Mo Ogrodnik, and decided to drink ourselves stupid to this film.&lt;br /&gt;&lt;br /&gt;The cinematic aspect of Wolfgang Something's photography seems to have left out both close-ups and breasts. Mo and Wolfgang's collaborative effort revealed the passion of the two actresses, plastic peens holding passion. There's also beetle banging. As Violet would have put it: "This (plastic peen) goes up your butt". The rat porn and subsequent rat smashing is awesome. &lt;br /&gt;&lt;br /&gt;Alright. So if you are still reading, let us explain who we are. Mo Ogrodnik teaches at NYU and we are a group of her students, who, finishing a film class with her, decided to get poop- faced and watch here directorial debut. She also wrote Uptown Girls. I can't tell you how much that's been hammered into our skulls. So this movie is quite the experience. At the very bottom of this post will be a drinking game we created for this movie. &lt;br /&gt;&lt;br /&gt;About 13 minutes into this game, none of us could see straight. The sheer amount of Dido's in the first thirty minutes created enough reasons to drink to pacify an elephant.There was something secretly pleasurable about seeing two underage girls hit on a Kurt Cobain lookalike with absolutely no context, save for his mysterious scene at the convenience store where he was oh-so-naturally reading a local newspaper. Because that's what we all do. The heart-shaped glasses were delightfully derivative of Lolita. And something about that provocative scene of the nude chin-up boy suggests the director's history of homosexual pornographic experiments. We wish we were kidding.&lt;br /&gt;&lt;br /&gt;Enough intellectual contemplation. ON TO THE DRINKING GAME! This will ensure that the viewing experience is a positive one. It's very simple, and very likely to send at least one member of your party to immediate care.&lt;br /&gt;&lt;br /&gt;The Mo Ogrodnik/Ripe Drinking Game: 1. Every time you see anything related to pornography, take a drink. 2. Every time you see auteur Mo Ogrodnik's name appear, take a drink. 3. Sex. 4. (plastic peen) require two drinks. 5. Any time somebody points a gun at another character, take a drink. -At this point you will probably need to refill/pee pee any remaining sobriety from your body.- 6. Any time there is blood (INCLUDING "LADY BLOOD"), please take a sip! 7. The underused hula-hoop girl requires one drink per second. 8. Gratuitous use of the "magic black man" requires one drink. 9. If you can't figure out the through-line, KEEP DRINKING, Beyotch. 10. Whenever you are able to predict a line, take a drink. Trust us. It's easy. &lt;br /&gt;&lt;br /&gt;That's it, internet! Keep drinking, and try not to get riped.&lt;br /&gt;&lt;br /&gt;-Hawaiian Smirnoff Punch, Jr.</t>
+  </si>
+  <si>
+    <t>Even though I'm quite young, The Beatles are my ABSOLUTELY FAVOURITE band! I never had the chance to hear their music as it was releases but have loved them since I can remember.&lt;br /&gt;&lt;br /&gt;It's the sort of film that is worth trying the once. I can see why it wasn't released in the cinema but it is certainly a great film to put on the TV. I was flicking through my TV guide and happened to see this film, it didn't much details except something like, 'John Lennon and Paul McCartney meet after The Beatles have broken up, Jared Harris Stars'. I'd never heard of him (he played John) or Aiden Quinn who played Paul. However they are certainly underestimated actors!&lt;br /&gt;&lt;br /&gt;The film had a slow start but as it developed, I could see how well Quinn but especially Harris played their characters. As a huge fan, I sort of know what the real Lennon and McCartney are like. The script was brilliant and Harris got Lennon's accent, personality and mannerisms spot on! Quinn played McCartney quite well but sometimes went into his Irish accent. THe make-up artists made them look excellent.&lt;br /&gt;&lt;br /&gt;THIS PARAGRAPH MAY BE COUNTED AS A *SPOILER*:&lt;br /&gt;&lt;br /&gt;As I mentioned before, it got off to a slow start but soon developed and became quite an emotional film. I found the bit in the park a total waste of time and quite out of character for both of the musicians. As for Lennon's rude line in the Italian restaurant, totally unnecessary. The ending was very poignant and brings a tear to my eye whenever I watch it.&lt;br /&gt;&lt;br /&gt;It is quite different from the other biographical films I've seen where it's about how The Beatles got together and became famous, and those never really did the characters that well. E.g. 'Backbeat'.&lt;br /&gt;&lt;br /&gt;In conclusion, I would say, if you're a Beatles or John Lennon or Paul McCartney fan, give it a chance you may have pleasent surprise. At only about 95 minutes long, it's worth waiting for the film to develop.&lt;br /&gt;&lt;br /&gt;If anyone does know whether the meeting of 1976 really did happen please send it to the 'comments page' for this film, I'd be very interested.</t>
+  </si>
+  <si>
+    <t>An American Werewolf in London had some funny parts, but this one isn't so good. The computer werewolves are just awful: the perspective is all off, it's like seeing them through a distorting mirror. The writers step on the throat of many of their gags. American boy says to Parisian girl, "Is there a cafe' around here?" Instead of just leaving it at that, they have to have the girl sigh and respond, "This is Paris."</t>
+  </si>
+  <si>
+    <t>Originally I was a Tenacious D fan of their first album and naturally listened to a few tracks off The P.O.D. and was rather disappointed. After watching the movie, my view was changed. The movie is pretty funny from beginning to the end and found my self engaged in it even though it was really was a stupid storyline because of the attitudes that KG and Jaybles portray in the movie. &lt;br /&gt;&lt;br /&gt;Much more entertaining and enjoyable than movies I have seen in the theaters lately. ex. Saw III (dull and dragging), Casino Royale (way to homo-erotic) which in prior installments I have really enjoyed &lt;br /&gt;&lt;br /&gt;If you enjoyed Borat, you will enjoy the tale of The Greatest Band on Earth</t>
+  </si>
+  <si>
+    <t>This is just one more of those hideous films that you find on Lifetime TV which portray the abhorrent behavior of some disgusting woman in an empathetic manner. Along with other such nasty films as "The Burning Bed," "Enough," or "Monster," this film takes a disgusting criminal and attempts to show the viewer why she's not such a bad person after all. Give us a break! Here's my question to the filmmakers: If LeTourneau were a man, and Vili were a 12 year old girl, would you have made a picture sympathizing and empathizing with this person? Answer: Hell no.&lt;br /&gt;&lt;br /&gt;Imagine switching the genders in this film, and then you'll see just why myself and others here consider this a worthless piece of garbage. Were the genders switched, there would be no attempt to empathize with the criminal. Instead, we'd likely be treated to a portrayal of a monstrous and hideous man preying upon a young girl, his lascivious behavior landing him in prison, and his brainwashed victim suffering from Stockholm Syndrome. The only reason LeTourneau does not receive the same treatment in this film is by virtue of her sex.&lt;br /&gt;&lt;br /&gt;Let's call a spade a spade. LeTourneau is a pedophile. Plain and simple. No ifs, ands or buts. She's a criminal who belongs in prison, and deserves our derision and contempt, but certainly not our pity or empathy.</t>
+  </si>
+  <si>
+    <t>The premise of this movie was decent enough, but with sub par acting, it was just bland and dull.&lt;br /&gt;&lt;br /&gt;SPOILERS The film does not work because of the nature of the death, it was accidental, so although it was a murder it wasn't like the guy set out to do it. Also through some flashbacks there is a secret that is revealed that sort of makes the events like justice to a degree. There is no emotion in this film. The first 20 minutes or so is just this woman calling her sister, and hearing her message. It was dull and boring.&lt;br /&gt;&lt;br /&gt;With some polishing, and better acting it could have been pretty good.</t>
+  </si>
+  <si>
+    <t>The Lives of the Saints starts off with an atmospheric vision of London as a bustling city of busy, quaint streets and sunshine. I was hoping it would maintain this atmosphere, but it gets bogged down in a story that goes pretty much nowhere.&lt;br /&gt;&lt;br /&gt;Othello works for big, fat Mr. Karva, his crime-boss step-dad (at least I think that is what he is supposed to be because it's never really defined, but he does drop kittens into deep fat friers, so trust me, he's a prick) doing scrappy little errands while his skanky girlfriend gives daddy hand-jobs. One of his colleagues is Runner, a black dude who is always dashing from A to B. Until the day he comes across almost mute homeless child who grants him his wish of being able to stop running. Runner dumps the lost boy in Othello's flat, where he promptly starts granting more wishes. Keen to have some of his own desires fulfilled, Karva has the boy kidnapped. But he isn't sure of what would really bring him happiness. Is it the innocence of being a child again or is it another hand-job? Either way, I don't want to see the little boy grant him the second.&lt;br /&gt;&lt;br /&gt;It just takes ages to get going and there are loads of repetitive scenes. The ending tries to be shocking but since there's hardly any back-story on investment in any of these characters it only serves as a release for the bored audience.&lt;br /&gt;&lt;br /&gt;Writer Tony Grisoni, a favourite of Terry Gilliam, tries to blend in some kind of religious allegory which ends up being pretentious as all hell, ironically. If he gave us something more accessible or at least had better explanations for the characters suddenly acting all weird then it would have been a more enjoyable film. As it is, we are introduced to a bunch of annoying loudmouths who then miraculously seem to develop intelligence when confronted by the mysterious boy. Who's origins are never revealed. That's just plain irritating! &lt;br /&gt;&lt;br /&gt;Aside from sporadic moments of atmosphere and a moody score, this film has little to recommend.</t>
+  </si>
+  <si>
+    <t>I can't emphasize it enough, do *NOT* get this movie for the kids.&lt;br /&gt;&lt;br /&gt;For that matter, you'd best spare the adults from it as well.&lt;br /&gt;&lt;br /&gt;All right, perhaps I'm overexaggerating a little. This isn't the worst kids' movie... no, let me rephrase that. This isn't the worst movie made by dissilusioned adults FOR dissilusioned adults and somehow marketed towards kids (that would be "Jack", which I've been meaning to review / gut like a fish).&lt;br /&gt;&lt;br /&gt;Adults won't learn anything surprising (well, if you must, fast-forward to just before the end credits for a Educational Bit about an Interesting Cosmic Phenominon). We don't usually end up doing as adults what we wanted to do as kids as reality tends to get in the way. Well, duh, I could have told you that (so can four years of college at an art school, but I degress).&lt;br /&gt;&lt;br /&gt;I have no idea what the heck kids could possibly get out of this movie. Most likely it will only upset them (we get to watch the moment when Russ was traumatized at eight years old). There's a better movie, "Kiki's Delivery Service", that has essentially the same message but handles it litely instead of drilling it into your head. And the adults will like it too!&lt;br /&gt;&lt;br /&gt;By the way, there is a moment in the movie made with amature MST3K-ers in mind, if they think of that OTHER Bruce Willis movie with a sad little kid in it.</t>
+  </si>
+  <si>
+    <t>Is nothing else on TV? Are you really bored? Well, then watch Phat Beach. However, don't rent it and definitely DO NOT buy it. That would be a big mistake.&lt;br /&gt;&lt;br /&gt;I watched this on TV and found myself laughing at certain points. I did not laugh long and I did not laugh hard. However, there were subtle jokes and comments I laughed at. If you are looking for an extremely funny "hood" movie then watch Friday. If you are looking for a powerful emotional movie (something that this movie tries at..kind of) watch something like hoop dreams or Jason's Lyric. If you are lookin for some good black "booty" go watch a Dominique Simone porn flick, because the nudity in this movie is nearly non-existent. However, if you have nothing better to do and this is on cable, go ahead and watch it. You will be slightly amused.&lt;br /&gt;&lt;br /&gt;***3 out of 10***</t>
+  </si>
+  <si>
+    <t>The Elegant Documentary -&lt;br /&gt;&lt;br /&gt;Don't watch this movie ... if you're an egotistical know-all student of physics. This much less than one percent (miniscule fraction) of the population may find that this show just tells them what they have already learned and already know.&lt;br /&gt;&lt;br /&gt;Do watch this movie! - If you're one of the massive majority of people that fall into the greater than 99% of the population that does not study or already have a sound knowledge of the theories of physics including Relativity, Quantum, String and M-theory.&lt;br /&gt;&lt;br /&gt;What a brilliantly architected documentary. Starting with some helpful historical background you will be lead step by elegant step into a Universe of pure magic - and dimensions beyond. I have always had a huge appreciation of Mathematics. This movie can easily give you an insight into what an exquisitely beautiful language mathematics is without making you feel like you're about to fail the grade.&lt;br /&gt;&lt;br /&gt;The show is repetitive at times as the original format was a mini-series split over three shows. It therefore makes sense to give us polite little reminders of the principles being presented. I found this immensely helpful as it kept reminding me of the multitude of questions and possible answers that make up this amazing tapestry of our very existence.&lt;br /&gt;&lt;br /&gt;We are all (and everything around us) is vibrational-energy with a natural tendency towards harmony. This movie may blow your mind - or at least help you realize that the universe is far far bigger than that which we see around us (even with the Hubble Telescope) and far far smaller than the protons and neutrons within the atoms we learned about in high-school. M-theory holds many magnificent magnitudes of 'possibility'.&lt;br /&gt;&lt;br /&gt;It just seemed so appropriate that all of this elegance should by it's very nature move (by admission by the many brilliant scientists presenting) out of the realm of Science and into the realm of Philisophy.&lt;br /&gt;&lt;br /&gt;You do not have to be religious at all to feel like this movie brought you one step closer to God.&lt;br /&gt;&lt;br /&gt;Bravo Brian Greene. Well done indeed.&lt;br /&gt;&lt;br /&gt;P.S. If you're interested in feeling even more comfortable and at home in your place in the Universe and would like some more insight into the 'possibilities' Quantum mechanics blended with Spirituality (of all things) can bring then I highly recommend that you also watch "What the Bleep!? - Down the Rabbit Hole". Yes I know they make a few silly mistakes by suggesting a Shaman may not be able to see a boat if he hasn't seen one before (my eyes process light reflections just fine - I see things everyday that I've never seen before) and brain cells are cells in the body that actually don't divide. But if you can get over these little hurdles and put down the things you don't like and hang on to those that you do - there is a lot to like about this film.&lt;br /&gt;&lt;br /&gt;Then watch "The Secret" (2006 documentary about The Law of Attraction - search for IMDb title "tt0846789"). This information just might change your life profoundly - forever. If you search deeper you might even find the Universe is talking to us with thought (if you'll listen) - and some are - and that is truly incredible. There is a modern day Jesus/Mohammad/Buddha (those, among others, that history suggests have communicated with the non-physical) alive today and she lives in Texas. I know some of you know what I'm talking about.&lt;br /&gt;&lt;br /&gt;I do not consider myself religious by any traditional definition but I have never felt more at home or as comfortable in the Universe as I do now.</t>
+  </si>
+  <si>
+    <t>In 1993, with the success of the first season of Batman: The Animated Series, Warner Brothers commissioned the team responsible for the hit-show with producing a feature-length movie, originally slated for Direct-To-Video, but bumped up to theatrical status. It would become known as Batman: Mask of the Phantasm. Ten years after Phantasm, we have had an additional three feature-films released from the boys at the WB, Sub-Zero, Return of the Joker, and now, Mystery of the Batwoman joins the family.&lt;br /&gt;&lt;br /&gt;The plot is basic and in many ways similar to Mask of the Phantasm: A new female vigilante modeling herself after Batman has begun targeting operations run by Gotham mob boss Rupert Thorne and Oswald Cobblepot AKA The Penguin. Now, Batman must attempt to unravel the mystery of the Batwoman before she crosses the line.&lt;br /&gt;&lt;br /&gt;The animation is the sleeker, futuristic style that was utilized for Batman: The Animated Series' fifth and sixth seasons (AKA The New Batman Adventures). , it's quite nicely done, and just as sleek as Return of the Joker's animation. There is also some use of CGI, but it's minor compared to the overabundance of it in Sub-Zero. The music was alright. Different and exotic and similar to the Justice League score, although the points in the score when the old animated Batman theme comes up will be sure to send waves of nostalgia through the older fans' rodent-shaped hearts.&lt;br /&gt;&lt;br /&gt;Kevin Conroy, as always, does a wonderful job as Bruce Wayne and Batman. It's also great to have the old Batman: The Animated Series alumni back; that includes Bob Hastings (Commissioner Gordon), Robert Costanzo (Detective Bullock), Tara Strong (Barbara Gordon/Batgirl; her cameo hints at the romantic-relationship between her and Bruce that was mentioned in Batman Beyond), and Efrem Zimbalist Jr.(Alfred).&lt;br /&gt;&lt;br /&gt;Villains were also great - especially given that Rupert Thorne, the old mob boss from the original series, appears for the first time since the fourth season.&lt;br /&gt;&lt;br /&gt;Overall, while not quite reaching the standard set by Mask of the Phantasm ten years ago, MOTB carries on the torch quite nicely for the animated Batman films. And if you have the DVD and are a hardcore fan, you will love the five-minute short Chase Me.</t>
+  </si>
+  <si>
+    <t>I think this movie was supposed to be shocking. But the only way in which it is indeed shocking is how shocking badly it's been made ...and simply is. It's one-and-a-half hour of torment. Even more so for the viewer than for the characters in the movie (the five girls).&lt;br /&gt;&lt;br /&gt;Sure the main characters get their bloody piece in a bad way, which is basically fine, since it's a horror-movie. And I (usually) like horror-movies. I've no problem with violence in these type of movies per se. However all the violence in this film serves no end whatsoever. It's no spectacle other than that it's simply grotesque. It's so lame it even gets boring, and really quick too.&lt;br /&gt;&lt;br /&gt;The worst thing (if the above wasn't bad enough for ya) about this movie is that they've tried to copy the Blair Whitch Project, by filming with cheap hand-held-cameras. But (again, this too) serves no end whatsoever. In the "Blair Which", sure enough, there's an explanation, namely they are their with a camera looking for the blair witch. In this film, there's no other explanation than: "Hey ya'll we wanted this to LOOK LIKE the Blair Whitch!!" The sound in the movie is also something to get depressed about. The girls are screaming so hysterically that many a time you can't make out what they're saying. Also, no effort has been made to make anything any better, sound-wise or other wise.&lt;br /&gt;&lt;br /&gt;Than finally, there's the soundtrack, which is just as bad as the rest, and varies from cheap euro-house to the worst grungy hard-rock...&lt;br /&gt;&lt;br /&gt;My advise: Don't watch this under ANY circumstances.</t>
+  </si>
+  <si>
+    <t>Why can't a movie be rated a zero? Or even a negative number? Some movies such as "Plan Nine From Outer Space" are so bad they're fun to watch. THIS IS NOT ONE. "The Dungeon of Horror" might be the worst movie I've ever seen (some of anyway. I HAD to fast forward through a lot of it!). Fortunately for the indiscretions of my youth and senility of my advancing age, there may be worse movies I've seen, but thankfully, I can't remember them. The sets appeared to be made with cardboard and finished with cans of spray paint. The special effects looked like a fifth grader's C+ diorama set in a shoebox. The movie contained unforgivable gaffs such as when the Marquis shoots and kills his servant. He then immediately gets into a scuffle with his escaping victim, who takes his flintlock and shoots him with it, without the gun having been reloaded! This movie was so bad my DVD copy only had name credits. I guess no company or studio wanted to be incriminated. Though I guess when you film in your garage and make sets out of cardboard boxes a studio isn't needed. This movie definitely ranks in my cellar of all time worst movies with such horrible sacrileges as "The Manipulator", the worst movie I have ever seen with an actual (one time) Hollywood leading man-Mickey Rooney. The only time I would recommend watching "The Dungeon of Harrow" (or "The Manipulator" for that matter) would be if someone were to pay you. (I'm kind of cheap) I'd have to have $7 or $8 bucks for "Dungeon" and at least ten for "Manipulator". phil-the never out of the can cinematographer</t>
+  </si>
+  <si>
+    <t>This movie took me by surprise. The opening credit sequence features nicely done animation. After that, we're plunged into a semi-cheesy production, betraying its low budget. The characters, typical American teens, are introduced slowly, with more personal detail than is usually found in movies like this. By the time the shlitz hits the fan, we know each one of the characters, and either like or hate them according to their distinct personalities. It's a slow uphill set-up, kind of like the ride up a slope of a really tall roller coaster. Thankfully, once the action kicks in, it's full blown old school HORROR! Steve Johnson's make-up effects are awesome. Equal in quality to much bigger budgeted films. And the scares are jolting. Kevin Tenney delivers his best movie ever, with heart-stopping surprises and creepy suspenseful set-ups. The tongue-in-cheek, sometimes cheesy, humor marks this film as pure 80s horror, as opposed to the sullen tone of earlier genre fare like "Night of the Living Dead" or "Hills Have Eyes." But for true horror fans, this one is worth checking out. Play it as the first entry on a double bill with the 1999 remake of "House on the Haunted Hill." The set-up and character dynamics are so similar that you really have to wonder what film they were actually remaking?</t>
+  </si>
+  <si>
+    <t>Though I'd heard that "Cama de Gato" was the worst Brazilian movie of the decade, I watched it giving it a chance; after all, first-time director/producer/writer Alexandre Stockler managed to make his debut feature (shot in video) for just US$ 4,000 and -- though it looks even cheaper -- I can't begin to imagine all he went through to finally get it exhibited in theaters with no big sponsors or production companies behind it (then as I watched it I realized why). But whatever chances you're ready to give to "Cama de Gato", they shrink to zero within 10 minutes: it's an unbelievably preposterous, verbose, ideologically fanatical and technically catastrophic attempt to portray Brazilian upper-middle class youth as a bunch of spoiled neo-Nazis hooked on bad sex, drugs and violence (and they're made to look like closeted gays too), made with no visible trace of talent, imagination, expertise or notion of structure. Visually and aurally, it recalls the worst amateur stuff you can find on YouTube -- only here it lasts NINETY TWO (count'em) minutes of unrelenting hysteria and clumsiness, and it's not even funny-bad.&lt;br /&gt;&lt;br /&gt;We've all seen the story before: bored young guys want to have fun, go partying, take drugs and everything goes wrong -- there's gang-rape, spanking, murder, the accidental death (falling down the staircase!!) of the mother of one of the boys, culminating with the boys deciding to burn the corpses of the girl and the mother in a garbage landfill. Moral and literal garbage, get it? The film is heavily influenced by Larry Clark (especially "Kids" and "Bully"), but Clark's films -- though also moralist and sexploitative -- are high-class masterworks compared to this crap.&lt;br /&gt;&lt;br /&gt;I don't think there was ever such monomaniacal drive in a filmmaker to stick his ideas down the audience's throat: Stockler grabs us by the collar and tries to force his non-stop moralist rant into our brains by repetition and exhaustion -- you DO get numb-minded with so much babbling, yelling, inept direction, shaky camera and terrible acting going on. Stockler doesn't care a bit about technique (the quality of the images, framing, sound recording, soundtrack songs, dialog, sets, editing, etc is uniformly appalling), but he's a narcissistic control-freak: he anticipates the criticisms he's bound to get by adding subtitles with smartie/cutie comments, and by making the protagonists comment at one point how far-fetched and phony it all is (I could relate to THAT). &lt;br /&gt;&lt;br /&gt;Despite his megalomaniac ambitions, Stockler seems incapable of giving us a minimum of visual or narrative structure -- he can't even decide if he wants gritty realism (hand-held video camera etc) or stylization (repetition of scenes, use of alternate takes, etc). Damn, he can't even decide WHERE to put his camera (there's use of subjective camera for the THREE leads)! The dialog features some of the most stupefyingly banal verbosity ever; the plot exists simply to justify the director's profound hatred for his characters and what they stand for. All you see is a filmmaker being hateful, preachy, condemning, moralizing without the benefit of a minimum of talent (or technique) to go with it.&lt;br /&gt;&lt;br /&gt;It's very disappointing to find Caio Blat in this mess. Certainly one of the most promising young film actors in Brazil, with his sleepy-eyed puppy dog looks and emotional edge that often recall Sal Mineo's, Blat can be highly effective under good direction (as in "Carandiru", "Lavoura Arcaica", "Proibido Proibir"). Here, he's told to go over the top and he has to play with some of the most embarrassingly under-equipped "actors" in recent memory. He also enters the risky realm of graphic sexploitation scenes (so goddawful they look rather like web-cam porn).&lt;br /&gt;&lt;br /&gt;The film opens and ends with real interviews with "typical" (?) middle-class youth -- Stockler wants us to take those interviews as "proof" of what he's trying to preach in fiction. But he blatantly despises and makes fun of his interviewees, selecting a highlight of abject, racist, sexist, stupid statements (which only shows assholes exist everywhere). Stockler wants to prove that Brazilian middle-class youths are ALL present or future fascists BECAUSE they're middle-class and enjoy recreational drugs (is he saying all neo-fascists are on drugs?? Or that drugs potentialize fascist behavior?? I couldn't tell). &lt;br /&gt;&lt;br /&gt;With its dogmatic self-righteousness, headache-inducing technique and mind-bending boredom, "Cama de Gato" is bad for a 1,000 reasons but, above all, it's harmful in a very insidious manner: it gives detractors of Brazilian cinema a powerful case of argument. "Cama de Gato" is best unwatched, unmentioned, buried and forgotten.</t>
+  </si>
+  <si>
+    <t>An unforgettable masterpiece from the creator of The Secret of Nimh and The Land Before Time, this was a very touching bittersweet cartoon. I remember this very well from my childhood, it was funny and sad and very beautiful. Well it starts out a bit dark, a dog who escaped the pound, and gets killed by an old friend, ends up in Heaven, and comes back. But it becomes sweet when he befriends an orphaned girl who can talk to animals. Some scenes were a bit scary contrary to other cartoons, like the dream sequence of Charlie, but everything else was okay,and the songs were fair. A memorable role of Burt Reynolds and Dom DeLuise, I just love that guy, ahehehe. And Judith Barsi of Jaws The Revenge, may God rest her soul, poor girl, she didn't deserve to die, but she is in Heaven now, all good people go to Heaven. Overall this is a very good animated movie, a Don Bluth classic enough to put anime and Disney to shame. Recommended for the whole family. And know this, if you have the original video of this, you'll find after the movie, Dom DeLuise has a very important and special message, gotta love that guy, ahehehe.</t>
+  </si>
+  <si>
+    <t>This movie was a failure as a comedy and a film in general. It was a very slow paced movie that seemed to be trying to convey a message, but the message was a clichÃ©, hopeless mess to begin with. This movie falls on shameless environmental point, even making a self-righteous point of destroying an SUV and promoting Animal Planet.&lt;br /&gt;&lt;br /&gt;In sitting through this, I couldn't help but notice that Steve Carell got no more than a single truly funny line. The only thing that could hypothetically mark this as a comedy is the pitiful attempt to give comic relief lines to Wanda Sykes. Her character gets frequent, cringe-worthy lines where they absolutely do not fit.&lt;br /&gt;&lt;br /&gt;Far from the brilliance of Bruce Almighty, Evan Almighty blows its whole record-breaking budget on special effect plot devices that turn out to barely advance the plot. The movie spends the first half building up to the construction of Evan's ark, but by the end, we learn that the ark was completely meaningless, and the whole plot was a just a vessel for the stupid gags and even stupider messages. The movie concludes when we learn that the whole ark, flood, and animal gathering was just a weak political statement by none other than God. Yes, God was trying to influence politics.</t>
+  </si>
+  <si>
+    <t>It is so gratifying to see one great piece of art converted into another without distortion or contrivance. I had no guess as to how such an extraordinary piece of literature could be recreated as a film worth seeing. If you loved Bulgakov's book you would be, understandably, afraid of seeing some misguided interpretation done more for the sake of an art-film project than for actually bringing the story's deeper meaning to the screen. There are a couple examples of this with the Master and Margarita. As complex and far-fetched as the story is, the movie leaves out nothing. It is as if the filmmaker read Bulgakov's work the same way an orchestral conductor reads a score--with not a note missed. Why can't we find such talent here in the U.S. ? So now my favorite book and movie have the same title.</t>
+  </si>
+  <si>
+    <t>This movie is very violent, yet exciting with original dialog and cool characters. It has one of the most moving stories and is very true to life. The movie start off with action star Leo Fong as a down and out cop who is approaching the end of his career, when he stumbles on to a big case that involves corruption, black mail and murder. This is where the killings start. From start finish Fong delivers in this must see action caper. This movie also co-stars Richard Roundtree.&lt;br /&gt;&lt;br /&gt;I really enjoyed this film as a child but as I got older I realized that this film is pretty cheesy and not very good. I would not recommend this film and the action is very, very bad.</t>
+  </si>
+  <si>
+    <t>The day has finally come for me to witness the perpetuation of Azumi's fate as an assassin, fruition of her character and the ultimate attempt to draw me deeper into the world she rampaged through so mercilessly during the first saga.&lt;br /&gt;&lt;br /&gt;That's as poetical as I'll get when talking about Azumi 2: Death or Love, because when I cringed over the heavy sentimentality of House of Flying Daggers and complained about the credibility of Aya Ueto portraying a blood-driven assassin, after watching Azumi 2 I started to appreciate the previously mentioned shortcomings more than ever before.&lt;br /&gt;&lt;br /&gt;Not only does the determination of each assassin feels sluggish and uninspiring but also many important elements are omitted from the entire experience. In Azumi 1 we saw the assassins use various stealth tactics (which is their number one priority) as well as logic to make easy work of their marks with swift executions and quicker abilities to escape. But I won't hold that against this movie too much since the story is slightly tweaked this time around and many more obstacles are planted in Azumi's way to prevent her from reaching the warlord and displaying any signs of charisma. By the way, Chiaki is foolishly shelved for the most part of the film and is basically playing a toned down version of Go Go, minus the cool weapon and sense of menace.&lt;br /&gt;&lt;br /&gt;This brings me to the final blow which is the action, simply disguised in the title as the 'Death' side of the epic. In the first half of the film we see the debut of many promising adversaries with flashy looks and even flashier weapons. To no one's surprise they meet their end one way or another but the film falls short when each of them start dying too fast and too easily. In Azumi 1, the young assassins were mostly overpowering the opposition with quick but somewhat satisfying battles and the final showdown between Azumi and Bijomaru in comparison to the fights in Azumi 2 was at least climaxed and worthwhile. Some interesting effects were introduced but they were unable to achieve innovation due to the shortness of each encounter. I am in no way knocking down the conventional style of samurai films with their quick and realistic battles but characters in both Azumi films were so imaginative and straight out of anime that the rules could have been broken and the action should have been further enriched.&lt;br /&gt;&lt;br /&gt;The romance side of Azumi is there to fill in time between the fight scenes and unfortunately at the end it serves no purpose nor provides a much needed resolution.&lt;br /&gt;&lt;br /&gt;As a fan with an open mind for wide variety of movies and animation, I won't lie and I'll admit to my neutrality and unimpressiveness towards the first Azumi film, but I'll step right up and say that after watching Azumi 2, the original was made to look like a flawless masterpiece. For what it's worth, Azumi 2: Death or Love could have gone straight to video, with its invisibly richer budget and a failed potential to add or even expand on the bumpy journey of desperate assassins, doing their best to restore the peace, with an unwavering courage to die trying.</t>
+  </si>
+  <si>
+    <t>This has to be the worst piece of garbage I've seen in a while.&lt;br /&gt;&lt;br /&gt;Heath Ledger is a heartthrob? He looked deformed. I wish I'd known that he and Naomi Watts are an item in real life because I spent 2 of the longest hours of my life wondering what she saw in him. &lt;br /&gt;&lt;br /&gt;Orlando Bloom is a heartthrob? With the scraggly beard and deer-in-the-headlights look about him, I can't say I agree.&lt;br /&gt;&lt;br /&gt;Rachel Griffiths was her usual fabulous self, but Geoffrey Rush looked as if he couldn't wait to get off the set. &lt;br /&gt;&lt;br /&gt;I'm supposed to feel sorry for bankrobbers and murderers? This is a far cry from Butch Cassidy, which actually WAS an entertaining film. This was trite, cliche-ridden and boring. We only stayed because we were convinced it would get better. It didn't.&lt;br /&gt;&lt;br /&gt;The last 10-15 minutes or so were unintentionally hilarious. Heath and his gang are holed up in a frontier hotel, and women and children are dying because of their presence. That's not funny. But it was funny when they walked out of the hotel with the armor on, because all we could think of was the Black Knight from Monty Python and the Holy Grail. I kept waiting for them to say "I'll bite yer leg off!" We were howling with laughter, as were several other warped members of the audience. When we left, pretty much everyone was talking about what a waste of time this film was.&lt;br /&gt;&lt;br /&gt;I may not have paid cash to see this disaster (sneak preview), but it certainly wasn't free. It cost me 2 hours of my life that I will never get back.</t>
+  </si>
+  <si>
+    <t>A very ordinary made-for-tv product, "Tyson" attempts to be a serious biopic while stretching the moments of angst for effect, fast forwarding through the esoterics of the corrupt sport of boxing, and muddling the sensationalistic stuff which is the only thing which makes Tyson even remotely interesting. A lukewarm watch at best which more likely to appeal to the general public than to boxing fans.</t>
+  </si>
+  <si>
+    <t>I'm sure deep in the recesses of Jack Blacks mind the character of Nacho Libre is absolutely hilarious but no it isn't. You can tell ol Jacks having a whale of a time hammin it up playing a smarmy, slimy Mexican friar with dreams of becoming a wrestler but this movie is a total misfire in just about every single department.&lt;br /&gt;&lt;br /&gt;I just sat there through most of the movie thinking "Is this supposed to be funny" and "This is the guy from Tenacious D right?". The truth is this film has NOTHING to offer. AT ALL! It's a lousy script with crappy characters and really naff acting and direction. You'll watch endless moments where you think something funny is surely about to happen but it just doesn't. I was bored stupid about 10 minutes in but though it would surely pick up. It didn't. 90 minutes later I'd barely managed to stave off an aneurism it was that painful.&lt;br /&gt;&lt;br /&gt;It's like, remember years ago when you'd see anything with your fave actor in it, even some of their really early pap from before they were famous, and you'd be really embarrassed that said actor was actually in such a load of plop. Yeah it's like that.&lt;br /&gt;&lt;br /&gt;I've enjoyed some of Jack Black's earlier movies like Shallow Hall and I'm really looking forward to seeing Pick of Destiny but come on man. If you do this to us again Jack I'm gonna have to come round there and hammer your kneecaps or something. At the least give you a serious talking to.&lt;br /&gt;&lt;br /&gt;I know it's a clichÃ© but this is one of the worst movies I've ever seen and for so many reasons....</t>
+  </si>
+  <si>
+    <t>I haven't read the Anne Rice novel that this movie was based on, but who knows, maybe reading the book is cheaper than renting QUEEN OF THE DAMNED and is probably better for your health. It isn't that this movie is necessarily bad for your health, but a book can be very relaxing and certainly exercises the active part of your brain more so than this movie. You can count the number of pages by Anne Rice that I've read on one hand, but after seeing this movie and Interview with a Vampire, I get the feeling that she writes really good novels. The plots for both movies hint at a whole sea of deep and interwoven vampire history.&lt;br /&gt;&lt;br /&gt;Still, Stuart Townsend's voice-over narration gets a heck of a lot more annoying than Brad Pitt's vampire narrative ever did, and you can tell that QUEEN OF THE DAMNED's limited production resources barely give enough flesh to the Anne Rice storyline. While Interview decided to go with lace and elegance, QUEEN relies on low budget special effects that try really hard to be taken seriously. One can see that the original novel had potential as a movie and that the production team focused its attention in the wrong places. The costumes and rock &amp; roll stage could have been replaced with more blood and an eerier soundtrack.&lt;br /&gt;&lt;br /&gt;However, I'll give credit where credit is due. The soundtrack is excellent. Korn and Disturbed had me down with the sickness bobbing my noggin like Butthead.&lt;br /&gt;&lt;br /&gt;The film opens with a very cool Goth-rock zoom &amp; splice montage, but after the first ten minutes or so, the directing degenerates quickly. It's as if the movie was so long that the director realized that there wasn't enough time and enough money to do an Anne Rice novel justice. What results are some mediocre vampire scenes and plenty of cheesy special effects. Unfortunately, QUEEN OF THE DAMNED fails to do the genre justice just as its John Carpenter counterparts fail to impress. Where are the yellow contacts? Where's the pale blue make-up? Scene after scene, I shook my head reminiscing about the days of Salem's Lot and Fright Night when low budget was done right.&lt;br /&gt;&lt;br /&gt;There are redeeming qualities though that save this movie from being garbage. Props to Aaliyah, and may her soul forever rest in peace. She might have become a renowned actress, had her life not been taken from us so prematurely, for she did give this movie a decent performance with plenty of nice belly dancing. Did I mention that the soundtrack was good? Let's see, what else can I say? It wasn't too long. The Anne Rice novel could have easily been a three hour movie if an ambitious director like Francis Ford Coppola got his hands on it. There are a few twists and turns here and there in the plot. But all in all it was a legitimate rock and roll addition to the slew of second-rate vampire movies out there. The director of this movie went on to direct a new Battlestar Galactica mini series if that tells you anything.&lt;br /&gt;&lt;br /&gt;JY&lt;br /&gt;&lt;br /&gt;Jimboduck-dot-com</t>
+  </si>
+  <si>
+    <t>While I count myself as a fan of the Babylon 5 television series, the original movie that introduced the series was a weak start. Although many of the elements that would later mature and become much more compelling in the series are there, the pace of The Gathering is slow, the makeup somewhat inadequate, and the plot confusing. Worse, the characterization in the premiere episode is poor. Although the ratings chart shows that many fans are willing to overlook these problems, I remember The Gathering almost turned me off off what soon grew into a spectacular series.</t>
+  </si>
+  <si>
+    <t>Leonard Maltin gave this film a dreaded BOMB rating in his 1995 Movie and Video Guide. What film was he looking at? Kid Vengeance or God's Gun are bombs. This film is a delight. It is fantastic. It is literate. It is well mounted. It is beautiful photographed, making a brilliant use of colors. Right from the opening scene the film grabs your attention and tips you off that this film is a well-done satire of the whole Spaghetti Western genre. The film is played for laughs from the beginning to the end with homages to Douglas Fairbanks, 77 Sunset Strip, and the famous showdown in the Good, the Bad, and the Ugly. Edd Byrnes, George Hilton, and Gilbert Roland work brilliantly together to make the satire work. It is too bad Mr. Maltin rated this film so poorly as it is undeserved. One can only guess as to his reason. I suspect that he missed the point of the movie entirely and was expecting something more serious than this film is meant to be. Kudos belong to everyone involved in this project. This film is a little gem waiting to be discovered by people who care about literate movies and appreciate satire.</t>
+  </si>
+  <si>
+    <t>I don't believe there has ever been a more evil or wicked television program to air in the United States as The 700 Club. They are today's equivalent to the Ku Klux Klan of the 20th century. Their hatred of all that is good and sweet and human and pure is beyond all ability to understand. Their daily constant attacks upon millions and millions of Americans, as well as billions of humans the world over, who don't happen to share their bigoted, cruel, monstrous, and utterly insane view of humanity is beyond anything television has ever seen. The lies they spout and the ridiculous lies they try to pass off as truth, such as the idea of "life after death" or "god" or "sin" or "the devil" is so preposterous that they actually seem mentally ill, so lost are they in their fantasy. Sane people know that religion is a drug and shouldn't let themselves get addicted to that type of fantasy. However, The 700 Club is in a class by itself. They are truly a cult. While I believe in freedom of speech, they way they spread hatred, lies, disinformation, and such fantastic ideas is beyond all limits. I hope that one day the American Psychiatric Association will finally take up the study of those people who delude themselves in this way, people who let themselves sink so deeply into the fantasy land of religion that they no longer have any real concept of reality at all. Treatment for such afflicted individuals is sorely needed in this country, as so many people have completely lost their minds to the fantasy of religion. The 700 Club though, is even more horrible as it rises to the legal definition of 'cult' but due to The 700 Club's vast wealth (conned daily from the millions of Americans locked in their deceitful grip) they are above the law in this country. For those of you who have seen the movie "The Matrix" you know that movie was a metaphor for religion on earth: the evil ones who are at the top of each of the religions who drain the ones they have trapped and cruelly abuse for their own selfish purposes, and those millions who are held in a death sleep and slowly being drained of their life force represent those many people who belong to religions and who have lost all ability to perceive what is really going on around them.&lt;br /&gt;&lt;br /&gt;In less civil times, the good townsfolk would have run such monsters as those associated with The 700 Club out of town with torches and pitchforks. But in today's world where people have lost all choice in their choices of television that is presented to them, we have no way to rid ourselves of the 700 Club plague. &lt;br /&gt;&lt;br /&gt;The television ratings system and the "V" chip on TV's should also have a rating called "R" for religion, so that rational people and concerned parents could easily screen such vile intellectual and brutal emotional rape, such as presented by The 700 Club every day all over our country, from themselves and their children.</t>
+  </si>
+  <si>
+    <t>If you wish to see Shakespeare's masterpiece in its entirety, I suggest you find this BBC version. Indeed it is overlong at four and a half hours but Jacoby's performance as Hamlet and Patrick Stewart's as Claudius are well worth the effort.&lt;br /&gt;&lt;br /&gt;It never ceases to amaze me how clear "Hamlet" is when you see it in its length and order as set down by the Bard. Every film version of "Hamlet" has tinkered with its structure. Olivier concentrated on Hamlet's indecision, Gibson on his passions. Jacoby is able to pull all of these aspects of Hamlet's character together with the aid of Shakespeare's full script.&lt;br /&gt;&lt;br /&gt;Why does Hamlet not kill Claudius immediately? Hamlet says "I am very proud, revengeful, ambitious..." Hamlet is extremely upset, not only for his father's death (and suspected murder), or his mother's marriage to his uncle, but also, and mostly, because Claudius has usurped the throne belonging to Hamlet. He is furious at his mother for marrying Claudius (marriages between royal kin is not unknown; done for political reasons) but that her marriage solidified Claudius' claim to the throne before he could return from Wittenburg to claim it for himself. He is, therefore, impotent to do anything about it. And this is true even after he hears his father's ghost cry vengeance. He cannot simply kill the King or he will lose the throne in doing so. He must "out" the King's secret and here is the tragedy! At the moment Hamlet is successful in displaying Claudius' guilt in public, he has opportunity to kill him and does not. WHY? He wants it ALL! He wants revenge, the throne AND the damnation of Claudius' soul in hell. Hamlet OVERREACHES himself in classic tragic form. His own HUBRIS is his undoing. He kills Polonius thinking it is Claudius and the rest of the play spirals down to the final deaths of Rosencrantz, Guildenstern, Ophelia, Laertes, Gertrude, Claudius and Hamlet himself.</t>
+  </si>
+  <si>
+    <t>The Golden Door is the story of a Sicilian family's journey from the Old World (Italy) to the New World (America). Salvatore, a middle-aged man who hopes for a more fruitful life, persuades his family to leave their homeland behind in Sicily, take the arduous journey across the raging seas, and inhabit a land whose rivers supposedly flow with milk. In short, they believe that by risking everything for the New World their dreams of prosperity will be fulfilled. The imagery of the New World is optimistic, clever and highly imaginative. Silver coins rain from heaven upon Salvatore as he anticipates how prosperous he'll be in the New World; carrots and onions twice the size of human beings are shown being harvested to suggest wealth and health, and rivers of milk are swam in and flow through the minds of those who anticipate what the New World will yield. All of this imagery is surrealistically interwoven with the characters and helps nicely compliment the gritty realism that the story unfolds to the audience. The contrast between this imagery versus the dark reality of the Sicilian people helps provide hope while they're aboard the ship to the New World.&lt;br /&gt;&lt;br /&gt;The voyage to the New World is shot almost in complete darkness, especially when the seas tempests roar and nearly kill the people within. The dark reality I referred to is the Old World and the journey itself to the New World. The Old World is depicted as somewhat destitute and primitive. This is shown as Salvatore scrambles together to sell what few possessions he has left (donkeys, goats and rabbits) in order to obtain the appropriate clothing he needs to enter the New World. I thought it was rather interesting that these people believed they had to conform to a certain dress code in order to be accepted in the New World; it was almost suggesting that people had to fit a particular stereotype or mold in order to be recognized as morally fit. The most powerful image in the film was when the ship is leaving their homeland and setting sail for the New World. This shot shows an overhead view of a crowd of people who slowly seem to separate from one another, depicting the separation between the Old and New Worlds. This shot also suggested that the people were being torn away from all that was once familiar, wanted to divorce from their previous dark living conditions and were desirous to enter a world that held more promise.&lt;br /&gt;&lt;br /&gt;As later contrasted to how the New World visually looks, the Old World seems dark and bleak as compared to the bright yet foggy New World. I thought it was particularly interesting that the Statue of Liberty is never shown through the fog at Ellis Island, but is remained hidden. I think this was an intentional directing choice that seemed to negate the purpose of what the Statue of Liberty stands for: "Give me your poor, your tired, your hungry" seemed like a joke in regards to what these people had to go through when arriving at the New World. Once they arrived in the Americas, they had to go through rather humiliating tests (i.e. delousing, mathematics, puzzles, etc.) in order to prove themselves as fit for the New World. These tests completely changed the perspectives of the Sicilian people. In particular, Salvatore's mother had the most difficult time subjecting herself to the rules and laws of the New World, feeling more violated than treated with respect. Where their dreams once provided hope and optimism for what the New World would provide, the reality of what the New World required was disparaging and rude. Salvatore doesn't change much other than his attitude towards what he felt the New World would be like versus what the New World actually was seemed disappointing to him. This attitude was shared by mostly everyone who voyaged with him. Their character arcs deal more with a cherished dream being greatly upset and a dark reality that had to be accepted.&lt;br /&gt;&lt;br /&gt;The film seems to make a strong commentary on preparing oneself to enter a heavenly and civilized society. Cleanliness, marriage and intelligence are prerequisites. Adhering to these rules is to prevent disease, immoral behavior and stupidity from dominating. Perhaps this is a commentary on how America has learned from the failings of other nations and so was purposefully established to secure that these plagues did not infest and destruct. Though the rules seemed rigid, they were there to protect and help the people flourish.</t>
+  </si>
+  <si>
+    <t>Nifty little episode played mainly for laughs, but with clever dollop of suspense. Somehow a Martian has snuck aboard a broken-down bus on its way to nowhere, but which passenger is it, (talk about your illegal immigrants!). All-star supporting cast, from wild-eyed Jack Elam (hamming it up shamelessly), to sexy Jean Willes (if she's the Martian, then I say let's open the borders!), to cruel-faced John Hoyt (the most obvious suspect), along with familiar faces John Archer and Barney Phillips (and a nice turn from Bill Kendis as the bus driver). Makes for a very entertaining half-hour even if the action is confined to a single set.</t>
+  </si>
+  <si>
+    <t>I had before a feeling of mislike for all Russian films. But, after seeing this film I havenÂ´t. This is a unique masterpiece made by the best director ever lived in the USSR. He knows the art of film making, and can use it very well. If you find this movie: buy or copy it!</t>
+  </si>
+  <si>
+    <t>I watched mask in the 80's and it's currently showing on Fox Kids in the UK (very late at night). I remember thinking that it was kinda cool back in the day and had a couple of the toys too but watching it now bores me to tears. I never realised before of how tedious and bland this cartoon show really was. It's just plain awful! It is no where near in the same league as The Transformers, He-man or Thundercats and was very quickly forgot by nearly everyone once it stopped being made. I only watch it on Fox Kids because Ulysses 31 comes on straight after it (that's if mask doesn't put me to sleep first). One of the lesser 80's cartoons that i hope to completely forget about again once it finishes airing on Fox Kids!</t>
+  </si>
+  <si>
+    <t>Phantasm ....Class. Phantasm II.....awesome. Phantasm III.....erm.....terrible.&lt;br /&gt;&lt;br /&gt;Even though i would love to stick up for this film, i quite simply can't. The movie seems to have "sold out". First bad signs come when the video has trailers for other films at the start (something the others did not). Also too many pointless characters, prime examples the kid (who is a crack shot, funny initially but soon you want him dead), the woman who uses karate to fight off the balls (erm not gonna work, or rather shouldn't) and the blooming zombies (what the hell are they doing there, there no link to them in the other Phatasms). Also there is a severe lack of midgets running about.&lt;br /&gt;&lt;br /&gt;The only good bits are the cracking start and, of course, Reggie B.&lt;br /&gt;&lt;br /&gt;(Possible SPOILER coming Up)&lt;br /&gt;&lt;br /&gt;To me this film seems like a filler between II and IV as extra characters just leave at the end so can continue with main 4 in IV.&lt;br /&gt;&lt;br /&gt;Overall very, VERY disappointing. 3 / 10</t>
+  </si>
+  <si>
+    <t>Ludicrous. Angelic 9-year-old Annakin turns into whiny brat 19-year-old Annakin, who somehow seems appealing to Amidala, 5 years his senior. Now 22-year-old Jedi warrior hero Annakin has a couple of bad dreams, and so takes to slaughtering children, his friends, and the entire framework of his existence because a crazy old man convinced him a) his precious wife might really die, and b) only he can prevent this. Ludicrosity squared.&lt;br /&gt;&lt;br /&gt;I think the people who like this movie are not paying attention. The story is ridiculous. The characters are unbelievable (literally, not the perverted sense of "fantastic", "wonderful", etc.).&lt;br /&gt;&lt;br /&gt;Obi-wan Kenobi was the wise and kind anchor for the entire series, but in the climax, he hacks off Annakin's legs, lets him burn in the lava, and leaves him to suffer. Doesn't anyone think that's a little out of character? Not to mention it was pretty stupid to take a chance on him living, as it turns out.&lt;br /&gt;&lt;br /&gt;I was expecting at least a story that showed consistent characters with plausible motivations. None of that here. The story could have been written by a 10 year old.&lt;br /&gt;&lt;br /&gt;Oh yeah, the CGI is pretty cool.</t>
+  </si>
+  <si>
+    <t>Scotty (Grant Cramer, who would go on to star in the great B-movie "Killer Klowns from outer space") agrees to help three middle-aged guys learn how to 'dialog' the ladies in this bad '80's comedy. Not bad as in '80's lingo, which meant good. Bad as in bad. With no likable characters, including, but not limited to, a kid who's the freakiest looking guy since "Friday the 13th part 2"' a girl who leads men on and then goes into hissy fits when they want to touch her, and the token fat slob, because after all what would an '80's sex comedy be without a fat slob?? Well this one has two. This movie is pretty much the bottom of the barrel of '80's sex comedies. And then came the sequel thus deepening said proverbial barrel.&lt;br /&gt;&lt;br /&gt;My Grade:D- &lt;br /&gt;&lt;br /&gt;Eye Candy: too numerous to count, you even see the freaky looking kid imagined with boobs at on point, think "Bachlor Party" but not as funny, and VERY disturbing.&lt;br /&gt;&lt;br /&gt;Where I saw it: Comcast Moviepass</t>
+  </si>
+  <si>
+    <t>If you keep rigid historical perspective out of it, this film is actually quite entertaining. It's got action, adventure and romance, and one of the premiere casting match-ups of the era with Errol Flynn and Olivia de Havilland in the lead roles. As evident on this board, the picture doesn't pass muster with purists who look for one hundred percent accuracy in their story telling. To get beyond that, one need only put aside the history book, and enjoy the story as if it were a work of fiction. I know, I know, that's hard to do when you consider Custer's Last Stand at the Little Big Horn and it's prominence in the history of post Civil War America. So I guess there's an unresolved quandary with the picture, no matter how you look at it.&lt;br /&gt;&lt;br /&gt;There's a lot to take in here though for the picture's two hour plus run time. Custer's arrival at West Point is probably the first head scratcher, riding up as he does in full military regalia. The practical joke by Sharp (Arthur Kennedy) putting him up in the Major's headquarters probably should have gotten them both in trouble.&lt;br /&gt;&lt;br /&gt;Ironically, a lot of scenes in this military film play for comedy, as in Custer's first meeting with Libby Bacon, and subsequent encounters that include tea reader Callie (Hattie McDaniel). I hadn't noticed it before in other films, but McDaniel reminded me an awful lot of another favorite character actor of mine from the Forties, Mantan Moreland. So much so that in one scene it looked like it might have been Moreland hamming it up in a dress. With that in mind, the owl scene was a hoot too.&lt;br /&gt;&lt;br /&gt;As for Flynn, it's interesting to note that a year earlier, he portrayed J.E.B. Stuart opposite Ronald Reagan's depiction of General Custer in "Santa Fe Trail", both vying for the attention of none other than Olivia de Havilland. In that film, Reagan put none of the arrogance and flamboyance into the character of Custer that history remembers, while in Flynn's portrayal here it's more than evident. But it doesn't come close to that of Richard Mulligan's take on the military hero in 1970's "Little Big Man". Let's just say that one was a bit over the top.&lt;br /&gt;&lt;br /&gt;The better take away the picture had for me was the manner in which Custer persevered to maintain his good name and not gamble it away on a risky business venture. That and his loyalty to the men he led in battle along with the discipline he developed over the course of the story. Most poignant was that final confrontation with arch rival Sharp just before riding into the Little Big Horn, in which he declared that hell or glory was entirely dependent on one's point of view. Earlier, a similar remark might have given us the best insight of all into Custer's character, when he stated - "You take glory with you when it's your time to go".</t>
+  </si>
+  <si>
+    <t>The film quickly gets to a major chase scene with ever increasing destruction. The first really bad thing is the guy hijacking Steven Seagal would have been beaten to pulp by Seagal's driving, but that probably would have ended the whole premise for the movie.&lt;br /&gt;&lt;br /&gt;It seems like they decided to make all kinds of changes in the movie plot, so just plan to enjoy the action, and do not expect a coherent plot. Turn any sense of logic you may have, it will reduce your chance of getting a headache.&lt;br /&gt;&lt;br /&gt;I does give me some hope that Steven Seagal is trying to move back towards the type of characters he portrayed in his more popular movies.</t>
+  </si>
+  <si>
+    <t>Interesting and short television movie describes some of the machinations surrounding Jay Leno's replacing Carson as host of the Tonight Show. Film is currently very topical given the public drama surrounding Conan O'Brien and Jay Leno.&lt;br /&gt;&lt;br /&gt;The film does a good job of sparking viewers' interest in the events and showing some of the concerns of the stakeholders, particularly of the NBC executives. The portrayal of Ovitz was particularly compelling and interesting, I thought.&lt;br /&gt;&lt;br /&gt;Still, many of the characters were only very briefly limned or touched upon, and some of the acting seemed perfunctory. Nevertheless, an interesting story.</t>
+  </si>
+  <si>
+    <t>Any film about WWII made during WWII by a British production company has no latter-day peer in my opinion, respectfully. The confluence of so many things near and dear to my heart are in At Dawn We Dive: as a descendant of Admiral Horatio Nelson and student of all aspects of World War Two and particularly naval warfare, I favor depictions of subs and action in the North Atlantic and especially those which include the German side of things. For those unacquainted with target priorities, an attack on an enemy warship is the greatest event that a submarine can hope to encounter and such a rare opportunity would develop surprisingly similarly to what we see here. The pacing is deliberate and typical of the works coming out of the Ealing, Rank and British-Gaumont studios back in the day: frankly I prefer its quieter, more cerebral approach for its humanity and realism that engages far better than any over-produced Hollywood movie ever could. This reminds me of Powell and Pressburger's The 49th Parallel thanks to the powerfully persuasive Eric Portman, a favorite of mine. John Mills receives second billing and a smaller font in the titles, so this is clearly meant to be Mr. Portman's film but the whole cast shines. As for the title sequence, am I the only one who is utterly charmed by Gainsborough Production's lovely pre-CGI Gainsborough Girl?</t>
+  </si>
+  <si>
+    <t>A brilliant horror film. Utterly gruesome and very scary too. The Thing is a remake from John Carpenter, but please, do not let that put you off this film. It is simply brilliant. The start of the film has the alien's spacecraft hurtling towards the Earth centuries before mankind walked the planet with an explosion that unleashes the film's title in amazing shining white and blue stating 'THE THING'. One of the best opening credits for a horror film ever.&lt;br /&gt;&lt;br /&gt;The cast of actors who play the twelve man science team are a joy to behold and the locations for the setting of their Station in Antartica is visually impressive on DVD widescreen. It must have been great in the cinema. I regret not seeing this on the big screen.&lt;br /&gt;&lt;br /&gt;Kurt Russell is excellent as Macready, the helicopter pilot who reluctantly becomes the leader of the men trying to combat a lethal shape changing monstrosity that has infiltrated their base. All the actors in this are really good and create terrific scenes of paranoia and tension as to who the thing has infected. My favourite scene in the whole film has to be when Macready tests everyone thats still alive for infection, it is tense, scary and finally spectacular. I love it because its funny as well.&lt;br /&gt;&lt;br /&gt;Special mention must go to Rob Bottin for his truly amazing make up effects and shape changing designs of the alien itself. If he didn't get an Oscar for best visual effects at the time then he damn well should have. This is also debatable as to whether this is John Carpenter's greatest film...its certainly a gruesome masterpiece.&lt;br /&gt;&lt;br /&gt;Wait for a cold winter night. Get some Budweiser from the fridge. Sit down and watch The Thing, a horror masterpiece of flame throwing heroes fighting shape changing towers of gore and slime.&lt;br /&gt;&lt;br /&gt;Utterly brilliant.&lt;br /&gt;&lt;br /&gt;Ten Out Of Ten.</t>
+  </si>
+  <si>
+    <t>I absolutely love this film. Everything about it. It almost felt like watching me and my friends on screen. The way this movie was filmed was a pure masterpiece, very original and creative. I related to these characters and even had the same thoughts as some. I'm really glad I ran across this movie. If only there were more genius' like justin out there!</t>
+  </si>
+  <si>
+    <t>No one can say I wasn't warned as I have read the reviews (both user &amp; external), but like most of us attracted to horror movies... curiosity got this cat. (Come on, we all scream at the people in the movie not to go into the dark room, but you know that's horror aficionados are always dying to know what's in there even if we know it'll be bad).&lt;br /&gt;&lt;br /&gt;The bottom line is that this movie left me angry. Not because it pretends to be real (who cares...gimmicks are allowed), or because the actors and dialogue are so lame (is this an unusual event in horror movies?) or even because the movie is so bad (and I am being polite here). What really got me mad is that the film is not only a rip off of BWP, but also a half-hearted lazy rip off at that.&lt;br /&gt;&lt;br /&gt;I don't believe in sacred cows and if they thought they could outdo BWP then kudos to them, but they didn't even try. The movie was made with little effort or care and that is the most unforgivable sin in horror (or any) movie!</t>
+  </si>
+  <si>
+    <t>A new way to enjoy Goldsworthy's work, Rivers and Tides allows fans to see his work in motion. Watching Goldsworthy build his pieces, one develops an appreciation for every stone, leaf, and thorn that he uses. Goldsworthy describes how the flow of life, the rivers, and the tides inspires and affects his work. Although, I was happy the film covered the majority of Goldsworthy's pieces (no snowballs), I do feel it was a bit long. The film makers did a wonderful job of bringing Goldsworthy's work to life, and created a beautiful film that was a joy to watch.</t>
+  </si>
+  <si>
+    <t>If you liked William Hickey in "Prizzi's Honor", he resurrects his character, as Don Anthony in "Mob Boss". This is a very weak "Godfather" satire with few laughs. Stuart Whitman looks perplexed as to what he's doing in this schlock-fest? Morgan Fairchild's performance is one of the better efforts in the movie, and that alone is not a good sign for sure. Eddie Deezen vacillates between "Three Stooges" slapstick and a bad Woody Allen imitation. Fatally flawed, "Mob Boss" is so derivative that boredom quickly overcomes comedy and the film drags on with car chases, hidden weapons in a restaurant bathroom, and numerous other nonsense. - MERK</t>
+  </si>
+  <si>
+    <t>I have seen most, if not all of the Laurel &amp; Hardy classic films. I have always enjoyed there comical stupidly, even after watching it over and over again. This new film attempts to bring back the classic with two new actors who resemble both Laurel &amp; Hardy, however fails miserably for various reasons. One of which is how out of place their cloths are (still early 20th century) however are both portrayed in the 90's setting. Some of the former dialogue was brought back, however it also fails miserably to come close to the classic series. This film could very well be the worst film I have ever seen and should be pulled off the shelf and locked away forever. The real Laurel &amp; Hardy are surly spinning in their graves at such a bad imitation.</t>
+  </si>
+  <si>
+    <t>I just started watching The Show around July. I found it by mistake, I was channel surfing during a Vacation. It is a great show, I just wish it wasn't on so late at night. It's on at 12:30 AM. As a working person it makes it hard to watch all the time.&lt;br /&gt;&lt;br /&gt;I read some comments. I did not agree with the late one about not growing up in the 60's and not believing that this stuff can happen.&lt;br /&gt;&lt;br /&gt;I grew up in the 60's. I'm Hispanic and I had a "White" boyfriend plus we had black friends in High School. I believe people get along because of their interests and personalities and it has nothing to do with being a certain race or color.&lt;br /&gt;&lt;br /&gt;I can't wait till the show goes on DVD so I can buy it. This way I can see it from the beginning.</t>
+  </si>
+  <si>
+    <t>This film is well cast, often silly and always funny. Lemmon and Matthau work their tag team magic to perfection. Brent Spiner is just a riot as the egotistical tyrant of a cruise director. From the first "hare krishna" to the last "you ought pay him fifty bucks for calling you two studs", I thought this was a totally entertaining fun comedy</t>
+  </si>
+  <si>
+    <t>I have just given a 10 for Thieves Highway, I mention this for two reasons one to prove I'm not a git who only gives bad reviews but 2 because the theme of the film has the same thread namely the falling in love with a woman of the night.&lt;br /&gt;&lt;br /&gt;We all know pretty Woman is a chick flick but you can't avoid them all, they'll eventually get you. Pretty Woman for me does two things, two terrible horrible ghastly things, firstly it portrays prostitution as a career more akin to that of a dancer, you know with absolutely great friends, leg warmers lots of giggling, borrowing each others make up. You see in the reality of Pretty Woman the prostitute and this is a street walker Prostitute we're talking about here, has a great life, she's healthy happy with only the occasional whimper to explain her predicament. My feeling is this 'happy Hooker' type protagonist is a lot more palatable than an even nearly realistic character, which for me begs the question if you make a movie about a type of person but are too chicken scared to adorn that player with the characteristics familiar to that role then why do it? If I make a film about a chef but don't want him to cook or talk about food or wear a white hat then why make a film about a chef in the first place? By bailing out and turning the hooker into a respectable dancer type the story misses the point completely and consequently never indulges in any of the moral or social questions that it could have, what a cop out, really really lame. &lt;br /&gt;&lt;br /&gt;Secondly, 'Pretty Woman' insults romance itself, Edward Lewis played by Richard Gere has no clue how to seduce or romance this 'lady' that is without his plastic friend, yep don't leave home without it, especially if you are a moron in a suit who has no imagination. 8 out of 10 of his romantic moments involve splashing cash in one way or another, even when he first meets her it's the Lotus Esprit turbo that does all the work, necklaces here diamonds there limos over there, money money money, where's the charm? where's the charisma, don't mention that attempt at the piano please.&lt;br /&gt;&lt;br /&gt;Girls who like this film will also be girls who like shopping more than most. Guys who like this film will not even have realized that old Eddy has less charm than a calculator, as they probably don't either so it wont have registered. More importantly anyone who likes this film will hate 'Thieves Highway' a wonderful story of which part is based on the same subject.&lt;br /&gt;&lt;br /&gt;I'll finish on a song:&lt;br /&gt;&lt;br /&gt;Pretty woman hangin round the street Pretty woman, the kind I like to treat Pretty woman, I don't believe you You're not the truth No one could spend as much as you Mercy&lt;br /&gt;&lt;br /&gt;Pretty woman, wont you pardon me Pretty woman, I couldn't help but see Pretty woman, and you look lovely as can be do you lack imagination just like me&lt;br /&gt;&lt;br /&gt;Pretty woman, shop a while Pretty woman, talk a while Pretty woman, sell your smile to me Pretty woman, yeah, yeah, yeah Pretty woman, look my way Pretty woman, say you'll stay with me..and I'll pay you..I'll treat you right</t>
+  </si>
+  <si>
+    <t>This movie was terrible. The plot was terrible and unbelievable. I cannot recommend this movie. Where did this movie come from? This movie was not funny and wasted the talent of some great actors and actresses including: Gary Sinise, Kathy Bates, Joey Lauren Adams, and Jennifer Tilly.</t>
+  </si>
+  <si>
+    <t>I strongly dislike this show. I mean, like, basically everyone at that school is perfect, and rich, and I doubt a boarding school would look as cool as that. And why do they suddenly allow girls into the school? Isn't that just a little weird? anyways, Jamie Lynn spears CANNOT act. She always has the same facial expression, which really annoys me. She is basically emotionless, and all the guys seem to like her.&lt;br /&gt;&lt;br /&gt;and shouldn't chase tell her he likes her? its not that hard! really! None of this show is real life, and she isn't "a girl like me" because majority of the regular girls do NOT go to boarding school, do not have designer clothes, and do NOT live by the beach.&lt;br /&gt;&lt;br /&gt;fake fake fake.</t>
+  </si>
+  <si>
+    <t>Normally I don't like series at all. They're all to predictable and they tend to become boring and dull very fast.&lt;br /&gt;&lt;br /&gt;These series however, are well played, the story follows through all episodes and even if you miss one, the story will still be catching your mind.&lt;br /&gt;&lt;br /&gt;The episodes are all filmed on a hospital and takes you further and further in to the mysteries of dark and old secrets that lies just beneath the surface of the mighty hospital.</t>
+  </si>
+  <si>
+    <t>holy Sh*t this was god awful. i sat in the theater for for an hour and ten minutes and i thought i was going to gouge out my eyes much in the manor Oedipus Rex. dear god. this movie deserves no more credit than anything done by a middle school film buff. please save your money, this movie can offer you nothing. unless you enjoy sideshows and sleeping in movie theaters. you know, h3ll, bring your girlfriend and make things interesting. you will be the only ones there anyway. Fuck this slide show. &lt;br /&gt;&lt;br /&gt;Ye Be Warned.&lt;br /&gt;&lt;br /&gt;I recommend not watching this.&lt;br /&gt;&lt;br /&gt;hello.&lt;br /&gt;&lt;br /&gt;how are you?&lt;br /&gt;&lt;br /&gt;I'm pretty good.&lt;br /&gt;&lt;br /&gt;enjoying this day?&lt;br /&gt;&lt;br /&gt;I am.&lt;br /&gt;&lt;br /&gt;this comment was one-hundred times more fun than pretending to watch this daym movie. this is sad.</t>
+  </si>
+  <si>
+    <t>This movie is without a doubt a perfect 10/10.. for all you people out there who are rating this film low grades because it has no "good plot" or anything like that, thats ridiculous, saying that a Jackie Chan movie is bad because of its plot is like saying a porn movie is bad because it has no plot! you watch Jackie Chan FOR THE FIGHT SCENES, for the action its not so much concentrated on a good story or anything like that, if you look at how he makes movies and compare it to other American films from that era and even later you will realize that Jackie Chan's movies had over the top fights scenes and not really good plots while American movies had good plots but shitty action scenes compared to what Jackie Chan was doing at the time. Porn is watched for the porn, Jackie Chan is watched for the ACTION, i think you people are rating it bad because there's no plot because you think thats how a smart movie critic would rate a good movie but the way i see it is a good movie is a movie that can keep me entertained. Sure the middle of the movie was boring, VERY BORING, but put it this way the rest which is all action scenes and stunts very much do pay for all of that. This did change the way how American action movies were created, they have even stollen scenes from this movie. If you want a true man, a true entertainer then watch this movie and many more of Jackie Chan's, hes pure in everyway. He literally makes American movies look like a walk in the park, and even in TODAYS movies. American movies rely so much on special effects and safety wires and stunt doubles and so much more. Police Story and many other Jackie Chan films are pieces of work of a true entertainer who just goes all out and is very talented in what he can do. a masterpiece</t>
+  </si>
+  <si>
+    <t>I saw this at the London Film Festival last night, apparently the shorter version. James McNally's summary of the content of the film is very good. Nossiter very deftly blends his investigation of the wine business into wider concerns about globalisation, homogenisation, the effect of the mass media, the power of capital and the need for diversity.&lt;br /&gt;&lt;br /&gt;The film is shot on hand-held DV which some might find offputting, but which does enable Nossiter to catch people off guard on a number of occasions which probably would not have been possible using more conventional equipment.&lt;br /&gt;&lt;br /&gt;Despite the sprawling feel of the film, the editing is very sharp, not only giving us a parade of the world's dogs, but also undercutting a number of interviewees' comments with somewhat contradictory visual images, and giving others sufficient rope to hang themselves. To a degree this evoked Michael Moore's recent work (although Nossiter operates in a more subtle way), but probably the roots of the film go back to Marcel Ophuls' "The Sorrow and the Pity", both in the way the film is constructed and in the emergence of 'salt of the earth' French peasants as the stars. De Montille pere et fils were present at the LFF screening and answered questions afterwards. We do indeed all need a little disorder - bravo Hubert!&lt;br /&gt;&lt;br /&gt;Overall an excellent film with implications that go way beyond the world of wine into the way we construct ourselves as people, and organise our world.</t>
+  </si>
+  <si>
+    <t>I can't believe this movie managed to get such a relatively high rating of 6! It is barely watchable and unbelievably boring, certainly one of the worst films I have seen in a long, long time.&lt;br /&gt;&lt;br /&gt;In a no-budget way, it reminded me of Star Wars Episodes I and II for the sheer impression that you are watching a total creative train wreck.&lt;br /&gt;&lt;br /&gt;This film should be avoided at all costs. It's one of those "festival films" that only please the pseudo-intellectuals because they are so badly made those people think it makes it "different", therefore good.&lt;br /&gt;&lt;br /&gt;Bad film-making is not "different", it's just bad film-making.</t>
+  </si>
+  <si>
+    <t>This movie really woke me up, like it wakes up the main male character of this bravely different movie from his life slumber.&lt;br /&gt;&lt;br /&gt;This guy John (Ben Chaplin) leads his mediocre safe life of a bank teller in a small provincial English town, until the stunningly gorgeous, wild, girl-to-die-for Nadia (Nicole Kidman), ordered by email from Russia, enters his life to become his beloved wife, by Johns plan. However a glitch turns up - Nadia does not speak a word of Johns language. Although calm and emotionless on the outside, John becomes so interested in beautiful Nadia that instead of using the full refund policy of the matching service, he buys her a dictionary to start the communication process.&lt;br /&gt;&lt;br /&gt;What happens henceforth in the plot really shakes poor John from his slumber of a decently-paid safe-feeling clerk into a decision-making decently thinking action figure, giving the viewer a subliminal message "you would have probably acted likewise".&lt;br /&gt;&lt;br /&gt;Kidman, Cassel &amp; Kassovitz make a great team acting Russians and they are almost indistinguishable from the real thing, "almost" only due to the slight accent present in their Russian dialogues, however slight enough to amaze a native Russian by the hard work done to get the words sound right. Nicole Kidman proves her talent once again by playing a character quite different from the previous roles, at least from the cultural background.&lt;br /&gt;&lt;br /&gt;The pace of the film is fast and captivating, and you certainly are not ready to quit watching when the end titles appear, you rather feel that you're in the middle of the plot, and are left with a desire to see the sequel as soon as it comes out.&lt;br /&gt;&lt;br /&gt;My advice is to go out and get this film immediately and watch it and enjoy. To sum it up, it has an unusual plot, great acting, and ideas below the surface. Like the idea of the "rude awakening" from the artificial safe routine life of a wheel in a Society's machine, the life which members of the Fight Club were so keen to quit and the machine of which Pink Floyd sings ("Welcome to the machine!"). I bet that in the end, John was rather off with Sophia on their way to the unknown than not having met her at all.&lt;br /&gt;&lt;br /&gt;Thank you, writers, for the great story, and everyone else for this great movie! Please make a sequel! And you can stage it whereever and name the location whatever, because the authenticity of the place is irrelevant to the 99.9999 percent of the potential viewers, I am sure of it.</t>
+  </si>
+  <si>
+    <t>Ed Wood rides again. The fact that this movie was made should give any young&lt;br /&gt;&lt;br /&gt;aspiring film maker hope. Any screenplay you might have thought of using to&lt;br /&gt;&lt;br /&gt;line a litterbox or a birdcage should now not seem that bad. Do not watch this movie unless you have a healthy stash of Tylenol or Rolaids. Watching this&lt;br /&gt;&lt;br /&gt;movie made me realize that Boa vs. Python was not that bad after all. It probably would have been better to do this movie in Claymation as at least that way no actor would have had to take credit for being in this film. It is understandable why this director has so many aliases. There is a bright side to watching this movie in that if you can get someone to bring you a bag of chips, then you can eat your way out of the cocoon of cheese that surrounds you enabling you to&lt;br /&gt;&lt;br /&gt;make your toward your TV set's cocoon of cheese that surrounds it.</t>
+  </si>
+  <si>
+    <t>This sports a nice, deep cast but for a thriller you better deliver more than name actors and talk. The first third of this movie was nothing but talk, and more talk. Most of that was a bunch of women bitching about everything to each other. &lt;br /&gt;&lt;br /&gt;The first five listed actors in here are women so that verifies that it's really a "chick flick" and little else. This probably plays on the Lifetime network.&lt;br /&gt;&lt;br /&gt;There was a quick murder scene and then more talk. By halfway through, they had lost me. &lt;br /&gt;&lt;br /&gt;By the way, Sally Field looked about 15 years old in here.</t>
+  </si>
+  <si>
+    <t>I think this movie has got it all. It has really cool music that I can never get out of my head. It has cool looking characters. IS REALLY funny(you know, the kind that you'll crack up on the ground and you'll keep saying the funny parts over every day for three weeks).Despite the bad acting, bad cgi, and bad story(about cops going after a robot), its really cool. Its one of those movies you and all of your family can watch, get together, eat pizza, laugh like crazy, and watch it two more times.&lt;br /&gt;&lt;br /&gt;There are so many funny parts, like when Kurt was trying to get Edison's attention and gave him the finger, and then threw a paint ball gun at him so they could play paint ball. On that part, I kept saying "Remember, Remember?"to my cousins who saw it and showed them what happened. There was also a really funny part when Edision ran into the room and Kurt was there(just before they fought) and Kurt was talking about his "Strange dream" and how he was "Superman". I LOVED that part, although it has been a while since I saw it, so I don't remember that part. Everything the actors said were funny, like how Kurt says, "I worship you, like a GOD!" to the robot.&lt;br /&gt;&lt;br /&gt;Although there was some bad things, in all it was a GREAT movie. Man, I can't stop laughing. I wish I had that movie. );</t>
+  </si>
+  <si>
+    <t>Howard (Kevin Kline) teaches English at the high school in a small Indiana city. He is finally getting married to Emily (Joan Cusack), much to his parents delight. The town is abuzz, too, because one of its own, Cameron (Matt Dillon) has been nominated for an acting Oscar. Everyone, including Howard and Emily, is watching the Academy Awards on television as Cameron is declared the winner! In his acceptance speech, Cameron announces that he was able to fulfill his role as a gay military man, in part, because of lessons he learned from a gay teacher he had in high school. You guessed it, its Howard! But, Howard has never "come out"; in fact, he believes he is straight! With the whole town, and members of the media, waiting and observing the happenings, will Howard and Emily go ahead and get married? Or, is Howard truly gay and realize he can not go through with the ceremony? This is a wonderful, funny, and humane film about a gay man and his situation. As the man-who-did-not-realize-he-was-gay, Kline is excellent and touching. The rest of the cast is equally fine, with Cusack a stitch as the mixed-up fiancÃ© and Dillon, Bob Newhart, Debbie Reynolds, Tom Selleck, and others on hand to delight the audience as well. The costumes are very nice and the setting in the lovely Indiana heartland is beautiful. Then, too, the script, the direction, and the production are very, very nice. But, the insightful, humorous, and the thoughtful look at the gay population is the film's best asset, no doubt. For those who would be offended by a gay-themed film, yes, just skip over this one. But, for everyone who wants to laugh heartily, and gain a better understanding of the gay situation at the same time, this is definitely the best film out there.</t>
+  </si>
+  <si>
+    <t>When the opening shot is U.S. Marines seriously disrespecting the U.S. flag, a movie has a tough road ahead, but unfortunately it was downhill from there. There is a military adviser credited, who is also apparently a retired U.S. Marine, making it even more baffling that this incredible breach of protocol, and law, went unnoticed. Even more baffling is the way they simply glossed over how a Marine is reported KIA, then buried, in very short order, without the slightest explanation of how they identified the body, or if there even was a body. The U.S. government is still finding the missing from WWII, and it takes months to identify the remains. Military shot down remain MIA for months or years and are only declared KIA when the remains have been positively identified, or after years of red tape. Here we are expected to believe that it happens within a matter of days or weeks. Maybe this happens in Denmark, but not in the U.S. Clearly none of the people involved ever had the slightest involvement with, or respect for, the U.S. military.&lt;br /&gt;&lt;br /&gt;Beyond that, there are a number of other utterly laughable moments when characters come up with zingers out of nowhere. There must have been some really extended meetings between auteur and actors as they struggled to find their motivation for such hogwash. Having a script that worked might have helped, but this one seems to have been made up on the spot, working from Cliffs Notes. There's no way to know if the script was this awful originally, or if it was the auteur, or the middle-management kids at the studio who bear responsibility. Either way, this is an awful movie that should have never been made.</t>
+  </si>
+  <si>
+    <t>We usually think of the British as the experts at rendering great adventure from the Imperial age, with the likes of The Four Feathers (1939) and Zulu, simply because the Imperial age was, for the most part, British. Here, in The Wind and the Lion, we see a wonderful rendering of America's own Imperial age.&lt;br /&gt;&lt;br /&gt;America's projection of power under Teddy Roosevelt is the backdrop for this conventional tale of the kidnapped damsel who, despite her gentility, is smitten by the rough, manly nobility of her captor, who in turn is disarmed by her beauty and scorn. (Politically correct prigs eager to see some slight of "native" peoples or cultures can rest assured, that the way Arabs and Muslims are depicted here is far more flattering than the way their modern counterparts depict themselves on the current world stage.) What makes this story different are the terrific production values - faultless photography, composition and editing - the terrific casting - the underappreciated Brian Keith playing a bully Teddy - and vivid history.&lt;br /&gt;&lt;br /&gt;Though The Wind and the Lion is told largely through the eyes of the son, every member of the family can identify with one of the characters, whether it be Sean Connery's noble brigand, Candace Bergen's feisty heroine, John Huston's wily John Hay or Steve Kanaly's spiffy, radiant, ruthless can-do lieutenant, Roosevelt's "Big Stick". There is a transcendent scene at the end, when the little boy is symbolically swept away by the dashing Moor on his white steed. This is high adventure at its best.</t>
+  </si>
+  <si>
+    <t>I had been looking forward to seeing Dreamgirls for quite a while...what with all it's raving reviews, nominations and media attention. And I must say, the first quarter of the movie was good! It really portrayed the black music scene back then. However, as the movie wore on, me and my whole family were bored out of our wits. The singing just kept coming, one after the other. I mean seriously, just one more music number and it would have broke even with RENT.&lt;br /&gt;&lt;br /&gt;Furthermore, I noticed hardly any character development in any of the characters; I just didn't care what happened to them! Even when Eddie Murphy's character died of a drug overdose, I knew I should have been sad, but I just couldn't feel any emotion for that character. The characters were given a flimsy background about singing in their childhood and whatnot, but there personalities were not revealed enough to draw me in.&lt;br /&gt;&lt;br /&gt;Finally, the conflict was simply not significant enough to make the viewer care, which goes along with the lack of character development. This movie reminded me of a copy-cat movie based on Ray, Chicago, and Rent (Ray and Chicago were wonderful movies in my opinion). Overall I think this movie would best suit someone who doesn't really care about an overall story, yet would enjoy two hours of entertaining and fun singing performances.</t>
+  </si>
+  <si>
+    <t>One of Starewicz's longest and strangest short films follows a toy dog in search of an orange after becoming animated by the tear of the mother of a girl who longs for an orange. The dog comes upon an orange after falling out of the back of a car on his way to be sold, but at night must protect the orange when he comes enters a devilish nightclub featuring many bizarre and scary characters. With the help of a stuffed cat, the dog gets the orange back to the little girl and she is saved from a terrible scurvy death. The Mascot features new techniques I have not yet seen in Starewicz's films. The addition of sync sound and a mixture of live action with the stop-motion animation makes for a new twist on Starewicz's old style of puppetry. Live scenes of moving cars and people's feet walking by as a puppet sits on the concrete sidewalk is impressive and fresh. The honking of cars and cries of street vendors is noteworthy due to the fact that small studio shifts to sound were costly and Starewicz's utilization of the new technology seems like old hat. New puppet characters in this film are frightening contributions to the devil's club scene. Twigss and newspaper shreds come to life. Skeletons of dead birds lay eggs which hatch skeleton chicks. Characters come flying in from all over on pats and pans and rocking horses. A new editing technique uses quick zooms which are accomplished through editing to speed up the pace of what before might have been a slow scene. Overall, Starewicz is able to update his style of film-making to meet the demands of a new audience making this film one of the best examples of his work.</t>
+  </si>
+  <si>
+    <t>Nice character development in a pretty cool milieu. Being a male, I'm probably not qualified to totally understand it, but they do a nice job of establishing the restrictive Victorian environment from the start. It isn't as bleak as it really was and the treatment of women was probably even harsher. What makes this go is a wonderful chemistry among the principal characters. Each has their own "thing" that they contend with. Once they come out of the rain and break out of the spider webs, they begin to interact and slowly lose their sense of suspicion. What I enjoyed about this movie is that it didn't go for cheap comedy when it could have. It didn't try to pound a lesson into us. The people who seem utterly without merit are really nicely developed human beings who get to see the light. I did have a little trouble with the Alfred Molina character having such an epiphany so quickly, but, within this world, it needed to happen. Good acting all around with something positive taking place in the lives of some pretty good people.</t>
+  </si>
+  <si>
+    <t>Prussic gas, a murderer donning a red clansman suit and hood wielding a white whip, and the murders of college school girls at the hands of paid convicts enlisted by a mysterious mastermind who keeps his face hidden within an office containing aquariums of turtles and fish. The inspectors at Scotland Yard, Higgins(IJoachim Fuchsberger)and his superior Sir John(Siegfried SchÃ¼renberg)certainly have their hands full with this case. It all seems to center around student Ann Portland(Uschi Glas), who, when she turns 21, is to inherit a great deal of wealth. The girls who are targeted share a room with Ann, but the reason for their murders remains a mystery SY's finest must figure out. The staff of the girls' dormitory all seem to be hiding something and certain members of the faculty are falling prey to the killer in the red monk robe disguise, talented enough to precisely strangle the necks of those attacked with the whip. Two prisoners are commissioned by a mystery man to use the newly created toxic gas created by a scientist murdered at the beginning of the film during what was supposed to be a monetary exchange for his creation. It's a clever scheme where a driver, Greaves(GÃ¼nter Meisner)meets the convicts(..who hide in a barrel)who are assisted by a corrupt prison guard. Taken blindfolded to the secret room of the mastermind, he gives them orders on who to kill and how. Uncovering this operation is a top priority for Higgins and Sir John for it will lead them to the truth they seek in regards to the murders and why they are happening. Under suspicion are girls' dormitory headmistress, her author brother, a sweaty, incredibly nervous chemistry teacher, a snooping gardener, and the Bannister. Some are red herrings until they are disposed of, throwing the viewer for a loop each time until the real mastermind is discovered. The ending features multiple twists. &lt;br /&gt;&lt;br /&gt;Out of the Krimi films I've seen, THE COLLEGE GIRL MURDERS is the closest to a giallo with it's colorful killer, a convoluted plot yielding lots of surprises and potential suspects, &amp; sordid shenanigans between adults and the college girls at the dormitory. I think you can also see the influence of James Bond on this particular Krimi film with the villain mastermind's secret hideout with an alligator pit(..which isn't used), the fake bible/water pistol, when opened, fires the gas into the face of startled victims, the Greaves' Royles Royce which has latches that cause flaps to darken the windows without revealing the passenger in the back seat, and the peep holes used to spy on the girls in their rooms and while swimming. Many might consider Sir John a liability due to his bumbling, buffoonish behavior and how he often undermines Higgins' abilities to get at the truth(..perhaps poking fun at know-it-all British inspectors who harm a case more than solve it)..I felt he was used as comedy relief, particularly with his attempts at psychoanalyzing suspects and potential victims, often misunderstanding what are told to him. Higgins, using the skills adopted over his years as an investigator, instead follows the clues/facts, often avoiding Sir John as much as possible. Capable direction by the reliable Alfred Vohrer who keeps the pace humming at a nice speed, and the screenplay is full of interesting characters and lurid content..the fact that so many of the adults surrounding the dormitory are suspect, any of them might be the one wielding the whip or calling the shots behind those murdered girls' executions. I'd say this may be one of the best(..if not the best)examples of the Krimi genre, for it keeps you guessing, always one more ace up it's sleeve..the revelations unearthed at the very end are quite eye-opening(..and, you even get a literal unmasking of the real mastermind pulling the strings to top it all off).</t>
+  </si>
+  <si>
+    <t>I was very lucky to see this film as part of the Melbourne International Film Festival 2005 only a few days ago. I must admit that I am very partial to movies that focus on human relations and especially the ones which concentrate on the tragic side of life. I also love the majority of Scandinavian cinematic offerings, there is often a particular deep quality in the way the story unfolds and the characters are drawn. Character building in this film is extraordinary in its details and its depth. This is despite the fact that we do encounter quite a number of characters all with very particular personal situations and locations within their community. The audience at the end of the screening was very silent and pensive. I am still playing some of those scenes in my mind and I am still amazed at their power and meaningfulness.</t>
+  </si>
+  <si>
+    <t>This movie is really bad. Most of it looks like it was filmed either in a park or a basement. There's a giant spider but all we see of it is one leg. There are some worms that live in a cave that are just cheap sock puppets with cardboard teeth. And the plot is a bunch of post-apocalyptic mumbo jumbo that makes no sense at all. The whole thing is just laughable.</t>
+  </si>
+  <si>
+    <t>I think this is one hell of a movie...........We can see Steven fighting around with his martial art stuff again and like in all Segal movies there's a message in it, without the message it would be one of many action/fighting movies but the message is what makes segal movies great and special.</t>
+  </si>
+  <si>
+    <t>I saw this movie in the theater, and was thoroughly impressed by it. Then again, that was when Claire Danes was a good actress, not the foolish, arrogant, Hollywood-ized bitch she is today. Anyway, this film really struck me as one of the more raw, realistic, beautiful friendship films. How far would you really go for your best friend? I was moved to tears at the end, and still tear up when I watch it now (I own it). I remember as soon as I left the theater, I called my best friend and sobbed to her how much I loved her. This is a great film to watch with your best girlfriend. However be prepared for the almost certain conversation afterward where she turns to you and asks if you'd do something like that for her....</t>
+  </si>
+  <si>
+    <t>I've seen this film literally over 100 times...it's absolutely jam-packed with entertainment!!! Powers Boothe gives a stellar performance. As a fan of actors such as William Shatner (Impulse, 1974) and Ron Liebmann (Up The Academy, 1981)I never thought an actor could capture the "intensity" like Shatner and Liebmann in those roles, until I saw Boothe as Jim Jones! As far as I'm concerned, Powers Boothe IS Jim Jones...this film captures his best performance!!!</t>
+  </si>
+  <si>
+    <t>The three main characters are all hopeless, and yet you only feel sorry for one of them: Ernesto, hopelessly devoted to Mercedes. This was part of the frustration: screaming at Mercedes to get a clue and ditch the no-good Harry, to no avail.&lt;br /&gt;&lt;br /&gt;Then there's the satisfaction: Steve Buscemi has a great part as a transvestite, and Harvey Keitel's moving story of his indignity playing a gorilla for a cheap TV movie is incredible. When you least expect it, Quentin Tarintino is doing half a monologue, and Anthony Quinn turns Ernesto into a wealthy man.&lt;br /&gt;&lt;br /&gt;Time and again great moments appear in the story, but in the end it's hard to know what to feel about this movie. It doesn't have a happy ending, or even a complete one, but it somehow feels right.&lt;br /&gt;&lt;br /&gt;This movie is strange, but then so am I; no wonder I liked it.</t>
+  </si>
+  <si>
+    <t>Reese Witherspoon first outing on the big screen was a memorable one. She appears like a fresh scrubbed face "tween" slight and stringy, but undeniably Reese.&lt;br /&gt;&lt;br /&gt;I have always liked her as an actor, and had no idea she started this young with her career, go figure. I actually gained some respect for Reese to know who she was so early on. I say that because whenever I have watched her perform, the characters thus far, in each portrayal she also seemed to have her own persona that lived with that character, quite nicely in fact.&lt;br /&gt;&lt;br /&gt;Anyway, my first film experience with Reese was the Little Red Riding Hood parody Reese did with Kiefer Sutherland, somehow I assumed that was her first time up "at bat" Not so, well done Reese</t>
+  </si>
+  <si>
+    <t>This game ranks above all so far. I had the honor of playing mine on PS2 so the graphics were really good. The voice acting was above standard. The difficulty level is just right. Wesker has to be the best characters in the RE series in my opinion. The story amazed me and took many different twist that I wasn't expecting. The only rating this game deserves is great.</t>
+  </si>
+  <si>
+    <t>This movie is not worth anything. I mean, if you want to watch this kind of stuff, flip to Hollywood movies! This totally is a disgrace to the Bollywood name. Neal N Nikki seriously sucked! Never watch this movie. As for the actors, it appears the acting genes skipped a generation. Tanisha couldn't have worn less and Uday Chopra obviously was just picked because he was the director's spoiled son. (All of that Halla Re was amazingly stupid) The songs are eh, and I hope the director did not spend to much money on it...... Bottom line, I hated the movie. Do not let your kids watch it, and if you have it in your house it is a stupid movie so discard it! Buy the CD, if you must. (As I said, the songs are eh.) At least it is better then the movie.</t>
+  </si>
+  <si>
+    <t>This is yet another western about a greedy cattle baron looking to push out small ranchers and farmers. It's certainly all been done before and since. But The Violent Men is something special.&lt;br /&gt;&lt;br /&gt;What makes it special is Barbara Stanwyck playing the role of vixen as she often did in her later films. She's married to the crippled Edward G. Robinson who's the cattle baron here, but Robinson is crippled and there is some hint that his injuries may have left him impotent. No matter to Barbara, whose needs are being met by her brother-in-law Brian Keith. That doesn't sit well with either Dianne Foster who is Robinson and Stanwyck's daughter, nor with Lita Milan who is Keith's Mexican girl friend.&lt;br /&gt;&lt;br /&gt;The infidelity subplot almost takes over the film, but Glenn Ford as the stalwart small rancher who is a Civil War veteran come west for his health manages to hold his own here. He's every inch the quiet western hero who people make the mistake of pushing once too often. I almost expect those famous words from Wild Bill Elliott to come out of Ford's mouth, "I'm a peaceable man." Would have been very applicable in The Vioilent Men.&lt;br /&gt;&lt;br /&gt;The Fifties was the age of the adult western, themes were entering into horse operas that hadn't been explored before. The following year Glenn Ford would do another western, Jubal, one of his best which also explores infidelity as a plot component.&lt;br /&gt;&lt;br /&gt;There's enough traditional western stuff in The Violent Men and plenty for those who are addicted to soap operas as well.</t>
+  </si>
+  <si>
+    <t>Apparently, The Mutilation Man is about a guy who wanders the land performing shows of self-mutilation as a way of coping with his abusive childhood. I use the word 'apparently' because without listening to a director Andy Copp's commentary (which I didn't have available to me) or reading up on the film prior to watching, viewers won't have a clue what it is about.&lt;br /&gt;&lt;br /&gt;Gorehounds and fans of extreme movies may be lured into watching The Mutilation Man with the promise of some harsh scenes of splatter and unsettling real-life footage, but unless they're also fond of pretentious, headache-inducing, experimental art-house cinema, they'll find this one a real chore to sit through.&lt;br /&gt;&lt;br /&gt;82 minutes of ugly imagery accompanied by dis-chordant sound, terrible music and incomprehensible dialogue, this mind-numbingly awful drivel is the perfect way to test one's sanity: if you've still got all your marbles, you'll switch this rubbish off and watch something decent instead (I watched the whole thing, but am well aware that I'm completely barking!).</t>
+  </si>
+  <si>
+    <t>This movie was absolutely pathetic. A pitiful screenplay and lack of any story just left me watching three losers drool over bikini babes. At times I felt like I was watching an episode of Beavis and Butthead. I couldn't even sit through the whole movie. Emran Hashmi disappoints, and Hrshitta Bhatt is not impressive at all. Celina Jaitley was not bad. The only worthwhile part of the film is the spoof on Anu Malik and his obsession of shayaris. It was pretty hilarious. The songs "Sini Ne" and its remix version were really good. You can always count on Emran lip-locking and lip-synching a chartbuster. All in all, it seems Emran doesn't have a good script from the Bhatts to back him up this time.</t>
+  </si>
+  <si>
+    <t>I Feel the Niiiiiight Heat! I feel your HEEAAAAAAAAAART-beat! Something ain't right!" Theme song written by B.J. Cook from Skylark- David Foster's old band and wife. She also wrote the memorable theme from CBC's "Airwaves." OH Night Heat! What a program! Well-written, well-acted and totally classic. Crime solvers and a good team and a dash of humour at the end. I'd like to think this is really what detectives do/did. Giambone was a real favourite! On a Canadian tip, I learned EVERY Canadian actor's name and style from guest spots done on Night Heat. Everyone passed through the Night Heat set and like Law &amp; Order, it was story-driven so you could just watch and enjoy without a lot of character melodrama.</t>
+  </si>
+  <si>
+    <t>This movie fails miserably on every level. I have an idea, let's take everyone involved in this movie and ship them into a hot zone in the middle east. Maybe if we're lucky they'll all be shot and killed and we won't have to ever have our time wasted by them again. Did I mention that I have never been so bitter about a cinematic pile of crap in my entire life? My god, I can't think of anything I've ever seen that was this bad. I'd rather watch Ishtar 25 times in a row than sit through 10 minutes of this sorry excuse for a film. If I ever happen to meet anyone who was involved in this film, I'll spit in their face and then beat them senseless. That's my two cents.</t>
+  </si>
+  <si>
+    <t>Yes i'll say before i start commenting, this movie is incredibly underrated.&lt;br /&gt;&lt;br /&gt;Sharon Stone is great in her role of Catherine Trammell as is Morrissey as Dr glass. He is an analyst sent in to evaluate her after the death of a sports star. Glass is drawn into a seductive game that Trammel uses to manipulate his mind.&lt;br /&gt;&lt;br /&gt;The acting was good (apart from Thewlis)&lt;br /&gt;&lt;br /&gt;Stone really has a talent with this role. She's slick, naughty and seductive and doesn't look a day older than she did in the first.She really impressed me(like in Casino). Morrisey was also good. He showed much vunerablitity in a role that needed it. Thewlis however was lame. He ruined his character and was over-the-top the whole way. He really sucked.&lt;br /&gt;&lt;br /&gt;Overall, this movie not as good the first but Stone is a hoot to watch. Just ignore Thewlis.</t>
+  </si>
+  <si>
+    <t>Based on a Edgar Rice Burroughs novel, AT THE EARTH'S CORE provides little more than means to escape and give your brain a rest. A Victorian scientist Dr. Abner Perry(Peter Cushing)invents a giant burrowing machine, which he and his American partner(Doug McClure)use to corkscrew their way deep into the earth to explore what mysteries it may hold. They soon discover a lost world of subhuman creatures having conflict with prehistoric monsters.&lt;br /&gt;&lt;br /&gt;Cushing comes across as an absent minded professor to the point of being annoying. Instead of being a bold adventurer, he comes across effeminate. On the other hand McClure overacted enough to make himself also laughable. Caroline Munro plays the pretty Princess Dia that refuses to leave her world near the center of the earth. Also in the cast are: Godfrey James, Cy Grant and Michael Crane.</t>
+  </si>
+  <si>
+    <t>I have seen this film at least 100 times and I am still excited by it, the acting is perfect and the romance between Joe and Jean keeps me on the edge of my seat, plus I still think Bryan Brown is the tops. Brilliant Film.</t>
+  </si>
+  <si>
+    <t>This show makes absolutely no sense. Every week, two ladies go to an estate to do some gardening, and every week without fail, they somehow stumble upon a murder. Because everyone who owns a big house with a large garden is involved in a murder, right? But even if they did somehow happen to stumble upon murder after murder, wouldn't the smart thing to do be to tell the police? You know, the people who can actually do something about it... But every week, these two fools go around, polluting evidence, committing crimes of their own, and, in some cases, causing more murders. Once they do miraculously solve the murders, there is no way the murderer could ever be convicted. All the evidence has been sabotaged. And you'd think people who are covering up murders would think not to hire these two, wouldn't you? Yay! We've solved the murder! Now like every other week, let's go and confront the murderer ourselves and, with no back-up, tell them that we know about it. There is no way we could get ourselves into any danger, is there? Rosemary and Thyme is one of the worst shows on television, and certainly the most ridiculous.</t>
+  </si>
+  <si>
+    <t>This movie was so bad it was funny! For awhile there I thought I was actually watching a parody of a bad movie (a la "For Your Consideration"). The "cliffhanger" scene at the end had me laughing until my insides hurt. The script was dreadful enough, but coupled with Sean Young's terrible acting -- especially while she explains the entire plot in great detail (complete with flashbacks) while dangling off a cliff -- makes it a truly classically bad movie worth watching! In fact the fakey shots in this scene reminded me of an Ed Wood movie. I still can't believe how this thing got made. First of all, how did such a bad script get the green light? How did star actors get attached? Were they at low points in their careers? Questions, questions.</t>
+  </si>
+  <si>
+    <t>Meryl Streep is such a genius. Well, at least as an actress. I know she's been made fun of for doing a lot of roles with accents, but she nails the accent every time. Her performance as Lindy Chamberlain was inspiring. Mrs. Chamberlain, as portrayed here, was not particularly likable, nor all that smart. But that just makes Streep's work all the more remarkable. I think she is worth all 10 or so of her Oscar nominations. About the film, well, there were a couple of interesting things. I don't know much about Australia, but the theme of religious bigotry among the general public played a big part in the story. I had largely missed this when I first saw the film some years ago, but it came through loud and clear yesterday. And it seems the Australian press is just as accomplished at misery-inducing pursuit and overkill as their American colleagues. A pretty good film. A bit different. Grade: B</t>
+  </si>
+  <si>
+    <t>'Airport 4' is basically a slopped together mess for Universal Studios to try and work a new twist - the Concorde supersonic airliner - into their 'disaster-in-the-sky' formula.&lt;br /&gt;&lt;br /&gt;Bogged down with unintentional humor, the best of which is when George Kennedy sticks his hand out of Concorde's window at supersonic speed to fire a flare gun at a heat-seeking missile following the aircraft's flight path, and the simple fact that these dumb passengers keep re-boarding the same plane to continue their flight despite all the problems in the air. Many stars in this one including Robert Wagner, Sylvia Kristel, Alain Delon, and Martha Raye as a nervous passenger. &lt;br /&gt;&lt;br /&gt;Not really related to the other 'Airport' films.</t>
+  </si>
+  <si>
+    <t>Supposedly a "social commentary" on racism and prison conditions in the rural South of the 1970's, "Nightmare" is full of bad Southern stereotypes, complete with phoney accents. Not only would it be offensive to the sensibilities of most American Southerners, this tawdry piece of work comes off as just a thinly-disguised "babe in prison" movie--especially in its uncut original version. Nevertheless, acting is generally above average and the late Chuck Connors, in particular, does a good job of making viewers hate him--even though he looks somewhat uncomfortable in several scenes. There's also a change-of-pace role for the late Robert Reed, who appears as the lecherous warden, and Tina Louise (previously Ginger of "Gilligan's Island") made a rather believable sadistic prison guard. My grade: D. &lt;br /&gt;&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>OK, I bought this film from Woolworths for my friend for a joke present on his birthday, because the front cover had a sexual innuendo in it.&lt;br /&gt;&lt;br /&gt;But we decided it to watch it anyway. Just for hilarity purposes.&lt;br /&gt;&lt;br /&gt;And I'm sorry, but this has got to be, one of THE worst films in history.&lt;br /&gt;&lt;br /&gt;It began off alright, and we thought "Ok this might actually be OK". But after about 10 minutes, we were sadly mistaken.&lt;br /&gt;&lt;br /&gt;It began when the "mysterious paint baller" turned out to be the most obvious character, the Scouser/Australian (I say that because he had an accent which couldn't be identified), who's acting might I just say, was abysmal.&lt;br /&gt;&lt;br /&gt;Then it got to the end, and by that time, we had all lost the will to live. The paint ball finals.&lt;br /&gt;&lt;br /&gt;The only thing I did like about this plot is that they didn't actually win, but annoyingly enough they won by default.&lt;br /&gt;&lt;br /&gt;And I know this has nothing to do with it, but the name the team were given was just awful. Critical Damage. I mean they could of picked a more awesome name, like "The Destroyers of the Anti-Christ" or something. Or that's what the film should of been called anyway.</t>
+  </si>
+  <si>
+    <t>Insignificant and low-brained (haha!) 80's horror like there are thirteen in a dozen, yet it can be considered amusing if you watch it in the right state of mind. The special effects are tacky, the acting atrocious and the screenplay seems to miss a couple of essential paragraphs! "The Brain" takes place in a typical quiet-American town setting, where every adolescent works in the same diner and where the cool-kid in high school flushes cherry bombs down the toilet. It is here that a TV-guru named Dr. Blake and his adorable pet-brain begin their quest for nation-wide mind controlling. Under the label of "independent thinkers", a giant cheesy brain sends out waves through television sets and forces innocent viewers to kill! How cool is that? Now, it's up to the Meadowvale teen-rebel to save the world! The funniest thing about the plot is that it never explains where Dr. Blake and his monstrous brain actually come from. There are obvious references towards extraterrestrial life but that's about it. Meh, who needs a background in a movie like this, really? There's not that much bloodshed unfortunately and the "evil" brain looks like an over-sized sock-puppet. The only more or less interesting element for horror buffs is taking a look at the cast and crew who made this movie. Director Ed Hunt and writer Barry Pearson are the same men who made "Bloody Birthday" (guilty pleasure of mine) and "Plague". Both those are much better movies and they wisely decided to resign the film industry. The most familiar face in the cast unquestionably is the great David Gale, whom horror fans will worship forever for his role in Re-Animator. A girl named Christine Kossak provides the nudity-factor and she's obviously a great talentÂ… She has exactly 3 movies on her repertoire of which THIS is her "masterpiece". In her debut, she was credited as 'runaway model' and in "3 men and a baby", her character is referred to as 'one of Jack's girls'. I really wonder how she feels about her career as an actressÂ…</t>
+  </si>
+  <si>
+    <t>Does anyone remember the alternative comedy show THE COMIC STRIP PRESENTS . One edition featured Charles Bronson ( Robbie Coltrane ) being interviewed about his new movie GLC :&lt;br /&gt;&lt;br /&gt;" It's about a man , an ordinary man whose wife and family gets wiped out by creeps and I have to hunt them down and kill them in a sadistic and graphic manner " &lt;br /&gt;&lt;br /&gt;" And after GLC what next for Bronson ? " &lt;br /&gt;&lt;br /&gt;" We're using a new angle . My family don't get wiped out but I go after creeps just the same " &lt;br /&gt;&lt;br /&gt;This accurately describes THE EVIL THAT MEN DO . It's a Bronson vigilante thriller where his motivation isn't down to a blood feud but this leads to credibility becoming strained &lt;br /&gt;&lt;br /&gt;Bronson is a retired hit-man who isn't giving up his retirement for anything until someone shows him a video tape featuring interviews with the victims of " The Doctor " , not the legendary time traveler but a infamous expert on torture . It's never really explained why The Doctor is so infamous since any police state has a myriad of these sadists nor is it explained why The Doctor and his sister have ridiculous English accents &lt;br /&gt;&lt;br /&gt;As you may guess it's a lazily written movie and incidents happening because the screenwriter needs things to happen to further the plot no matter how unlikely they are like one of the bad guys getting invited to a threesome so he can be killed or things being revealed like The Doctor's sister being a lesbian so some T&amp;A can be included &lt;br /&gt;&lt;br /&gt;In many ways it's like one of those nasty Chuck Norris vehicles that were being released at the same time , but the most disappointing thing is that the director is also the same man who made ICE COLD IN ALEX and THE GUNS OF NAVERONE two very well regarded war dramas that are often shown on Sunday afternoons . Believe me this movie won't be shown until well after the watershed</t>
+  </si>
+  <si>
+    <t>Well, here's another terrific example of awkward 70's film-making! The rudimentary premise of "What's the matter with Helen?" is quite shocking and disturbing, but it's presented in such a stylish and sophisticated fashion! In the hands of any other movie crew, this certainly would have become a nasty and gritty exploitation tale, but with director Curtis Harrington ("Whoever Slew Auntie Roo?") and scriptwriter Henry Farrell ("HushÂ…HushÂ…Sweet Charlotte") in charge, it became a beautiful and almost enchanting mixture of themes and genres. The basic plot of the film is definitely horrific, but there's a lot more to experience, like love stories, a swinging 1930's atmosphere and a whole lot of singing and tap-dancing! The setting is unquestionably what makes this movie so unique. We're literally catapulted back to the 1930's, with a sublime depiction of that era's music, religion, theatrical business and wardrobes. Following the long and exhausting trial that sentenced their sons to life-imprisonment for murder, Adelle (Debbie Reynolds) and Helen (Shelley Winters) flee to California and attempt to start a new life running a dance school for young talented girls. Particularly Adelle adapts herself perfectly to the new environment, as she falls in love with a local millionaire, but poor old Helen continues to sink in a downwards spiral of insanity and paranoia. She only listens to the ramblings of a radio-evangelist, fears that she will be punished for the crimes her son committed and slowly develops violent tendencies. The script, although not entirely without flaws, is well written and the film is adequately paced. There's never a dull moment in "What's the matter with Helen", although the singing, tap-dancing and tango sequences are quite extended and much unrelated to the actual plot. But the atmosphere is continuously ominous and the film definitely benefices from the terrific acting performance of Shelley Winters. She's downright scary as the unpredictable and introvert lady who's about to snap any second and, especially during the last ten minutes or so, she looks more petrifying than all the Freddy Kruegers, Jason Voorhees' and Michael Myers' combined! There are several terrific supportive characters who are, sadly, a little underdeveloped and robbed from their potential, like MichÃ©al MacLiammÃ³ir as the cocky elocution teacher, Agnes Moorehead as the creepy priestess and Timothy Carey as the obtrusive visitor to the ladies' house. There are a couple of surprisingly gruesome scenes and moments of genuine shock to enjoy for the Grand Guignol fanatics among us, but particularly the set pieces and costume designs (even nominated for an Oscar!) are breathtaking.</t>
+  </si>
+  <si>
+    <t>Resnais, wow! The genius who brought us Hiroshima Mon Amour takes on the challenge of making a 1930s French musical in vibrant colour. The opening voice-over with old, embellished inter-titles was a nice touch. Then the camera aperture opens (like the old hand crankers) on a black &amp; white placard. The camera backs off (or rather, up), suddenly showing us the surprisingly brilliant colours of an elegant table set for a tea party. This is all in the first 60 seconds.&lt;br /&gt;&lt;br /&gt;Then the music starts. A rather banal and forgettable diddy featuring an unconvincing chorus of 3 girls blabbering some nonsense which has no relevance to the film (and yes, I speak French, so I can't blame it on the subtitles). Those characters whiz out the door and are replaced by more people who break into an even more forgettable song. Then they leave, and finally Audrey Tautou appears and we hear our first appreciable dialogue 15 minutes into the film.&lt;br /&gt;&lt;br /&gt;I'm not sure what Resnais intended by starting off with such a yawning waste of time &amp; musical cacophony. But the effect on the viewer is to make you want to hurl skittles at the screen and storm out. I endured.&lt;br /&gt;&lt;br /&gt;It didn't get much better. I'll tell you why. There is absolutely no familiarity with any of the characters. We don't even see their faces half the time (as Resnais seems too intent on showing off the expensive scenery to care about the actual people in front of the camera). People flit on &amp; off stage like moths around a lamp, and we the audience are unable to focus on any particular person or plot. It's as if you were to take every episode of the Brady Bunch and cram it into a 2 hour movie. With bad songs.&lt;br /&gt;&lt;br /&gt;The only thing that kept me watching as long as I did (1 hour) was that I was looking at the camera techniques, lighting and scenery which were all, I admit, excellent. But is that enough to hold your attention for 2 hours? Not me. Maybe tomorrow I'll try watching the end. Aw, who am I kidding. I have more important things to do. I'm sure you do, too. Skip this.</t>
+  </si>
+  <si>
+    <t>I saw this movie in the middle of the night, when I was flipping through the channels and there was nothing else on to watch. It's one of those films where you stop to see what it is - just for a moment! - but realize after twenty minutes or so that you just can't turn it off, no matter how bad it is. One of those movies that is somewhere in between being so bad it's good and so bad it's, well, just plain BAD, it's worth seeing just to experience the confusion of realizing that it's both! Great middle-of-the-night fare, if only for the fabulous tennis drag. Don't even bother asking yourself why nobody can tell that Chad Lowe is so obviously male, because logic does not apply.</t>
+  </si>
+  <si>
+    <t>This movie takes the plot behind the sci-fi flick "Doppelganger" (an astronaut from our Earth crashing on a 'counter-Earth' on the opposite side of the Sun, and the Cold War totalitarian vibes on that world) and tries to turn it into a pilot for a TV series. However, the whole thing sank without a trace, and TV is probably better off for it.&lt;br /&gt;&lt;br /&gt;Everyone here is perfectly adequate in a 'made for TV' way. Cameron Mitchell turns in his usual solid performance. So does Glenn Corbett (who seems to be a kind of poor man's John Saxon) who plays the rugged individualist whose very existence poses a threat to the foundation of the 'World Order' on counter Earth.&lt;br /&gt;&lt;br /&gt;But the low budget and low energy and inconsistent script and the lack of any real imagination in the set designs and cinematography keep this Sci-Fi adventure firmly tethered on the launch pad.&lt;br /&gt;&lt;br /&gt;I'll give one example: in the original template for this pilot, ("Doppleganger"), the astronauts lose control of their landing vehicle in a thunderstorm, and crash their ship in a truly appalling sequence (it was obvious that their ship was never going to fly again). Then the two astronauts stagger helplessly from the smoking remains of their vehicle in the middle of howling rains and winds, only to be smacked down and overcome by faceless men yelling through loudspeakers.&lt;br /&gt;&lt;br /&gt;In "Stranded in Space", the astronauts are sitting in their seats when buzzers sound, things start shaking, and the camera blurs into a blackout (and as a friend pointed out, it was pretty obvious that the actors were simply shaking themselves on their seats, the director wasn't even shaking the camera or the set). I've seen episodes of "The Twilight Zone" and "The Outer Limits" that took more effort to establish mood and setting than this made-for-TV mediocrity.&lt;br /&gt;&lt;br /&gt;And that, in essence, is what's wrong with "Stranded In Space". No budget, no time, no imagination...just making the token gestures and hoping the sci-fi Fan Boys' imagination and enthusiasm will fill in the rest. Sorry, guys, it didn't work. &lt;br /&gt;&lt;br /&gt;I'm sure that everyone here just finished their work on this one and walked away, and never thought of it again, except as a listing on their C.V. And that's what you, the viewer will do. You'll remember, if pressed, that you once watched a TV movie called "Stranded In Space", but it made no lasting impression on you, and you can't recall too much about it.</t>
+  </si>
+  <si>
+    <t>Black comedy isn't always an easy sell. Every now and then you get a black comedy that is hugely successful, like Fargo, for example. But usually they don't often find big audiences. People seem to either set their minds for comedy, or for serious mayhem. There doesn't seem to be a big market for a good mixture of both. Throw Momma From the Train was a fairly decent hit, yet few people seem to remember much about it in this day and age. Danny DeVito just about hit this one all the way out of the park back in 1987.&lt;br /&gt;&lt;br /&gt;DeVito plays an odd mamma's boy named Owen looking to rid himself of his outrageously overbearing and unpleasant mother whom he still lives with. The mother is played by Anne Ramsey, who passed away shortly after this was released, and she is quite a caricature. She is loud, ugly, rude, and overbearing. Though Owen hardly seems like he could take care of himself, he wants desperately to have his mother offed. He fantasizes about it in some truly weird scenes, but he clearly doesn't have the guts to actually do it himself. That's where Billy Crystal comes in. Crystal plays Larry Donner, Owen's creative writing teacher at a nearby community college. Larry is a paranoid would-be intellectual novelist who claims his ex-wife stole his novel and made millions off it. He is currently trying to write a new one, but cannot even come up with a decent first sentence. "The night was...." Owen hears Larry wish his ex-wife were dead during an outburst at the school cafeteria. And borrowing the idea from Strangers on a Train, Owen decides to travel to Hawai'i and murder Larry's ex-wife. Once it appears he has done so, he expects Larry to return the favor and kill his mother. The resulting action is often quite funny, and even poignant. It's certainly never dull and often full of surprises.&lt;br /&gt;&lt;br /&gt;The acting is exceptional, even if Ramsey was a bit over the top. Crystal is as good as he can be, and DeVito has always been undervalued as a performer. The film relies on quite a bit of physical comedy which usually works, often painfully so. The film makes use of some truly innovative editing techniques in some scenes, and the off-beat tone is truly refreshing. I have often been critical of the late 1980s as being a time of artistic malaise and down right lazy film-making. Throw Momma From the Train takes chances. Both in how its characters are drawn as well as its general plot. How many comedies revolve around a son having his mother murdered? The film isn't too long, and it is chock full of laughs. Writers are apt to find it more interesting than the general public, but it can still be enjoyed by just about anyone. 9 of 10 stars.&lt;br /&gt;&lt;br /&gt;The Hound.</t>
+  </si>
+  <si>
+    <t>Back in 1994, I had a really lengthy vacation around the Fourth of July - something like 17 days off in a row what with two weeks paid vacation, weekends and the holiday itself. I stayed in town during that time, hanging out at my parents' house a lot.&lt;br /&gt;&lt;br /&gt;I didn't have a TV in my apartment so I used to watch my parents' tube. I had just finished watching a segment of the X Files when a program came on called Personal FX. I was hooked instantly. I had always been fascinated with items in our home that had come from my parents' family homes and through inheritances from relatives' estates, and often wondered about their history, value, etc.&lt;br /&gt;&lt;br /&gt;After my long vacation, I used to go to my folks' house on my lunch-hours just to catch Personal FX.&lt;br /&gt;&lt;br /&gt;I can remember one episode during which co-host Claire Carter announced that the New York apartment in which the series was filmed was being renovated and that once said renovations were complete that Personl FX would return to the air.&lt;br /&gt;&lt;br /&gt;It never did! Personal FX was the first -and best - of the collectible shows. And it vanished from the air! Almost fifteen years later, I'm still sore.&lt;br /&gt;&lt;br /&gt;Way to go, FX.</t>
+  </si>
+  <si>
+    <t>Paul Verhoeven's predecessor to his breakout hit 'Basic Instinct' is a stylish and shocking neo-noir thriller. Verhoeven has become known for making somewhat sleazy trash films, both in his native Holland and in America and this film is one of the reasons why. The Fourth Man follows the strange story of Gerard Reve (played by Jeroen KrabbÃ©); a gay, alcoholic and slightly mad writer who goes to Vlissingen to give a talk on the stories he writes. While there, he meets the seductive Christine Halsslag (RenÃ©e Soutendijk) who takes him back to her house where he discovers a handsome picture of one of her lovers and proclaims that he will meet him, even if it kills him.&lt;br /&gt;&lt;br /&gt;Paul Verhoeven twists the truth many times in this film, and that ensures that you never quite know where you are with it. Many of the occurrences in The Fourth Man could be what they appear to be, but they could easily be interpreted as something else entirely and this keeps the audience on the edge of their seats for the duration, and also makes the film work as this narrative is what it thrives on. Paul Verhoeven is not a filmmaker that feels he has to restrain himself, and that is one of things I like best about him. This film features a very shocking scene that made me feel ill for hours afterwards (and that doesn't happen very often!). I wont spoil it because it needs the surprise element to work...but you'll see what I mean when you see the film (make sure you get the uncut version!). There is also a number of other macabre scenes that are less shocking than the one I've mentioned, but are lovely nonetheless; a man gets eaten by lions, another one has a pipe sent through his skull, a boat is smashed in half...lovely.&lt;br /&gt;&lt;br /&gt;The acting in The Fourth Man isn't anything to write home about, but it's solid throughout. Jeroen KrabbÃ© holds the audience's attention and looks the part as the drunken writer. It is RenÃ©e Soutendijk that impresses the most, though, as the femme fatale at the centre of the tale. Her performance is what Sharon Stone would imitate nine years later with Basic Instinct, but the original fatale did it best. Paul Verhoeven's direction is solid throughout as he directs our attention through numerous points of view, all of which help to create the mystery of the story. Verhoeven has gone on to make some rubbish, but he obviously has talent and it's a shame that he doesn't put it to better use. Of all the Verhoeven films I've seen, this is the best and although it might be difficult to come across; trust me, it's worth the effort.</t>
+  </si>
+  <si>
+    <t>I accept that most 50's horror aren't scary by today's standards, but what the hell is this? When you see a title like this you expect to see blood and a blood thirsty beast. Instead we get no blood at all and a beast who either wants to take over the world or live in peace on Earth....yeah which is what the people wanted.&lt;br /&gt;&lt;br /&gt;The overall story is fine with the astronaut coming back to life and being one with the beast....but the title really kills the movie. Night of the Beast would have made the fans more happy because there really isn't any blood to speak of.&lt;br /&gt;&lt;br /&gt;I like how the 50's movies had endings that left room for a sequel but wisely never made one. This movie isn't the worst i've ever seen but its almost up there.&lt;br /&gt;&lt;br /&gt;2 out of 10</t>
+  </si>
+  <si>
+    <t>Demon Wind is about as much fun as breaking your legs. It is definitely an awful example of a film. So awful in fact that I don't even consider it a movie. I describe it more as a thing ... a monstrous thing. A thing that must be stopped at all costs. My friends and I first discovered this ... thing buried under a big box of video tapes at my friend's house. It was a late night and we had nothing better to do so we decided to watch some cheesy horror movies (we unfortunately picked this one.) Well, during the 90 minutes that this thing played we ended up laughing so hard that we almost threw up. The thing is literally pointless in every sense of the word. It's just a cheap, poorly done rip-off of Evil Dead. The whole "story" seems to be nothing more than some guy wanting to knock off his friends by inviting them to an abandoned house and letting demons rip them to pieces. I have a bet that the writers were actually writing the story while it was being filmed. I've seen bad horror movies before (Manos, Troll 2, HOBGOBLINS!!!) (shudder) I would have to say that Demon Wind could definitely contend with any and all of these films on terms of sheer stupidity. Watch it only if you enjoy laughing at stupid films.&lt;br /&gt;&lt;br /&gt;Fun fact: This film is like a cockroach on steroids! Much like the ouija board, every time we try to get rid of it, it always seems to mysteriously reappear. Kind of scary huh?</t>
+  </si>
+  <si>
+    <t>There is a difference between a "film," and a "movie." A film, regardless of quality, is ready for public consumption. A movie is what a group of friends gets together to make over the course of a weekend with a camcorder. In my time as a viewer, I have seen may examples of both.&lt;br /&gt;&lt;br /&gt;On September 19, I attended a screening of writer/director Jon Satejowski's "Donnybrook." Now having read the script and having seen two different cuts (a rough cut and the "finished" product) of this piece, I can safely say it is a movie. And a student movie, at that. It is, for lack of a better word, competent, which is to say, the director knew how to push record on a camera and capture moving images. The visuals are, for the most part, static and unimpressive, and dialog scenes are reduced to mostly long shots, with little to no close up shots to allow the audience to establish a relationship with the characters. I understand that this is a modestly budgeted film, but some visual flair would have been appreciated, and it would have gone a long way toward keeping the audience interested.&lt;br /&gt;&lt;br /&gt;Granted, there have been independent pictures that have shown that limited camera work can be over come with well a well written, engrossing story and some sharp dialog. Steven Soderbergh's "sex, lies, and videotape" comes immediately to mind. This movie, however, has neither. The main story is weak and unfocused. If the main plot is Davie trying to mend his relationship with his father, then I feel this movie misses the point. What I got out of it is that Davie's main aspiration is to "change the face of rock 'n' roll." However, we see very little activity on his part to show this. While there is one dream sequence at the beginning, and an impromptu performance of his at the end, all we seem to get are scenes of Davie listening to music or casually strumming a guitar. We are simply told that Davie has played a lot of gigs, but we never see him in full rock out mode. Next time, SHOW don't TELL the audience. Anyone who has taken a creative writing class knows this. Also, Davie doesn't look like someone that would have been big in the glam rock era of the 1970's; he looks like he'd be more comfortable in the early days of rock 'n' roll, posing as James Dean's less talented brother. In the meantime, the rest of the movies events seem to happen at random to rather clichÃ© characters, and story threads, that have little or nothing to do with the slim main story, are brought up and abandoned with alarming frequency (i.e. the subplot involving Terry's father). If I want to see a film with this kind of haphazard construction, I will consider watching "Napolean Dynamite" again, a film I could barely make it through the first time.&lt;br /&gt;&lt;br /&gt;As for the above mentioned dialog scenes, I guess I should mention that they are few and extremely far between. Is it too much to ask for characters who do speak? I don't think it is. When the characters do speak, it is in short, choppy sentences; collections of oh so insightful questions, angered grunts or wildly over-the-top outbursts. These characters simply do not behave like normal, rational people. Working with material like this, it is easy to understand why there is only one good performance in the film, Al Hudson's, and that's just because he's doing a poor imitation of Sam Elliott for his time on screen. A good director, or at least one who is ready for the challenge of a feature director, would have been able to spot these problems and get the writer and camera people to correct them. However, with Satejowski being so close to the material, he simply doesn't see them, or, if he does, he is unwilling to take the necessary steps to fix them because it'll hurt his creative vision. Being unable or unwilling to deal with criticism in a constructive manner, is the mark of a self-indulgent, misguided fool. Just ask Rob Schneider. &lt;br /&gt;&lt;br /&gt;In the end, we are left with a poor, high-school-set, knock-off of Zach Braff's amazing "Garden State" combined with the equally amazing "Velvet Goldmine," two films far more worthy of your time.&lt;br /&gt;&lt;br /&gt;Now before any of the cast or crew come out of the word work to take me to task for this review, allow me to offer this. The best I can do is compliment Mr. Satejowski for having the ambition to make a film of his own and to put it out there for an audience to see. However, the hopes that this movie will be picked up and distributed are simply deluded visions of grandeur. This is a student movie, nothing more, nothing less. If the movie holds any promise (and let's face it, at this point, it isn't going to come from the acting, writing, or directing), it is this: If, IF, the people associated with this film are willing, then, please, learn from this movie, file it away, and use the lessons learned on your next attempt; don't attack your critics, or have friend or family do it for you. If you are able to do this, maybe the next one will be worthy of distribution, worthy of being called a "film."&lt;br /&gt;&lt;br /&gt;I am your audience, and I am willing to watch.</t>
+  </si>
+  <si>
+    <t>please re-watch all 3 series and do not go see this movie, the trailer is completely misleading and the 3 weakest characters in the series stretch a badly thought out 25min TV episode into the most painful 2hrs of my life, truly an awful film. tubbs and edward are in it for a few mins, micky has 1 line, and her lipp just reels out the same tired old puns, also mr briss's accent just changes about 5 times in the film tons of badly acted extras, and really a few laughs that they seem to recycle for 2 hrs i honestly feel this series has been completely ruined by this god-awful piece of crap..........batman and robin all is forgiven</t>
+  </si>
+  <si>
+    <t>Finally! An Iranian film that is not made by Majidi, Kiarostami or the Makhmalbafs. This is a non-documentary, an entertaining black comedy with subversive young girls subtly kicking the 'system' in its ass. It's all about football and its funny, its really funny. The director says "The places are real, the event is real, and so are the characters and the extras. This is why I purposely chose not to use professional actors, as their presence would have introduced a notion of falseness." The non-actors will have you rooting for them straightaway unless a. your heart is made of stone b. you are blind. Excellently scripted, the film challenges patriarchal authority with an almost absurd freshness. It has won the Jury Grand Prize, Berlin, 2006. Dear reader, it's near-perfect. WHERE, where can I get hold of it?</t>
+  </si>
+  <si>
+    <t>Sometimes you just have to have patients when watching indie horror. If you can just toe-tap your way through the slow-paced early scenes, sometimes a real gem will present itself... This (unfortunately) was not the case with "Satan's Whip".&lt;br /&gt;&lt;br /&gt;Written and directed by Jason Maran, "Satan's Whip" attempts to drag us along on a boring snore-fest of a film, with no real pay off at the end. I'm guessing that the black &amp; white (and blue) cinematography must have been for a reason, however it is never explained why the majority of the blood is blue, and I found this increasingly annoying as the film went on. The story in itself is not that bad, and actually had some originality and decent content but the acting is simply pathetic. This, combined with the slow-pacing and lack of any real (red) gore made "Satan's Whip" one to forget quite quickly. I will give it a "4" rating for some witty dialog that made me chuckle, but alas that could not save this boring waste of my time.</t>
+  </si>
+  <si>
+    <t>Tainted look at kibbutz life&lt;br /&gt;&lt;br /&gt;This film is less a cultural story about a boy's life in a kibbutz, but the deliberate demonization of kibbutz life in general. In the first two minutes of the movie, the milk man in charge of the cows rapes one of his calves. And it's all downhill from there in terms of the characters representing typical "kibbutznikim." Besides the two main characters, a clinically depressed woman and her young son, every one else in the kibbutz is a gross caricature of wellÂ…evil. &lt;br /&gt;&lt;br /&gt;The story centers on how the kibbutz, like some sort of cult, slowly drags the mother and son deeper into despair and what inevitably follows. There is no happiness, no joy, no laughter in this kibbutz. Every character/situation represents a different horrific human vice like misogyny, hypocrisy, violence, cultism, repression etc. For example, while the protagonist is a strikingly handsome European looking 12 year old boy Â– his older brother is a typical kibbutz youth complete with his "jewish" physical appearance and brutish personality. He cares more about screwing foreign volunteers than the health of his dying mother. He treats these volunteers like trash. After his little brother pleads of him to visit his dying mother whom he hasn't seen in a long time due to his military service, he orders, Quote Â– "Linda, go take shower and I cum in two minutes." &lt;br /&gt;&lt;br /&gt;There is one other "good" character in this movie Â– a European foreigner who plays the mother's boyfriend. When the animal rapist tries to hit the mother's son, the boyfriend defends him by breaking the rapist's arm. He is summarily kicked out of the kibbutz then for "violent" behavior against one of the kibbutz members. More hypocrisy: The indescribably annoying French woman who plays the school teacher preaches that sex cannot happen before age 18, or without love and gives an account of the actual act that's supposed to be humorous for the audience, but is really just stupid. She of course is screwing the head of the kibbutz in the fields who then in turn screws the little boy's mom when her mental health takes a turn for the worse. &lt;br /&gt;&lt;br /&gt;The film portrays the kibbutz like some sort of cult. Children get yanked out of their beds in the middle of the night and taken to some ritual where they swear allegiance in the fields overseen by the kibbutz elders. The mother apparently can't "escape" the kibbutz, although in reality, anyone was/is always free to come and go as they choose. It's a mystery how the boy's father died, but you can rest assured, the kibbutz "drove him to it" and his surviving parents are another pair of heartless, wretched characters that weigh down on the mother and her son. &lt;br /&gt;&lt;br /&gt;That's the gist of this movie. One dimensional characters, over dramatization, dry performances, and an insidious message that keeps trying to hammer itself into the audience's head Â– that kibbutz life was degrading, miserable and even deadly for those who didn't "fit in." I feel sorry for the guy who made this film Â– obviously he had a bad experience growing up in a kibbutz. But I feel as though he took a few kernels of truth regarding kibbutz life and turned them into huge atomic stereotyped bombs.</t>
+  </si>
+  <si>
+    <t>(When will I ever learn-?) The ecstatic reviewer on NPR made me think this turkey was another Citizen Kane. Please allow me to vent my spleen...&lt;br /&gt;&lt;br /&gt;I will admit: the setting, presumably New York City, has never been so downright ugly and unappealing. I am reminded that the 70's was a bad decade for men's fashion and automobiles. And all the smoking-! If the plan was to cheapen the characters, it succeeded.&lt;br /&gt;&lt;br /&gt;For a film to work (at least, in my simple estimation), there has to be at least ONE sympathetic character. Only Ned Beaty came close, and I could not wait for him to finish off Nicky. If a stray shot had struck Mikey, well, it may have elicited a shrug of indifference at the most.&lt;br /&gt;&lt;br /&gt;I can't remember when I detested a film as strongly. I suppose I'm a rube who doesn't dig "art" flicks. Oh, well.</t>
+  </si>
+  <si>
+    <t>"Lost", "24", "Carnivale", "Desperate Housewifes"...the list goes on and on. These, and a bunch of other high-quality, shows proves that we're in the middle of a golden age in television history. "Lost" is pure genius. Incredible layers of personal, and psychologically viable, stories, underscored by sublime cinematography (incredible to use this word, when describing a TV-show), a killer score, great performances and editing. Anyone who isn't hooked on this, are missing one of the most important creative expressions in television ever. It may have its problems, when watching only one episode a week, but the DVD format is actually an incredible way to watch this. Hope they keep it up (as I'm sure they do).</t>
+  </si>
+  <si>
+    <t>Clifton Webb is one of my favorites. However, Mister Scoutmaster is not one of his best. His patented curmudgeon role seems forced and even unpleasant rather than funny. The film itself is overflowing with mawkish sentimentality. In addition, the viewer is presented with numerous ham-handed references to religious faith and U.S. patriotism that come off as over-reverent rather than genuine. Clifton Webb does his best with a poor script. Edmund Gwenn plays yet another jovial clergyman and is given nothing to do. The child actor lead is played by a talentless child who displays a flat affect throughout the entire film. His sole claim to fame as a performer evidently is a bullfrog-like low voice unusual for someone of his age. However, once you've heard it, you've heard it and you don't need to hear it again. Unfortunately, he is in the majority of the film's scenes. I find this child so irritating that I fast forward whenever he shows up. Since he has a lot of scenes in this film, this means that I fast forward through a lot of the film. There were and are so many talented child actors; it's a pity this film doesn't have any of them in it. Still, Clifton Webb in the traditional broad-brimmed hat and shorts is a sight worth seeing.</t>
+  </si>
+  <si>
+    <t>This is a must-see documentary movie for anyone who fears that modern youth has lost its taste for real-life adventure and its sense of morality. Darius Goes West is an amazing roller-coaster of a story. We live the lives of Darius and the crew as they embark on the journey of a lifetime. Darius has Duchenne Muscular Dystrophy, a disease which affects all the muscles in his body. He is confined to a wheelchair, and needs round-the-clock attention. So how could this crew of young friends possibly manage to take him on a 6,000 mile round-trip to the West Coast and back? Watch the movie and experience the ups and downs of this great adventure - laugh and cry with the crew as they cope with unimaginable challenges along the way, and enjoy the final triumph when they arrive back three weeks later in their home town to a rapturous reception and some great surprises!</t>
+  </si>
+  <si>
+    <t>The message of a world on the brink of war is disregarded by the masses; the mythical city of Everytown in 1940 represents England in general, but it could just as well stand for any nation of the world. When war finally does arrive, it's ravages continue not for another five years, but until 1966 at which time Everytown is completely destroyed. Adding to the desolation and toll on humanity is the "wandering sickness", a pestilence that continues for another four years.&lt;br /&gt;&lt;br /&gt;"Things to Come" balances both a fatalistic and futuristic world view, where science holds out a hope for a revived civilization. The "Wings Over the World" concept plays out a bit corny, though it's spokesman Cabal (Raymond Massey) is unwavering in his mission and dedicated to his cause. If he fails, others will follow. This message is continually reinforced throughout the film, brought home convincingly in Massey's end of movie speech. Man's insatiable need to test the limits of knowledge and achievement requires an "all the universe or nothing" mindset.&lt;br /&gt;&lt;br /&gt;The film's imagery of automation and machinery in the second half is reminiscent of the great silent film "Metropolis". As Everytown is rebuilt and transformed by the year 2036, the spectacle of the city's rebirth strikes a resonant chord, as architecture of modern cities of today suggest the movie's eerily prophetic vision is coming to fruition. Where the movie gets it wrong by sixty seven years though is man's first mission to the moon, but in 1936, a hundred year timetable probably seemed more legitimate than 1969.&lt;br /&gt;&lt;br /&gt;"Things to Come" is one of those rarities in film, a picture that makes you think. Which side will you come down on, the forces for advancement in the face of uncertainty or maintain the status quo? It's not a comfortable question, as both choices offer inherent dangers and unknowable outcomes. Those who choose to be bystanders risk being swept away by forces beyond their control.</t>
+  </si>
+  <si>
+    <t>Fulci... Does this man brings one of the goriest and weirdest movies ever made? Answer: yes! Cat in the Brain, also known as Nightmare Concert is Fulci's last masterpiece. Yes it is, no matter what some people will say about it. There are few facts why this movie is one of the best Fulci's movies.&lt;br /&gt;&lt;br /&gt;Fulci make a fun of himself and his movies with this one. Lead roll in this movie is no other then Fulci himself, who plays... well horror-splatter-gore director, who thinks he is slowly going insane. It's filled with black humor which unlike in the most of the modern horror movies works here. Being Fulci flick, you need to know it's gory. How much? Well pretty much. I always loved gore in the movies and I never get enough of it, but Cat in the Brain actually stopped my thirst for gore, and believe me, it's a hard to archive. Even the Braindead didn't stop it. CITB is all about gore. Almost every scene revolves about Fulci, who after being hypnotized by *khmmm* evil psychiatrists is seeing all kinds of horrors for everything that happens to him or everything he sees. Some of the scenes involves him accidentally dropping the whiskey, and instead of that he sees rotten corpse lying on the floor, which starts to spit some ooze from it's wounds. Forget the Beyond or Zombie 2, this IS the goriest Fulci movie! Now I like how Fulci manage to apply all those comic parts in the gorefest movie. He is such a brilliant director. Some funny moments and lines happens from time to time, like one where Fulci says "making gore movies is kind of a sickness" Ending is very good considering that Fulci (and most of the Italian horror masters) is know for making ending with no sense or many plot holes. If you are fun of the Fulci, make sure you check it out. If you have a weak stomach, avoid this and repeat "Its only a movie" ps. some of the gore scenes within this movie: Chainsaw dismemberment (full), tongue torn out, eyeballs torn out, maggot infested corpses, zombies, decapitations, face being putted in boiling water, stabs in the shower (to head), throat slit, many parts of the body and organs being toast aside, hammer smashed face...</t>
+  </si>
+  <si>
+    <t>What an incomprehensible mess of a movie. Something about a cop who extracts bullets from himself after he gets shot and keeps them in a glass jar in his bathroom (and from the size of the jar he's been shot about fifty times by now) and a top secret tank guarded by five or six incompetent soldiers who for some reason drive it into Mexico. Whether they were sent there intentionally or just got really really lost is never made clear. And you'll never hear another screenplay feature the word "butthorn" either. Gary Busey tries out the Mel Gibson role from "Lethal Weapon" and while Busey is a serviceable actor the screenplay damns the whole movie to mediocrity. William Smith does another turn as a Russian soldier, the same character he played in "Red Dawn" a few years earlier. After playing biker heavies for most of the 70s it was sort of nice to see him expand his range playing Communist heavies. Sadly he'll probably always be remembered best as the guy who Clint Eastwood whupped in "Every Which Way You Can."</t>
+  </si>
+  <si>
+    <t>I love to watch this movie a lot because of all the scary scenes about the raptors. I like raptors because they are scary. My favorite parts are the ones where the raptor looks behind the pillar because it reminds me of a scene from the Friday the 13th movie with the girl who eats the banana.&lt;br /&gt;&lt;br /&gt;I really love to watch a lot of this movie because the computer graphics seem a little fake but it's okay because once you get into the movie you hardly even notice what is going on and I think it's got a good ending even though I didn't really understand what was going on on my first couple viewings I figured it out over time and that's the important part. The other important part is how scary the dinosaurs can be if you're watching it the first time.&lt;br /&gt;&lt;br /&gt;THIS IS BEST MOVIE.</t>
+  </si>
+  <si>
+    <t>WARNING: REVIEW CONTAINS MILD SPOILERS&lt;br /&gt;&lt;br /&gt;A couple of years back I managed to see the first five films in this franchise, and was planning to do an overview of the whole Elm St. series. However, just two years on and I find I can't remember enough about them in order to do it Â– I guess they couldn't have made much of an impression. From what I do recall, some of the sequels Â– Dream Warriors in particular Â– weren't as bad as is often made out, though even the original was no classic. Generally, the predictability of the premise (if people fall asleep they get murdered in their dreams) doesn't lend itself to narrative tension. But while I cannot recall much of the first five films, I do know they never plumbed the depths of Freddy's Dead.&lt;br /&gt;&lt;br /&gt;An indication of how sick of Freddy the public was at this point can be judged by the fact that the film was promoted solely on the character's demise. The fact that the movie's conclusion is not even hidden, but in fact the entire purpose for the film's being goes to illustrate how vacant, soulless and cynical this venture was.&lt;br /&gt;&lt;br /&gt;Taking the morally questionable idea of having a child molester as the charismatic villain, Robert Englund's in-no-way-scary interpretation booms with laughter. I always thought Freddy's mockery of the teenage victims was less aimed at the characters than at the teenage audience that could ever watch this tripe. It's like Englund's crying out "we know this is garbage Â– but you're paying to see it, so who's the one laughing?" And I'm sure victims of child abuse would be disheartened to see such an insensitive depiction of their plight. Was Freddy's appearance in the films always so rudimentary? All he gets to do here is a few "haaaaaaaaaaaaaarr Â– har Â– har Â– hars" and that's it. If this was the only Elm St. film you'd ever seen you wouldn't get to know the character at all. Even as the character pre-death in a flashback Englund plays him as a boo-hiss pantomime villain with a slop of Transatlantic (ie. overstated, misplaced and not at all funny) irony.&lt;br /&gt;&lt;br /&gt;Acting is almost universally poor. Just look at how many times Breckin Meyer overacts with his hand gestures and body language. Only Kananga himself, Yaphet Kotto, keeps his dignity. And when Roseanne, Tom Arnold and Alice Cooper show up, you can almost visibly see the film sinking further into the mire. The script, too, is absolutely lousy, almost wholly without merit. Carlos (Ricky Dean Logan) opens a road map, upon which the Noel Coward-like Freddy has wittily written "you're f**ked". When prompted for the map, Carlos responds "well the map says we're f**ked". Who wrote the screenplay, Oscar Wilde?&lt;br /&gt;&lt;br /&gt;Or how about the scene where Carlos is tortured by Freddy, his hearing enhanced to painful levels? So Freddy torments him by threatening to drop a pin Â– a potentially fatal sound, given that all sounds are magnified. Oddly, the fact that Carlos shouts at the top of his voice for him not to drop it seems to have no effect. "Nice hearing from you, Carlos", quips Freddy, hoping some better lines will come along. It's also worth noting that dream sleep doesn't occur instaneously, so being knocked unconscious wouldn't allow instant access into Freddy's world. Though as part of the narrative contains a human computer game and a 3-D finale plot logic isn't that high on the list of requirements.&lt;br /&gt;&lt;br /&gt;The teenagers heading the cast this time are really the most obnoxious, dislikeable group in the whole series. Tracy (Lezlie Deane) is the only one who gets to greet Freddy with "shut the f**k up, man" and a kick in the scallops. And was incongruous pop music always part of the ingredients? Freddy's Dead. No laughs. No scares. No interest. No fun.&lt;br /&gt;&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>Some comments here on IMDb have likened Dog Bite Dog to the classic Cat III films of the 90s, but although it is undoubtedly brutal, violent and very downbeat, this film from Pou-Soi Cheang isn't really sleazy, lurid or sensationalist enough to earn that comparison. However, it still packs a punch that makes it worth a watch, particularly if gritty, hard-edged action is your thing.&lt;br /&gt;&lt;br /&gt;Edison Chen plays Pang, a Cambodian hit-man who travels to Hong Kong to assassinate the wife of a judge; Sam Lee is Wai, the ruthless cop who is determined to track him down, whatever the cost. With Wai closing in on his target, Pang will stop at nothing to ensure his escapeÂ—until he meets Yue, a pretty illegal immigrant who needs his help to escape her life of abuse.&lt;br /&gt;&lt;br /&gt;A relentlessly harsh drama with great cinematography, amazing sound design, a haunting score, and solid performances from Chen and Lee (as well as newcomer Pei Pei as Pang's love interest), Dog Bite Dog is one for fans of hard-hitting Asian hyper-violence (think along the lines of Chan-wook Park's Vengeance trilogy). Stabbings, shootings, merciless beatings: all happen regularly in this film and are caught unflinchingly by director Cheang.&lt;br /&gt;&lt;br /&gt;Of course, this is the kind of tale that is destined to have an unhappy ending for all involved, and sure enough, pretty much everyone in this film dies (rather nasty deaths). Unfortunately, there is a fine line between tragedy and (unintentional) comedy, and in its final moments, Dog Bite Dog crosses it: in a laughably over-dramatic final scene, Pang and Wai are locked in battle as a pregnant Yue looks on. Eventually, after all three have suffered severe stab wounds during the fracas, a wounded Pang performs a DIY Ceasarean on (a now dead) Yue, delivering their baby moments before he himself dies.&lt;br /&gt;&lt;br /&gt;Whilst this film might not be a 'classic' slice of Hong Kong excess, with its deliriously OTT action and stylish visuals, it's still worth seeking out.</t>
+  </si>
+  <si>
+    <t>I watched this movie for the hot guy--and even he sucked! He was the worst one--well, okay, I have to give props to that freaky police officer rapist guy too, he was even worse. The guy wasn't that cute in the end, he had the most terrible accent, and he was the most definite definition of hicksville idiot that can't stand up to his mom for the one he "loves" there's ever been. Overall, and if this makes any sense to you, when I go to pick up movies at the video store, I think to myself as I read the back of a movie that looks so/so, "Well, at least it can't be worse than Carolina Moon." The most terrible movie, and the most terrible writing, acting, plot--everything in it made my gag reflexes want to do back flips. It was THE most horrid movie I will ever see, with Gabriela way up there too. I hated it, and trust me, if there was any number under 1 IMDb had for rating, I'd choose that in a heartbeat.</t>
+  </si>
+  <si>
+    <t>Absolute must see documentary for anyone interested in getting to the bottom of this story. Told with unflinching eye and with gripping style. If you think conspiracy theories are for paranoid disturbed people, this could change your mind. Something for you feds too: A good model for government coverups! If you like your news all tidy and easy to consume this is not for you.</t>
+  </si>
+  <si>
+    <t>I have decided to not believe what famous movie critics say. Even though this movie did not get the best comments, this movie made my day. It got me thinking. What a false world this is.&lt;br /&gt;&lt;br /&gt;What do you do when your most loved ones deceive you. It's said that no matter how often you feed milk to a snake, it can never be loyal and will bite when given a chance. Same way some people are such that they are never grateful. This movie is about how selfish people can be and how everyone is ultimately just thinking about oneself and working for oneself. &lt;br /&gt;&lt;br /&gt;A brother dies inadvertently at the hands of a gangster. The surviving brother decides to take revenge. Through this process, we learn about the futility of this world. Nothing is real and no one is loyal to anyone.&lt;br /&gt;&lt;br /&gt;Amitabh gave the performance of his life. The new actor Aryan gave a good performance. The actress who played the wife of Amitabh stole the show. Her role was small but she portrayed her role so diligently that one is moved by her performance. Chawla had really great face expressions but her role was very limited and was not given a chance to fully express herself.&lt;br /&gt;&lt;br /&gt;A great movie by Raj Kumar Santoshi. His movies always give some message to the audience. His movies are like novels of Nanak Singh (a Punjabi novelist who's novels always had a purpose and targeted a social evil) because they have a real message for the audience. They are entertaining as well as lesson-giving.</t>
+  </si>
+  <si>
+    <t>After a very scary, crude opening which gives you that creepy "Chainsaw massacre"-feeling, everything falls apart.&lt;br /&gt;&lt;br /&gt;SPOILER ALERT: As soon as the two FBI-officers start jabbing, you know they are the real killers. Anyone who have seen enough of these "fooled-ya"-movies can figure this out.&lt;br /&gt;&lt;br /&gt;This movie is mader with one thing in mind: To depict brutal murders. Why, then, is not the little girl tortured and murdered as well? Will this be next for us movie-goers? The torture and abuse of children? Whats wrong with you people? Lynch is truly has a disgusting, ugly mind.</t>
+  </si>
+  <si>
+    <t>I can't say much about this film. I think it speaks for itself (as do the current ratings on here). I rented this about two years ago and I totally regretted it. I even /tried/ to like it by watching it twice, but I just couldn't. I can safely say that I have absolutely no desire to see this waste of time ever, ever again. And I'm not one to trash a movie, but I truly believe this was awful. It wasn't even funny in the slightest. The only bits I enjoyed were the few scenes with Christopher Walken in them. I think this film ruined both Jack Black and Ben Stiller for me. All I can think of when I see one of their films now-a-days is this terrible movie, and it reminds me not to waste my money. Amy Poehler is so very annoying, too.&lt;br /&gt;&lt;br /&gt;Overall, well, I think you get my point. The stars are for Walken, by the way.</t>
+  </si>
+  <si>
+    <t>I am not so old that I can't remember laughing at Bobcat Goldthwait a couple times. But some where in all his years of drug abuse he lost his sense of humor as well as his brain cells.&lt;br /&gt;&lt;br /&gt;From the moment this film opens you can have no sympathy nor empathy for the female lead. Neither will you find anything remotely funny after hearing the opening line. Goldthwait obviously hates himself so much that he needs to degrade in order to feel better- even if it is his own imaginary characters he degrades. &lt;br /&gt;&lt;br /&gt;If you ever saw Shakes the Clown you know how unfunny Bobcat was 15 years ago...this movie is worse. It was not even funny by accident It is sad, pathetic and a total waste of time. May Goldthwaits' hands be rendered paralyzed so he can not write another script. Strike his tongue so he can not dictate another unfunny scene. He is sad and pathetic and needs to make room for a new talent dying to get into Hollywood</t>
+  </si>
+  <si>
+    <t>In New Orleans, an illegal immigrant feels sick and leaves a poker game while winning the smalltime criminal Blackie (Walter Jack Palance). He is chased by Blackie and his men Raymond Fitch (Zero Mostel) and Poldi (Guy Thomajan), killed by Blackie and his body is dumped in the sea. During the autopsy, the family man Lieutenant Commander Dr. Clinton Reed (Richard Widmark) of the U.S. Public Health Service finds that the dead man had pneumonic plague caused by rats and he needs to find who had any type of contact with the man within forty-eight hours to avoid an epidemic. The City Mayor assigns the skeptical Captain Tom Warren (Paul Douglas) to help Dr. Clint to find the killers that are infected with the plague and inoculate them.&lt;br /&gt;&lt;br /&gt;"Panic in the Streets" discloses a simple story, but it is still effective and with a great villain. The engaging plot has not become dated after fifty-seven years. Jack Palance performs a despicable scum in his debut, and the camera work while he tries to escape with Zero Mostel is still very impressive. My vote is seven.&lt;br /&gt;&lt;br /&gt;Title (Brazil): "PÃ¢nico nas Ruas" ("Panic in the Streets")</t>
+  </si>
+  <si>
+    <t>The box is why I originally picked up this movie and the back is why I rented it. But I soon learned that I had been duped. I had thought this movie would be something like a Road Trip/Eurotrip/American Pie deal. But I was wrong. This movie is one of the dumbest I've seen in a long time. The unrated version teases you in to watching but will completely disappoint you. The acting was terrible and sound effects just gaudy. It appeared very low budget with the entire setting taking place in the same building. Go out and get Eurotrip or Road Trip instead. I can't believe National Lampoon put its name on this. DON'T BUY IT, DON'T RENT IT. Don't waste 2 hours of your life on this.</t>
+  </si>
+  <si>
+    <t>There have been many documentaries that I have seen in which it appeared that the law was on the wrong side of the fence - The Thin Blue Line and Paradise Lost come to mind first and foremost. But this is the first film that had me seething with anger after I saw it. It seems blatantly clear to me from the evidence presented in this film that what happened at Waco was at the very least an unprofessional and sloppy mess on the part of the FBI and AFI, and at the very worst an act of murder. Like most people, when the siege at Waco was occurring I assumed that David Koresh was a completely evil madman who was leading a violent cult. After seeing this, I think that Koresh was more likely a slightly unbalanced and confused guy who inadvertently caught the attention of the U.S. government through his eccentric actions. Sure, there were lots of weapons at the Branch Davidian compound. But none of it was illegal. It was absolutely heartbreaking to see the video footage of the people inside the compound, all of them seeming to be very nice and harmless. And it was angering to see the callous testimony of the men in charge of the government forces on the Waco site, the clueless testimony of Janet Reno, and the partisan defense of the attack on Waco, a defense led by a few of the committee Democrats. Standing out most in my mind was NY representative and current U.S. senator from NY Charles Schumer. I voted for the man when I lived in NY state - I'm a Democrat, pretty left-leaning too. After seeing his actions on this committee, I wish I could go back in time and vote for D'Amato instead! For anyone remotely interested in the government, this is a very crucial film, a must see. I even think this should be shown in classes - it's that important.</t>
+  </si>
+  <si>
+    <t>I saw this movie last night and thought it was decent. It has it's moments I guess you would say. Some of the scenes with the special ops forces were cool, and some of the location shots were very authentic. I won't be putting this movie in my DVD collection but it is fair enough to recommend for renting. I guess nothing set the movie at another level compared to others of the same genre. The action is good, the acting is decent, the women are extremely seductive and exotic in my opinion, and the story is pretty interesting. 7 out of ten</t>
+  </si>
+  <si>
+    <t>Yes, I call this a perfect movie. Not one boring second, a fantastic cast of mostly little known actresses and actors, a great array of characters who are all well defined and who all have understandable motives I could sympathize with, perfect lighting, crisp black and white photography, a fitting soundtrack, an intelligent and harmonious set design and a story that is engaging and works. It's one of those prime quality pictures on which all the pride of Hollywood should rest, the mark everyone should endeavor to reach.&lt;br /&gt;&lt;br /&gt;Barbara Stanwyck is simply stunning. There was nothing this actress couldn't do, and she always went easy on the melodramatic side. No hysterical outbursts with this lady - I always thought she was a better actress than screen goddesses like Bette Davis or Joan Crawford, and this movie confirmed my opinion. Always as tough as nails and at the same time conveying true sentiments. It is fair to add that she also got many good parts during her long career, and this one is by far the least interesting.&lt;br /&gt;&lt;br /&gt;The title fits this movie very well. It is about desires, human desires I think everyone can understand. Actually, no one seems to be scheming in this movie, all characters act on impulse, everybody wants to be happy without hurting anybody else. The sad fact that this more often than not leads to complications makes for the dramatic content into which I will not go here.&lt;br /&gt;&lt;br /&gt;I liked what this movie has to say about youth, about maturing and about the necessity to compromise. The movie I associate most with this one is Alfred Hitchcock's Shadow of a Doubt, it creates a similar atmosphere of idealized and at the same time caricatured Small Town America. The story has a certain similarity with Fritz Lang's considerably harsher movie Clash by Night, made one year earlier, where Stanywck stars in a similar part. I can also recommend it.</t>
+  </si>
+  <si>
+    <t>I would like to know if anyone know how I can get a copy of the movie, "That's the way of the World". It's been about 30 years since I've seen this movie, and I would like to see it again. Earth Wind &amp; Fire transcend the nation globally with their inspirational music and themes. It was unfortunate that this group didn't take off like their counterparts in the early 70's, but as previously stated, racial tension existed in the United States which prohibited equalized exposure for the African American musical groups. It is good to see that Earth Wind &amp; Fire continuing their success. I would like to add this movie to my collection. Someone please help me if possible. Thank you for your attention. Milton Shaw</t>
+  </si>
+  <si>
+    <t>I saw the movie "Hoot" and then I immediately decided to comment it. The truth is that NATURE needs protection from us because we are the dominant specie of this planet. Some people think that if they have money, they can do whatever they want to, which probably is like, but if they think about the future more then they think about themselves they would do something useful! This movie is not just about kids, this movie is showing us that the kids are usually the ones that care more about it then the adults do. When I was twelve, I saw some waterlilies and I knew they are protected by law and didn't even dare to touch them not fearing of the law, but fearing that I might harm them actually. (I am currently 15) What so ever, the acting was great, the 3 main characters are well interpreted and we all have to learn from them. I hope you all think about what you saw in that movie!!! and Enjoy!</t>
+  </si>
+  <si>
+    <t>I had some reservations about this movie, I figured it would be the usual bill of fare --- a formula movie about Christmas. Being in the middle of a heat wave in late June, we decided to give it a shot anyway, maybe we would see some snow.&lt;br /&gt;&lt;br /&gt;This movie turned out to be one laugh after another. Ben Affleck was believable in his character, but the real star of this one is James Gandofini. He delivered his lines with a real wit about him and made a great "dad".&lt;br /&gt;&lt;br /&gt;If you want to have an enjoyable couple of hours, definitely check this one out.</t>
+  </si>
+  <si>
+    <t>When I first saw this film around 6 months ago, I considered it interesting, but little more. But it stuck with me. That interest grew and grew, and I wondered whether my initial boredom and response had more to do with the actual VHS quality rather than the film itself. I purchased the Criterion DVD box set, and it turns out that I was right the second time. Alexander Nevsky is a great film. It is rousing, and I'm sure it succeeded in its main aim: propaganda against the Germans.&lt;br /&gt;&lt;br /&gt;That is the most common criticism against this film, and against Eisenstein, that it is merely propagandist and nothing else. It's untrue. He is an amazing film artist, one of the most important whoever lived. By now, the world is far enough beyond Joseph Stalin to be able to watch Eisenstein's films as art.</t>
+  </si>
+  <si>
+    <t>Focus is another great movie starring William H. Macy. I first discovered Macy in Fargo and I've seen a few of his films and he hasn't yet deceived me. Macy is the archetypal "nice guy with something to hide". In Focus, he plays the role of Lawrence Newman, a loyal and hard-working stiff, who harbours his handicapped mother at home. The scene is set after World War II, at the height of McCarthyism. Newman is the head of Human Resources for a company which is basically, anti-Semite. After he accidentally hires a woman of Jewish descent, he is asked to buy a pair of glasses, to improve his failing eyesight.&lt;br /&gt;&lt;br /&gt;Unbelievably, the simple act of buying glasses has great repercussions on his life and that of Gertrude Hart, his wife (played by a great Laura Dern). As the film unravels, Newman will begin to see a whole different world, where being Jewish is akin to being an animal.&lt;br /&gt;&lt;br /&gt;The movie is disturbing in the way it shows that being racist was something fairly normal. The chilling thought is that in some places, it probably still is.</t>
+  </si>
+  <si>
+    <t>In "Brave New Girl," Holly comes from a small town in Texas, sings "The Yellow Rose of Texas" at a local competition, and gets admitted to a prestigious arts college in Philadelphia. From there the movie grows into a colorful story of friendship and loyalty. I loved this movie. It was full of great singing and acting and characters that kept it moving at a very nice pace. The acting was, of course, wonderful. Virginia Madsen and Lindsey Haun were outstanding, as well as Nick Roth The camera work was really done well and I was very pleased with the end (It seems a sequel could be in the making). Kudos to the director and all others that participated on this production. Quite a gem in the film archives.</t>
+  </si>
+  <si>
+    <t>Despite a totally misleading advertising campaign, this flick turns out to be an irritatingly clichÃ©d, sub-par haunted house flick with a totally implausible ending. Clue number1 for all considering seeing this turkey: Sam Raimi didn't direct it. Although commercials for the movie play up his involvement, in truth he is one of four producers. It's too bad that someone as talented as Raimi has allowed his name to be used in conjunction with such a poor movie. I don't think he would ever have directed something like this; that task was left to the Pang Brothers.&lt;br /&gt;&lt;br /&gt;The screenplay for this film seems to have been cobbled together from numerous other "horror" films, so you'll find absolutely zero original content in "The Messengers." What we get are a scene here and there that was plucked straight out of "Pulse," a couple that could have come from "The Birds," one or two from "The Others," etc. Nearly every scene, almost every line of dialogue, is one that has been lifted from any number of other movies. The whole thing makes for such a predictable movie that almost anyone will be able to figure out the "surprise ending" long before it comes.&lt;br /&gt;&lt;br /&gt;Right about here would be a good time to point out that the advertising campaign, centered on the idea that only children can see ghosts, has nothing to do with this movie. In fact, everyone can see the ghosts. The teenage daughter and mother characters certainly see them, even quite early in the movie. I'm sure that whomever was in charge of marketing came up with this campaign because the film needed a unique angle to have any box office appeal, which otherwise is entirely absent. Now you know, so don't be fooled! Perhaps what this movie lacks most of all is anything resembling chemistry between the actors. It simply isn't there. All of the interactions come across as awkwardly stilted. Coupled with the hackneyed story and ridiculous plot holes (just what is a guy who murdered his whole family doing still lurking around the small town where the murder happened, anyhow? Didn't anyone think to maybe arrest him?), it all adds up to a profoundly unsatisfying ghost flick that only manages to surprise anyone over the age of ten with cheap shots: loud noises, visual flashes, and anything short of a sheeted figure jumping out of a closet and yelling "Boo!" All we get for our buck this time around is yet another poorly-made film about spirits attempting to warn people away from a house. If there's any message that "The Messengers" delivers, it's "Don't waste your time on this movie."</t>
+  </si>
+  <si>
+    <t>This movie sucks ass. Something about a heatwave in some European country, complete trash. There's nothing going for this movie whatsoever. maybe 30 seconds of sex but that's it. There is a very annoying chick who hitches rides with people and really pisses me off. This movie is complete rash and you shouldn't subject yourself to watching it. I regret it it's very boring. I would rate it zero but i can't. No body in their right mind should see this. i'm sure you'll regret it completely i did. How could they think up something this bad. Even Mystery men was better. MYSTERY MEN. That sucks. That movie wasn't worth being made. complete waste of time. The characters in this are very hard to understand and i good very very very bored.</t>
+  </si>
+  <si>
+    <t>I was looking forward to The Guardian, but when I walked into the theater I wasn't really in the mood for it at that particular time. It's kind of like the Olive Garden - I like it, but I have to be in the right mindset to thoroughly enjoy it.&lt;br /&gt;&lt;br /&gt;I'm not exactly sure what was dampening my spirit. The trailers looked good, but the water theme was giving me bad flashbacks to the last Kevin Costner movie that dealt with the subject - Waterworld. Plus, despite the promise Ashton Kutcher showed in The Butterfly Effect, I'm still not completely sold on him. Something about the guy just annoys me. Probably has to do with his simian features.&lt;br /&gt;&lt;br /&gt;It took approximately two minutes for my fears to subside and for my hesitancies to slip away. The movie immediately throws us into the midst of a tense rescue mission, and I was gripped tighter than Kenny Rogers' orange face lift. My concerns briefly bristled at Kutcher's initial appearance due to the fact that too much effort was made to paint him as ridiculously cool and rebellious. Sunglasses, a tough guy toothpick in his mouth, and sportin' a smirk that'd make George Clooney proud? Yeah, we get it. I was totally ready to hate him.&lt;br /&gt;&lt;br /&gt;But then he had to go and deliver a fairly strong performance and force me to soften my jabs. &lt;br /&gt;&lt;br /&gt;Darn you, ape man! Efficiently mixing tense, exciting rescue scenes, drama, humor, and solid acting, The Guardian is easily a film that I dare say the majority of audiences will enjoy. You can quibble about its clichÃ©s, predictability, and rare moments of overcooked sappiness, but none of that takes away from the entertainment value.&lt;br /&gt;&lt;br /&gt;I had a bad feeling that the pace would slow too much when Costner started training the young guys, but on the contrary, the training sessions just might be the most interesting aspect of the film. Coast Guard Rescue Swimmers are heroes whose stories have never really been portrayed on the big screen, so I feel the inside look at what they go through and how tough it is to make it is very informative and a great way to introduce audiences to this under-appreciated group.&lt;br /&gt;&lt;br /&gt;Do you have what it takes to be a rescue swimmer? Just think about it -you get to go on dangerous missions in cold, dark, rough water, and then you must fight disorientation, exhaustion, hypothermia, and a lack of oxygen all while trying to help stranded, panicked people who are depending on you for their survival. And if all that isn't bad enough, sometimes you can't save everybody so you have to make the tough decision of who lives and who dies.&lt;br /&gt;&lt;br /&gt;Man, who wants all that responsibility? Not me! I had no idea what it was really like for these guys, and who would have thought I'd have an Ashton Kutcher/Kevin Costner movie to thank for the education? &lt;br /&gt;&lt;br /&gt;Not only does The Guardian do a great job of paying tribute to this rare breed of hero, but lucky for us it also does a good job of entertaining its paying customers.&lt;br /&gt;&lt;br /&gt;THE GIST &lt;br /&gt;&lt;br /&gt;Moviegoers wanting an inside look at what it's like to embark on a daring rescue mission in the middle of the ocean might want to give The Guardian a chance. I saw it for free, but had I paid I would've felt I had gotten my money's worth.</t>
+  </si>
+  <si>
+    <t>Going into see Seven Pounds i wasn't clearly sure what to think because the previews left to much open to grasp what the movie was really about. So within the first 20 min or so you are completely lost in the plot, have no idea what is going on and you think Tim, who claims to be Ben, is just a big asshole. All of this comes to an end when the "twist",so to speak, is unraveled at the very last minute of the movie. Basically Tim (will smith) was troubled and haunted by a big accident he made causing the end of seven peoples lives. By this he decides to scope out seven new people who are in need of help badly who he in turns gives his life to.&lt;br /&gt;&lt;br /&gt;The acting of this film is great, as i feel will smith no matter what part he seems to impress. Rosario Dawson, to me, this is one of her better movies, aside from eagle eye which i think is up there to. She has been in some bad some good but she does deliver in this film. Other actors, such as woody Harrelson, have very small roles and not a big enough role to grasp the character. Although the casting of the film was still good.&lt;br /&gt;&lt;br /&gt;This movie was definitely not what i expected and certainly a lot slower pace in which i hoped. The movie, however, was still pretty good. Nothing is revealed until the last 5 min of the movie and everything falls into place. Up until then it just seems like a pointless love story. Final thought seven pounds=seven Stars.</t>
+  </si>
+  <si>
+    <t>I saw Brother's Shadow at the Tribeca Film Festival and loved it! Judd Hirsch and Scott Cohen are great as father and son. The film follows Scott Cohen from parole in Alaska back to his family in Brooklyn. He shows up there because his brother has died, and he embarks on a journey to slowly repair his estranged relationships with his brother's wife and child and his father who has never forgiven him for being the black sheep of the family. The story takes us deep into the hearts and minds of this family and allows you to more deeply understand the complexity of their lives. Also, the imagery of the woodworking business and the Brooklyn backdrop sets the tone for this rich and revealing family portrait.</t>
+  </si>
+  <si>
+    <t>"MararÃ­a" really disappointed me. I can't consider it as a bad movie, but the development just seemed too rushed and non-believable for it to evoke any emotions. Dr. FermÃ­n displays some unprecedented bizarre behaviour out of a passion that one can't really understand where it was born from. I mean, how many times does he ever have a conversation with MararÃ­a?? Maybe once? Also, MararÃ­a never appeared to be a real character, instead more like a film stereotype that just needed to be in the movie (...or else another title was needed?). Some of the best acting came from a role that wasn't really important to the story, that of Marcial, the sub-intelligent yet humble drunkard. Of course, the scenery, the cultural tidbits of the Canary Islands, and other "wow" moments were interesting, but the movie fell short of a documentary (in case this was its real intention), and most importantly, as a solid drama.</t>
+  </si>
+  <si>
+    <t>Serum is about a crazy doctor that finds a serum that is supposed to cure all diseases through the power of the mind. Instead it creates some kind of monster that needs to eat human flesh and brains. The mad doc creates some zombies out of cadavers and has some problems. There is a very long lead into all the action with many scenes getting you acquainted with the characters. The mad doctor's nephew gets into a car accident and the mad doc tries to use his new serum on the boy. The results are not good. This is a class C film with OK acting but some troubles directing and some continuity errors. There isn't much zombie action in this one and the effects, while adequate, are nothing special. You can fast forward through the slow parts and get some enjoyment out of the action scenes. Watch out for some nudity and bad language.</t>
+  </si>
+  <si>
+    <t>witty. funny. intelligent. awesome. i was flipping channels late one night years ago. came across this and a wildfire started. i was staying up late every night and taping it for everyone i know. a few. like 3 people out of the almost 100 people i made watch this didn't think it was as awesome as i did. the others were laughing out loud so hard they were crying and thanking me at the same time. please do yourself a favor. run don't walk. watch this and enjoy. intelligence and humor. it's a win-win situation. i wish i could have afternoon tea with him and meet the truly rare comedian that we as a society need more of....sanechaos.</t>
+  </si>
+  <si>
+    <t>It's a unique film, as it gives us our only chance to see the young Noel Coward in all his ironic glory. Because he seems so reserved &amp; detached he's perfect for the role of an unloved cad who matter-of-factly uses all those around him. However in the deadly serious (no pun intended) last act, when Coward must make like the Flying Dutchman, he's much less comfortable.&lt;br /&gt;&lt;br /&gt;But his way with an epigram is peerless, and Hecht &amp; Macarthur have given him some gems (Macarthur, really -- he was the wit of the pair).&lt;br /&gt;&lt;br /&gt;The film is superbly lighted by the great Lee Garmes, but has little camera movement aside from a storm sequence. Hecht and Macarthutr cared about one thing -- getting their dialogue on screen. (NOTE: H&amp;M themselves have blink-and-you'll-miss-'em cameos as bums in the flophouse scene).&lt;br /&gt;&lt;br /&gt;The most notable supporting player is the one and only Alexander Woolcott, notorious Broadway columnist and close friend of both Macarthur and Coward, who appears as one of the bitchy authors always kept waiting in the reception room of publisher Coward.&lt;br /&gt;&lt;br /&gt;Curious that Woolcott would agree to do a film that clearly lampoons the legendary Algonquin Round Table, of which he was a founder, and Macarthur something of an auxiliary member.&lt;br /&gt;&lt;br /&gt;The Scoundrel actually won an Oscar for best story, though that victory is probably due more to Coward's imposing presence than any brilliance in the plot. It's Coward, Woolcott, and the dialogue you remember...</t>
+  </si>
+  <si>
+    <t>This is definitely a "must see" film. The excellent Director Alain Chabat (also acting as Ceasar) has managed to capture the very essence of the "Adventures of AstÃ©rix" (the French comic books it's based upon) and to create a fantastically modern and intelligent comedy, which is also an homage to the world of animated films. This movie is so funny, so full of jokes (both visual and spoken) that it might take you two or three screenings before you notice them all, between your bursts of laughter. The only drawback is that a non-French audience (or at least a non-French speaking audience) might not get all the "private jokes". There are so many dialogues impossible to translate, so many situations directly related either to the comic books or to the French way of life, that the fun might be lessened. However, it's still totally worth seeing for the beautiful picture, the amazing stunts, the music, the totally crazy atmosphere and the excellent acting. All actors are great, but the film would not be the same without Jamel Debouze, GÃ©rard Darmon and Edouard Baer. And please don't EVER compare this magnificent film to the terrible previous one based on the same comic books : "AstÃ©rix et ObÃ©lix Contre CÃ©sar" and directed by Claude Zidi.</t>
+  </si>
+  <si>
+    <t>I thought this movie was stunning, with completely outstanding performances by Valentina Cervi (Artemisia Gentileschi).&lt;br /&gt;&lt;br /&gt;Cervi portrays Artemisia so beautifully, with tentative yet confidant mannerisms, her hands mapping out an idea before moving her models into place. The passion to which Artemisia gives to her art is just spectacular to watch.&lt;br /&gt;&lt;br /&gt;Although not each character was overtly beautiful, this made the film more realistic as the facial hair and clothing was perfect for that point in time.&lt;br /&gt;&lt;br /&gt;Overall i thought this film was fantastic.</t>
+  </si>
+  <si>
+    <t>I consider myself a bit of a connoisseur of boxing movies and as such there is only one thing that prevents me from calling "Gentleman Jim" the best boxing movie ever made. That is the Robert Wise/Paul Newman flick "Somebody Up There Likes Me." That movie might be number 1, but "Gentleman Jim" is a close number 2.&lt;br /&gt;&lt;br /&gt;The movie doesn't just chronicle the rise of James J. Corbett, it also shows the sport of boxing at a crucial time of transition. In the late 1800s boxing was moving away from the brutal days of bare-knuckle rules to the more "gentlemanly" days of the gloved, Marquis of Queensbury rules. And the sport was moving away from the days when it was an illegal spectacle and towards a time of acceptance and respectability.&lt;br /&gt;&lt;br /&gt;"Gentleman Jim" is not a realistic look at those days. It is romanticized and, yes, even a bit hokey at times. But always delightfully so. Errol Flynn is perfect as the "Gentleman" Jim who really isn't a "gentleman" at all but merely a fast talker from a working class family. Alexis Smith is quite ravishing as the upper class woman with whom he has a love/hate relationship (and we all know it is, of course, love that will win that match in the end).&lt;br /&gt;&lt;br /&gt;At the end of "Gentleman Jim" the great John L Sullivan (whose famous line was NOT "I can lick any man in the world" of course...romanticism again) hands over his belt to Corbett. This is truly one of the best scenes in any sports move ever made. Realistic? No. But wonderful. Hey, if you want realism watch "Raging Bull" instead. That is a much more realistic boxing movie. But "Gentleman Jim" is a lot more fun.</t>
+  </si>
+  <si>
+    <t>That this movie has been stapled to the wall of a chapel as proof that God is truly dead. Am I the only one that really saw (rather sleptwalked) through this "film"? This is the only movie I've ever seen in the theater that I regret not walking out on and demanding my money back -- it was just that dull. And I even saw "Highlander 2: The Quickening" at the local cinema. From beginning to end, Gibson and Downey have absolutely no chemistry as two unlikelies, cast together by circumstance, who eventually work together as best buddies. The action (what little there is) is goofy and as dull as the skullbone of the writer. Thank whatever deity is chortling down at us as it observes our "cinema" that there's no chance for an "Air America 2."</t>
+  </si>
+  <si>
+    <t>Well, there's no real plot to speak of, it's just an excuse to show some scenes of extreme violence and gratuitous sex (which can sometimes be fun, too, but it's not in this case). What else can I say about this...? The action, when happening, is inventive and there's a cool scene where two characters are falling from a skyscraper (one that has to be several miles high), but overall there's not much to recommend "Kite". Watch it if you want, but you're not missing much if you skip this one...</t>
+  </si>
+  <si>
+    <t>This is the best film the Derek couple has ever made and if you think this is a recommendation then you haven't seen any of the others. There are the usual ingredients: it is just as poorly acted as their other efforts, we can watch Bo disrobing or auditioning for wet T-shirt contests quite frequently, the story is just laughably idiotic, and the film takes itself much too seriously. And then: Orang Utans in Africa?&lt;br /&gt;&lt;br /&gt;But it has a few things going for it. Bo looks great, the production values (sets, costumes, etc.) are quite good, and this greatly enhances its camp value. In a strange way it is actually quite funny, simply because it tries to be serious and fails so badly.</t>
+  </si>
+  <si>
+    <t>Some people drift through life, moving from one thing or one person to the next without batting an eye; others latch on to a cause, another person or a principle and remain adamant, committed to whatever it is-- and figuratively or literally they give their word and stand by it. But we're all different, `Made of different clay,' as one of the characters in this film puts it, which is what makes life so interesting. Some people are just plain crazy, though-- and maybe that's the way you have to be to live among the masses. Who knows? Who knows what it takes to make things-- life-- work? Writer/director Lisa Krueger takes a shot at it, using a light approach to examine that thin line between being committed-- and how one `gets' committed-- and obsession, in `Committed,' starring Heather Graham as a young woman who is adamant, committed, obsessive and maybe just a little bit crazy, too. Her name is Joline, and this is her story.&lt;br /&gt;&lt;br /&gt;	Admittedly, Joline has always been a committed person; in work, relationships, in life in general. She's a woman of her word who sticks by it no matter what. And when she marries Carl (Luke Wilson), it's forever. The only problem is, someone forgot to tell Carl-- and 597 days into the marriage, he's gone; off to `find' himself and figure it all out. When Joline realizes he's not coming back, she refuses to give up on him, or their marriage. Maybe it's because of that `clay' she's made of. Regardless, she leaves their home in New York City and sets off to find him, which she does-- in El Paso, Texas, of all places. But once she knows where he is, she keeps her distance, giving him his `space' and not even letting him know she's there. She considers Carl as being in a `spiritual coma,' and it's her job to keep a `spiritual vigil' over him until he comes to his senses. And while she watches and waits, her life is anything but dull, as she encounters a young woman named Carmen (Patricia Velazquez), a waitress at one of the local eateries; Carmen's `Grampy,' (Alfonso Arau), who is something of a mystic; T-Bo (Mark Ruffalo), a truck driver who has issues concerning Carl; and Neil (Goran Visnjic) an artist who makes pinatas and takes a fancy to her. For Joline, it's a journey of discovery, during which she learns a lot about Carl, but even more about herself.&lt;br /&gt;&lt;br /&gt;	There's a touch of humor, a touch of romance, and some insights into human nature in this quirky film that is more about characterization and character than plot. And Krueger presents it all extremely well, delivering a film that is engaging and entertaining. Her characters are very real people, with all the wants, needs and imperfections that make up the human condition; a rich and eclectic bunch through which she tells her story. We see it from Joline's point-of-view, as Krueger makes us privy to Joline's thoughts and therefore her motivations, which puts a decided perspective on the events as they unfold. That, along with the deliberate pace she sets that allows you to soak up the atmosphere and the ambiance she creates, makes for a very effective piece of storytelling. There's an underlying seriousness to this subject matter, but Krueger chooses to avoid anything heavy-handed or too deep and concentrates instead on the natural humor that evolves from the people and situations that Joline encounters. And the result is a well textured, affecting and upbeat look at that thing we call life.&lt;br /&gt;&lt;br /&gt;	Heather Graham takes hold of this role from the first frame of the film to make Joline a character totally of her own creation. She immerses herself in the part and gives a performance that is convincing and believable, adding the little personal traits and nuance that makes all the difference between a portrayal that is a mere representation of a person, and one that is real. And for this film to work, it was imperative that Joline be viable and believable-- and Graham succeeds on all fronts. Her screen presence has never been more alluring, and her vibrant personality or even just the way she uses her eyes, is enough to draw you in entirely. it's all a part of the character she creates; there's an appeal to Joline that exudes from her entire countenance, who she is inside and out. She's a likable, agreeable person, and because you've shared her innermost thoughts, you know who she is. It's a good job all the way around, beginning with the way the character was written, to the way Graham brings her so vibrantly to life.&lt;br /&gt;&lt;br /&gt;	As Carmen, Patricia Velazquez is totally engaging, as well. Her performance is very natural and straightforward, and she uses her instincts to effectively create her character. She has a charismatic presence, but is less than flamboyant, and it gives her an aspect that is attractively down-to-earth. She is refreshingly open and up-front; you get the impression that Carmen is not one to hold anything back, but is totally honest on all fronts, and that, too, is part of her appeal. And, as with Joline, this character is well written, and Velazquez brings her convincingly to life.&lt;br /&gt;&lt;br /&gt;	Overall, there is a number of notable performances that are the heart and soul of this film, including those of Luke Wilson, Casey Affleck (as Joline's brother, Jay), Goran Visnjic, Alfonso Arau and especially Mark Ruffalo as T-Bo, who, with very little actual screen time, manages to create a memorable character.&lt;br /&gt;&lt;br /&gt;	The supporting cast includes Kim Dickens (Jenny), Clea Du Vall (Mimi), Summer Phoenix (Meg), Art Alexakis (New York Car Thief), Dylan Baker (Carl's Editor), and Mary Kay Place (Psychiatrist). A film that says something about the value of stepping back to consider The Big Picture-- reflecting upon who we are, where we're going and what we really need-- `Committed' is an enjoyable experience; a ride definitely worth taking. 8/10.</t>
+  </si>
+  <si>
+    <t>Ho-hum. An inventor's(Horst Buchholz)deadly biological weapon is in danger of falling into the wrong hands. Unknowingly his son(Luke Perry)has been working on the antedote all along. Enter CIA agent Olivia d'Abo and the cat-and-mouse car chases and gunfire begins. Also in the cast are:Tom Conti, Hendrick Haese and an aging Roger Moore. Moore seems to haggardly move through this mess definitely not one of his better efforts. Perry fans will be accepting. d'Abo is wrong for the role, but nice to look at.</t>
+  </si>
+  <si>
+    <t>Note to self. Never ever ever again watch a serious movie with Charlie Sheen in it. Great comedian, horrible seal. This movie makes Navy SEALS look like a reckless group of rangers when, in fact, they are the most elite form of military in the world. Charlie Sheen helps destroy the Navy SEAL reputation. Thank you for making such an incredibly select group of individuals look awful in one of the worst action movies I have ever seen. This is a great story which could be made into an amazing action movie, but why Charlie Sheen? There are possibilities for a very passionate story here, but Sheen decides to wreck them with "funny" comments.</t>
+  </si>
+  <si>
+    <t>This movie is stupid. There's no getting around it. But so is Dumb and Dumber. Mind you, Dumb and Dumber is significantly more funny than this. However, I for one love seeing stupid movies (Tail Sting) and laughing with a group of good friends over how bad it is. Call me callous, but see this movie, and you'll find that the only way you can laugh at it is if you laugh at it instead of with it.</t>
+  </si>
+  <si>
+    <t>I was looking forward to this so much, being a big fan of the book. However, when it came out I remember thinking it was one of the biggest wastes of money and time I've ever spent at the cinema.&lt;br /&gt;&lt;br /&gt;In principle, the acting, the sets and the music were excellent, and are the main reason why I'm rating this a 4.&lt;br /&gt;&lt;br /&gt;In this version, Sara is a little too self-sacrificing for my taste. There is no way she would have deliberately lied to Miss Minchin just to stop her punishing the other girls; in the book she makes a point of describing lies as "not just wicked, but vulgar." &lt;br /&gt;&lt;br /&gt;There's also far too much of a Disneyfied ending for me; Sara's father coming back from the dead and all of them trotting off into the Indian sunset. While the book does have a happy (and critics might say equally improbable) ending, it doesn't leave you thinking, "Oh puh-leeze."&lt;br /&gt;&lt;br /&gt;About the only things true to the book were:&lt;br /&gt;&lt;br /&gt;1. Sara's father being a soldier 2. The lines between Sara and her father ("Are you learning me by heart?"/"No. I know you by heart. You are inside my heart.") 3. Sara's friendship with Becky, and her 'adopting' Lottie (although this last one wasn't developed as much as it could have been) 4. The changing of her room by adding various luxury items. That part was brilliantly done. 5. The basic core - a rich girl being flung into poverty suddenly - is there, but that's about all that is.&lt;br /&gt;&lt;br /&gt;People might say that this adaptation is more for the younger audience. Possibly. All I can say to that is I have two cousins - aged 7 and 12 respectively - who were big fans of this film until they read the book.&lt;br /&gt;&lt;br /&gt;If all you want is a 'feel-good' family film, then this delivers. If you're looking for a film that actually tells the story of A Little Princess (in fact, if you've read the book) don't waste time with this one. It's such a shame; with a cast like this, if they'd stuck to at least the basic story it could have been fantastic.&lt;br /&gt;&lt;br /&gt;Am I harping on about 'read the book' this and 'read the book' that a little too much? Very probably. But if someone attempts to adapt a book - especially such a classic - into a movie, then they should at least have done the same thing. Preferably more than once.</t>
+  </si>
+  <si>
+    <t>as always this is an inaccurate picture of the homeless. TV told a lot of lies about panhandlers in the early 1990s and made everyone look bad, and claimed we all made over $100 a day when $20-40 a day was much closer to reality. when someone drove by where i held up a sign offering to work, and offered me work, i actually went and took the work if i was physically able.and if i would been offered the $100,000 id damned sure invested in in apt prepaid for at least 2 years, and kept most in the bank and still left myself $10-20000 for NL $1-2 and $2-5 cash games at the casinos. i usually always win and could win decent if i just had a bankroll. instead i win about $1000 a month is all playing in always minimum buying in due to not wanting to risk losing it all. i was only homeless cause i didn't wanna risk spending all my money and going broke, sometimes i had over $1000-2000 in my sock while i slept outside. anyone wanting to talk contact sevencard2003 on yahoo messenger.i admit i was different than most homeless people though, due to the fact i never drank smoke or took drugs. im no longer homeless, am now in govt housing for $177 a month and getting SSI and spend most of my time winning at online poker. mom and sunflower diversified worked hard to get me SSI. glad my days of hiding in under the stage in the convention center of the casino at night sleeping, worrying about getting caught by security are finally over. had this TV crew picked me theyd been over a lot sooner. its a shame how they don't better select who they pick.</t>
+  </si>
+  <si>
+    <t>i really in enjoyed watching this movie. like most of the people that watched it. i wasn't sure that i was getting. Whoopi Goldberg is a very funny comedian and she has done a lot of funny movies; i.e. sister act.&lt;br /&gt;&lt;br /&gt;however this was not really comedy. it is a drama with comedic moments. so if your looking for a laugh riot then keep looking.&lt;br /&gt;&lt;br /&gt;this movie is about a black family moving up from a nice neighborhood in the city to an upper middle class neighborhood. i would say more but it think it would spoil the movie. this movie does not just deal with race relations between whites and blacks, but also about relations with in the black community. i do think that it is worth a chance. if your not really interested in see another movie about race relations then this movie isn't for you</t>
+  </si>
+  <si>
+    <t>Having been a Marine, I can tell you that the D.I. is as accurate a portrayal to date depicting Marine Corp boot camp and how boys are turned into men. Jack Webb is excellent as Sgt.Jim Moore, a tough, but fair drill instructor in Paris Island North Carolina. The film centers on one recruit who doesn't seem to "get with the program." A more recent film, Full Metal Jacket, also shows life in basic training and is well worth viewing.</t>
+  </si>
+  <si>
+    <t>Every high praise word fell way short before the height of this movie. This movie is the true example of how a psychological horror movie should be.&lt;br /&gt;&lt;br /&gt;The plot seems to be a bit confusing at first viewing but it will definitely explain a bit about what's going on and you really want to view it for the second time. But after second viewing you will start to join the pieces together and then you will know how amazing a movie can be.&lt;br /&gt;&lt;br /&gt;A word of advice for slasher flick fans stay away from this movie. This is not your dumb ass teenage slasher movie, in which you just switch off your brain and sit in front of the screen just to see big b**bs and lots of blood.&lt;br /&gt;&lt;br /&gt;If you want to heighten the psychological horror factor of this movie then watch it all alone with a great home theater system that supports Dolby Digital or DTS 5.1ch, without any of your ill mannered friends that crack jokes on a really tense situation. And don't forget to switch the light off.&lt;br /&gt;&lt;br /&gt;My points on different aspects:-&lt;br /&gt;&lt;br /&gt;Direction = 9/10 Acting = 8/10 Atmosphere = 10/10 Sound Effect = 9/10&lt;br /&gt;&lt;br /&gt;Total = 9/10</t>
+  </si>
+  <si>
+    <t>Ken Burns' "Baseball" is a decent documentary... it presents a clear origin of the game, a great depiction of baseball's early years and heroes. There's plenty in this movie for any baseball fan... that said, the film has several glaring flaws.&lt;br /&gt;&lt;br /&gt;18 hours is simply too long for the human attention span. It's clear that Burns stretched his film out to fit his "nine inning" concept. It's not even a tight 18 hours... the pace on every segment is slow, almost morose... the music always nostalgic and wistful. Isn't baseball ever exciting and fun? Why is every player and their accomplishments presented in the form of a tragedy? Talking head after talking head turn every pitch into an emotional heartbreak, yakking about baseball as a metaphor, baseball as Americana, the psychology and theology of baseball... enough! This is syrupy, mawkish drivel. Billy Crystal is here to sell us all the Yankee hokum he's sold us before. Ken Burns uses the National Anthem as the series' theme song, and manages to play "Take Me Out To The Ballgame" so many times you might vomit. We get it, dude.&lt;br /&gt;&lt;br /&gt;Clearly Burns is a neo-Hollywood faux-liberal, so he spends probably a third of the film on the Negro leagues... these segments are spent chastising whites of yesterday for not being as open-minded as Kenny is today. For shame! He chides baseball for being segregated in the thirties and forties but fails to realize that America was segregated in those times! Burns falls head over heels in love with Buck O'Neil, a former negro-league player, and drools over every piece of footage in which the elderly O'Neil waxes poetic about his playing days. Nonsense...&lt;br /&gt;&lt;br /&gt;Burns would have been better off with an adult to help him edit his creation down. "Baseball" winds up as mushy, gushy, civil-rights propaganda disguised as Americana. Its clear that Burns is not a baseball fan... otherwise he would know we watch games laughing and cheering, not weeping and reciting soliloquies... are you listening, Mr. Burns? There's no crying in baseball.</t>
+  </si>
+  <si>
+    <t>"Quitting" may be as much about exiting a pre-ordained identity as about drug withdrawal. As a rural guy coming to Beijing, class and success must have struck this young artist face on as an appeal to separate from his roots and far surpass his peasant parents' acting success. Troubles arise, however, when the new man is too new, when it demands too big a departure from family, history, nature, and personal identity. The ensuing splits, and confusion between the imaginary and the real and the dissonance between the ordinary and the heroic are the stuff of a gut check on the one hand or a complete escape from self on the other. Hongshen slips into the latter and his long and lonely road back to self can be grim.&lt;br /&gt;&lt;br /&gt;But what an exceptionally convincing particularity, honesty, and sensuousness director Zhang Yang, and his actors, bring to this journey. No clichÃ©s, no stereotypes, no rigid gender roles, no requisite sex, romance or violence scenes, no requisite street language and, to boot, no assumed money to float character acts and whims. &lt;br /&gt;&lt;br /&gt;Hongshen Jia is in his mid-twenties. He's a talented actor, impressionable, vain, idealistic, and perhaps emotionally starved. The perfect recipe for his enablers. Soon he's the "cool" actor, idolized by youth. "He was hot in the early nineties." "He always had to be the most fashionable." He needs extremes, and goes in for heavy metal, adopts earrings and a scarf. His acting means the arts, friends--and roles, But not the kind that offer any personal challenge or input. And his self-criticism, dulled by the immediacy of success, opens the doors to an irrational self-doubt, self-hatred-- "I didn't know how to act" "I felt like a phony"--and to readily available drugs to counter them. He says "I had to get high to do what director wanted." So, his shallow identity as an actor becomes, via drugs, an escape from identity. &lt;br /&gt;&lt;br /&gt;Hongshen's disengagement from drugs and his false life is very gradual, intermittent--and doggedly his own. Solitude, space, meditative thinking, speech refusal, replace therapy. The abstract is out. And a great deal of his change occurs outdoors---not in idealized locations but mainly on green patches under the freeways, bridges, and high-rises of Beijing. The physicality is almost romantic, but is not. The bike rides to Ritan Park, the long spontaneous walks, the drenching sun and rain, grassy picnics, the sky patterns and kites that absorb his musing are very specific. He drifts in order to arrive, all the while picking up cues to a more real and realistic identity. "I started to open up" he says of this period in retrospect. And the contact seems to start with his lanky body which projects a kind of dancer's positioning (clumsy, graceful, humorous, telling) in a current circumstance. If mind or spirit is lacking, his legs can compel him to walk all night. &lt;br /&gt;&lt;br /&gt;Central to his comeback is the rejection of set roles. To punctuate his end to acting and his determination to a new identity, he smashes his videos and TV, and bangs his head till bloody against his "John Lennon Forever" poster. He has let down his iconic anti-establishment artist---but he's the only viable guide he knows. He even imagines himself as John's son (Yoko Ono), and adopts his "Mother Mary" as an intercessor in his "hour of darkness" and "time of trouble." (the wrenching, shaking pain in the park--hallucinatory and skitzoid ordeals) "Music is so much more real than acting" he says. And speaks of Lennon's influence as "showing me a new way." In the mental institute, the life-saving apples (resistance, nourishment) reflect Lennon's presence, as does Hongshen's need to re-hang his hero's poster in his redecorated room.&lt;br /&gt;&lt;br /&gt;If Lennon's influence is spiriting, Hongshen's father's influence is grounding. Although father and son are both actors and users (drugs and drink), it is Fegsen's differences from his son that underwrites his change. For the father is more secure in himself: he accepts that he's Chinese, a peasant in a line of peasants, a rural theater director. And he exercises control over both his habit and his emotions. It's this recognizable identity that drives Hongshen to treat him like a sounding board, sometimes with anger and rage, sometimes with humor (the blue jeans, Beatles) and passivity. In his most crazed, and violent exchange with his father in which he accuses him of being a liar, and a fake, he exposes more of himself than his father: "all the acts I acted before were bullshit... life is bullshit." And to Hongshen's emphatic "you are NOT my father," he softly replies, "why can't a peasant be your father?" &lt;br /&gt;&lt;br /&gt;Under these two teachers and with much additional help from his mother, sister, friends, inmates at the rehab inst., he makes some tangible connection to a real (not whole) self. As the long term drug effects recede, so does his old identity. Indebtedness replaces pride, trust distrust. Integrity banishes his black cloud. All his edges soften. "You are just a human being" he repeats endlessly after being released from the strap-down incurred for refusing medicine. Back home, lard peasant soap is fine with him now. And his once "rare and true friendships" begin again as is so evident in the back to poignant back-to-back fence scene with his musician buddy. Hongshen says of this movie: "it's a good chance to think about my life." And I might add, become a New Actor, one bound to art and life. Like Lennon, he has gained success without a loss of identity.</t>
+  </si>
+  <si>
+    <t>I have watched this movie countless times, and never failed to be charmed by it's homely simplicity, sincerity and goodness. Great characterizations by all of the cast, and the lovely little steam trains that play a such an important supporting role.I confess I fell in love with Roberta in 1970, and she still touches me today. Shown on TV in New Zealand on Christmas day, the nicest present I could have had.</t>
+  </si>
+  <si>
+    <t>If only I had read the review by Alex Sander (sic) on here rather than looking at the rating of over 6 from a select choice of the ignorant viewing public I would not have seen this desecration. Alien was a fantastic, dramatic and well made horror/sci-fi. Predator was a great sci-fi/action mess-about. I do really have only myself to blame though as I saw 'Alien versus Predator'. It too has an average grading of over 6 stars from the connoisseurs of film that frequent this site.&lt;br /&gt;&lt;br /&gt;STOP READING NOW IF YOU HAVE ANY FEAR OF THIS EVER SO SUSPENSE RIDDEN PLOT BEING RUINED FOR YOU.&lt;br /&gt;&lt;br /&gt;Right from the beginning this film was ridiculous. No explanation was offered for the Predator ship overrun/not overrun by Aliens. OK so maybe they were again going to throw aliens down to Earth to hunt them and something went wrong but how did this result in an Alien/Predator hybrid and why did the rest of the crew not realise sooner despite their great technology? The start was actually the most coherent and interesting part of the film because we had some idea of who was who or what was what and perhaps why. From then on it gets really ridiculous. I always leave my disbelief strictly suspended above the door of the screen before entering and collect it on the way out. I couldn't here.&lt;br /&gt;&lt;br /&gt;A father and son are hunting in the woods. The damaged ship crash lands to (from the view given) I would calculate at the very least 10 odd miles away through thick woodland. The man and boy track there alone and find the ship and get face hugged. Even at this point you feel very little for them mainly because the face huggers are almost comical rather than scary in their movement and actions and the father seems like such an irresponsible, dumb redneck muppet.&lt;br /&gt;&lt;br /&gt;An edgy, thriller-type scenario is introduced with an ex-con returning to the town near the crash site to be met by his somewhat emotionless, dull now cop friend from the bus. When I say introduced I mean a feeble attempt with crap actors and no feeling is played out. A slasher/horror element is then introduced with a sexy girl and the usual supposedly nerdy or somehow undesirable cute guy who gets beaten up by the over protective, crazy, nasty Jock type (American sportsman not a Scottish man). Oh the cute/not cute boy is the ex-con's brother by the way. Yes they're clever these director brothers whose name I will research in order to avoid any other shite they put out again. Then a modern role reversal oh so boring attempt at PC, Ripley credential type character introduction comes with a female soldier returning home to her husband and child.&lt;br /&gt;&lt;br /&gt;Guess what happens next? I won't tell you much more about the actual (smiles sadly to himself about the demise of storytelling in the large majority of recent films) plot just in case you have got this far and are not the brightest star in the Alien-ridden universe.&lt;br /&gt;&lt;br /&gt;The Predator is stupid for the reasons stated by the previous poster whose post I read too late. The Aliens are boring. The Predator-Alien is ridiculous. The action is at times exploitative, gratuitous, disgusting nonsense. The hospital scene with the pregnant mothers?!?! Oh I was shocked alright. Shocked at how low some people will go to get what? A scare? Some shock? To titillate the perverse? What? If you really wanted to shock, titillate and scare people who are not pregnant or expecting fathers or who have no souls why not just have the Alien/Predator shagging the saucy women and teenage girls rather than killing them? The characters have no depth and neither does the plot. It's filmed and paced badly. It's acted by disinterested people not that I can blame them. It further tarnishes two rather interesting and good sets of sci-fi characters. This film was rubbish and if you gain enjoyment from it I really have to worry about you. If you haven't seen it then well please make your own decision.&lt;br /&gt;&lt;br /&gt;PS Did I even mention the way that trained soldiers are all killed in about 20 seconds while amateur civilians survive throughout?</t>
+  </si>
+  <si>
+    <t>Even though I saw this film when I was very young, I already knew the story of Wild the Thief-Taker and Shepherd who famously escaped from Newgate prison.&lt;br /&gt;&lt;br /&gt;Apart from the liberty taken right at the end, the film more or less faithfully follows the true story. The temptation to bend the facts which is the hallmark of so many so-called historical films is resisted in this film and the film makers must be praised for that.&lt;br /&gt;&lt;br /&gt;Of the performances, There is scarcely a poor performance, and Tommy Steele is ideally cast. Also good is Stanley Baker as the Thief-Taker and Alan Badel is good as always.&lt;br /&gt;&lt;br /&gt;Because the film sticks to the facts, it makes it suitable to be watched by all the family.</t>
+  </si>
+  <si>
+    <t>Gone is the wonderful campiness of the original. In place is a c-grade action no-brainer, wich is not all bad, but pales in comparison to the original. All the meaningless sex and violence is gone, and replaced with crappy jokes and unexplained plot pointers. See it, but don't expect the thrills of the first.</t>
+  </si>
+  <si>
+    <t>Although most Americans have little knowledge of his work other than Star Wars, Alec Guinness produced an amazing body of work--particularly in the 1940s-1950s--ranging from dramas to quirky comedies. I particularly love his comedies, as they are so well-done and seem so natural and real on the screen--far different from the usual fare from Hollywood.&lt;br /&gt;&lt;br /&gt;This being said, this was the film that sparked my interest in these movies. It's plot was so odd and cute that it is very unlikely the film would have been made anywhere--except for Ealing Studios--which had a particular fondness for "little" films like this one.&lt;br /&gt;&lt;br /&gt;Guinness is a nerdy little scientist that works for a textile company. He wants to experiment in order to create a synthetic fabric that is indestructible, though he is not working for the company as a researcher but for janitorial work! So, he tends to sneak into labs (either during the day if no one suspects or at night) and try his hand at inventing. Repeatedly, he is caught (such as after he blew up the lab) and given the boot until one day he actually succeeds! Then, despite the importance of the discovery, he sets off a completely unanticipated chain of events--and then the fun begins.&lt;br /&gt;&lt;br /&gt;The film is a wonderful satire that pokes fun at industry, unions, the government and people in general.</t>
+  </si>
+  <si>
+    <t>Victor McLaglen's performance is one of the finest in film history.&lt;br /&gt;&lt;br /&gt;I think we can all feel for "Gypo" because we've all struggled with what is right and what isn't and been wrong. This was one of the first art-house pictures to be released by a major American movie studio (RKO Radio Pictures).&lt;br /&gt;&lt;br /&gt;Joseph H. August's cinematography is at its very best here. However, August's stunning portion was mostly overlooked; he didn't receive the Oscar nomination he rightly deserved.&lt;br /&gt;&lt;br /&gt;This is a psychological drama, with thought, philosophy, sadness, all conveyed with as little words as possible.</t>
+  </si>
+  <si>
+    <t>How do you take a cast of experienced, well-known actors, and put together such a stupid movie? Nimrod Antel has the answer: Armored. Six co-workers at an armored car business decide to steal a large shipment of cash themselves. But, just as they get to first base with their plans, everything unravels quickly. With a plot like this, you'd think it couldn't be too bad, at least for an action movie. However, in the first 40 minutes or more of this movie we see what appear to be 6 normal, everyday kind of guys. They joke, they laugh, have a few drinks together, etc. Then, we suddenly learn they're planning to rob their own business. The hero Ty, (Columbus Short), is sucked into the scheme because of the cold, cruel world, even though he's a decorated veteran, nice guy, and reliable employee. Oh my, oh my! Then in the last 40 minutes of the film, these former regular guys nearly all turn into money-crazed psychos, willing to butcher each other for cash. In the last scenes Mike, (Matt Dillon), goes on a suicidal rampage for no other reason than to kill his former friend. The viewer has no hint before this ending that these men are this ruthless and bloodthirsty. It's utterly unbelievable and "B movie" is almost too kind for this sort of cheesy plot. I would say don't waste your time--too bad no one gave Laurence Fishburne, Jean Reno or Fred Ward the same advice before making this picture.</t>
+  </si>
+  <si>
+    <t>The sexploitation movie era of the late sixties and early seventies began with the allowance of gratuitous nudity in mainstream films and ended with the legalization of hardcore porn. It's peak years were between 1968 and 1972. One of the most loved and talented actresses of the era was Monica Gayle, who had a small but fanatic cult of followers. She was actually able to act, unlike many who filled the lead roles of these flicks, and her subsequent credits proved it. And her seemingly deliberate fade into obscurity right when her career was taking off only heightens her mystique.&lt;br /&gt;&lt;br /&gt;Gary Graver, the director, was also a talent; probably too talented for the sexploitation genre, and his skill, combined with Monica Gayle's screen presence, makes Sandra, the Making of a Woman, a pleasantly enjoyable experience. The film never drags and you won't have your finger pressed on the fast-forward button.</t>
+  </si>
+  <si>
+    <t>What a surprisingly good movie this one turned out to be. This is the type of film that I've been looking for ages. Particularly important for me was the fantastic-looking Chicago, which I still keep thinking about. The back cover doesn't do this film justice, it's superb, and in my top-5 for sure.</t>
+  </si>
+  <si>
+    <t>I did not expect much from this film, but boy-o-boy, I did not expect the movie to be this bad. Chris Rock is not showing a good act here, you can't get the feeling that his caracter is real, I think the movie would have been a bit better if it's drama or romantic scenes would have been a less part of the movie and more/better humor was involved. The movie is like the film makers were having a bad hangover making it. In the "making of" they don't show a single smile. This is a very bad film! I gave it three out of ten because of few smiles it gave me, but I did never laugh!</t>
+  </si>
+  <si>
+    <t>I cant believe there are people out there that did not like this movie! I thought it was the funniest movie i had ever seen. It my have been b/c i am Mel Brooks biggest fan... I know almost all the words and get very discouraged when they censor them, when it is played on a Family Channel. :) this is one of my favorite movies, so i dont know why any one would disagree! thanks Kristina</t>
+  </si>
+  <si>
+    <t>Flynn, known mostly for his swashbuckling roles (and his bedroom antics!) takes a different tack with this film and it works beautifully. Playing real-life boxing champ Jim Corbett, Flynn turns on the charm full blast as he makes his way from a stifled San Francisco bank teller to a celebrated pugilist, all the while setting one eye on society deb Smith. He and best pal Carson attend an illegal bare-knuckle fight and are arrested along with scores of other men (and a dog!) including a prominent judge. The next day, he gets a chance, via Smith, to gain entrance to the judge's private club. He uses this opportunity to weasel his way into the good graces of its exclusive members and land a spot as the club's resident boxer. His unusually adept skill in the sport soon has him taking on all comers, up to and including the world champion John L. Sullivan (Bond.) Flynn is downright magical here. He is the epitome of charm, charisma and appeal in this role. He looks terrific (especially in a hangover scene with his hair mussed and wearing a white union suit) and does virtually all of his own stuntwork (impressively!) His line delivery is delicious and he is credible and sympathetic and at the same time duplicitous and rascally. Smith exudes class and taste from every pore and is a good match for Flynn. At this stage, he needed a female costar who could stand up to his advances and reputation (he was undergoing statutory rape charges at the time) and she does so admirably. She is repulsed by his freshness and cavalier attitude, yet can hardly help but fall under his enchanting spell. Bond is incredibly burly, brawny and towering, yet tender when the script calls for it. Amusing support is provided by a young and ebullient Carson. Frawley is his dependably cantankerous self as Flynn's manager. The rest of the cast is excellent as well including Flynn's rambunctious family and an assortment of stuffy Nob Hill types. The whole thing is beautifully appointed and securely directed. A few of the sets are amazingly presented. Some of Smith's gowns border on the garish, but she suits the upswept hairstyles very well. It's a terrific glimpse into the earliest days of championship boxing, but it's also so much more. Some of it (like the character traits shown by Flynn) is enhanced or exaggerated for entertainment purposes, but a lot of it is authentic (like the methods and costumes shown in the fight scenes.) One line is particularly memorable: "I believe you like me more than I like you, but it's entirely possible that I love you more than you love me." It's classic romantic dialogue (and there are more than a few zingers sprinkled throughout the script as well.)</t>
+  </si>
+  <si>
+    <t>Often laugh out loud funny play on sex, family, and the classes in Beverly Hills milks more laughs out of the zip code than it's seen since the days of Granny and Jed Clampett. Plot centers on two chauffers who've bet on which one of them can bed his employer (both single or soon to be single ladies, quite sexy -- Bisset and Woronov) first. If Manuel wins, his friend will pay off his debt to a violent asian street gang -- if he loses, he must play bottom man to his friend! &lt;br /&gt;&lt;br /&gt;Lots of raunchy dialogue, fairly sick physical humour, etc. But a lot of the comedy is just beneath the surface. Bartel is memorable as a very sensual oder member of the family who ends up taking his sexy, teenaged niece on a year long "missionary trip" to Africa.&lt;br /&gt;&lt;br /&gt;Hilarious fun.</t>
+  </si>
+  <si>
+    <t>Thought provoking, humbling depiction of the human tragedies of war. A small, but altruistic view of one family's interactions with the enemy during the civil war in Kentucky. This movie lessens the "glamor" of war; showing it's effect on not only the soldier but the entire family unit.&lt;br /&gt;&lt;br /&gt;A lot of today's movies show war as an opportunity to highlight the "hero's" and other glamorous features of war, but very little attempts to show the true effect war actually takes on a community. This movie attempts this through a retelling of a person's memory of those days. This movie is stated to be loose translation of an actual events, when in reality, this movie is probably a factual reality of hundreds, perhaps thousands of "actual events" during the civil war. I highly recommend those interested in our civil war to watch this movie.</t>
+  </si>
+  <si>
+    <t>Or anyone else have noticed the fact that first bunch of episodes are inspired too much by 90's flicks?&lt;br /&gt;&lt;br /&gt;I mean seriously wife who is trying get someone else to murder his rich husband so she can claim his assets. Med students who are temporarily stopping their hearts to reach memories that are lost; Flatliners. Bunch of college bodies getting together again to reminisce on the old days but are not fully comfortable because they did something in the past, Very Bad Things? Groundhog day is one of my all time favorite movies. Sadly enough the writing staff behind his turd is bunch of lazy bastards who can not come up with their original scripts.&lt;br /&gt;&lt;br /&gt;Noble idea totally fubarred in it's execution.</t>
+  </si>
+  <si>
+    <t>elvira mistress of the dark is one of my fav movies, it has every thing you would want in a film, like great one liners, sexy star and a Outrageous story! if you have not seen it, you are missing out on one of the greatest films made. i can't wait till her new movie comes out!</t>
+  </si>
+  <si>
+    <t>I saw this movie on the Hallmark Channel and thought it was wonderful, especially since it was based on a true man. Pierce Brosnan was very good as the loner English man who took on the persona of the half breed Grey Owl. The photography was beautiful.&lt;br /&gt;&lt;br /&gt;This movie made me do more research into this character Archie Belaney known simple as Grey Owl. I want to read as much as I can about him. At the time I did not know Richard Attenborough had directed it. But I am not surprised. I like all his movies whether he is acting or directing. I gave it the highest rating. However, I would have liked to have seen more in the movie about WHY he took on this persona as it only showed the two aunts who raised him and his room in their house.&lt;br /&gt;&lt;br /&gt;You can't go wrong with this movie if you are like me and enjoy a beautiful story without hearing foul language and contrived special effects every few minutes.</t>
+  </si>
+  <si>
+    <t>Despite having an absolutely horrid script (more about that later), this film is still vaguely watchable just because it stars two excellent actors, Barbara Stanwyck and Henry Fonda. Aside from one or two REAL stinkers, I'd probably watch just about anything with them in the film, as I am a huge fan of Hollywood's golden age of the 1930s and 40s. However, no matter how much I love their films, I just can't recommend this film.&lt;br /&gt;&lt;br /&gt;The movie begins with Fonda and Stanwyck on vacation at some ski resort. The two haven't yet met, but the film begins loudly and obnoxiously with a scene in which Fonda horribly yodels while skiing. It was done so unsubtly and made my teeth grind but I stuck it out--especially when Fonda fell into a snow bank and this stopped the yodeling!! In hindsight, perhaps I should have just turned it off then! Fonda is knocked out in the fall and Barbara goes for help. Back at the ski lodge, he seems okay but fortunately she is ALSO a doctor and has him x-rayed and nurses him back to health. He, in turn, becomes infatuated with her and proposes to her. Despite hardly knowing each other, they marry and so far the film seems like a sweet but very slight romantic comedy.&lt;br /&gt;&lt;br /&gt;Once home, however, all isn't rosy as she jumps right back into her job as a family doctor and he begins exhibiting signs that he is a controlling and potentially dangerous man due to his jealousy. The film plays it all for laughs, but frankly Fonda's behaviors were really creepy--spying on her and her male patients, attacking or threatening ANY man she treats, tripping a patient who already has a back injury and stomping into a surprise party and insisting that everyone there (men and women) are out to steal away his wife. He comes off as a combination of a sociopath and paranoid schizophrenic, but it's all supposed to be for laughs. Considering that he seems like a dangerous nut, you would think that Stanwyck would file for an annulment along with a restraining order! But, oddly, she gets mad but just can't stay mad at Fonda because he's so........? I can't think of the right word--'creepy' is all that comes to mind!!! Later, out of the blue, multi-millionaire Fonda gets a job working the counter at a department store. Then, through magical thinking, he and Babs seem to assume his hostility and violent jealousy is all a thing of the past--so a job apparently cures anger and suspicions. When this job falls through, the film ends with Fonda buying his own hospital, giving Barbara a job there and they live happily ever after. They don't go any further with the story, but I assume based on Fonda's character that he then spent most of his time as hospital administrator beating up all the male patients.&lt;br /&gt;&lt;br /&gt;The first portion at the ski lodge and the next did NOT fit well together, nor did the final "Horatio Alger" inspired section where the rich boy made good in the business world. They were like three separate plots but despite this, the most serious problem with the film was its seeming to excuse away domestic violence and delusional jealousy! What a creepy little film! Thank goodness neither Fonda nor Stanwyck are known for this yechy film but for all their other lovely films.</t>
+  </si>
+  <si>
+    <t>I find the critique of many IMDb users a little harsh and in many cases find that they crit the movie from a very professional viewpoint and not that of the guy on the street that wants to sit and watch something just to GET AWAY from it all.&lt;br /&gt;&lt;br /&gt;In this case however I have to say it was BAD. I am a SciFi junkie and there was NOTHING in this movie that grabbed me for even one second.&lt;br /&gt;&lt;br /&gt;There was no proper storyline. I may be an idiot but I still do not know where the GOVERNMENT was that was so worried about these pieces.&lt;br /&gt;&lt;br /&gt;The pathetic attempt by the main character to put together these 3 pieces is scary. Half the time the two pieces were already in place and he simply had to add the third. A 3 year old kid would have been able to put them together.&lt;br /&gt;&lt;br /&gt;This movie was BAD.&lt;br /&gt;&lt;br /&gt;Dominic</t>
+  </si>
+  <si>
+    <t>I was debating between this movie and 2012 but chose Inglourious Basterds due to it's amazingly high IMDb rating. I must say now, what a disappointment. I expected a certain amount of gratuitous violence, but I also expected a lot of witty dialog. I got a huge dosage of the former, but not nearly enough of the latter. I felt shortchanged. The ratio between violence to plot is very important and I think this movie gets it totally wrong. And the plot? It's that believable or really all that entertaining either. Save your time and money. I can't believe what this rating says for the gory and violent tastes of the modern masses.</t>
+  </si>
+  <si>
+    <t>Bend it like Beckham is packed with intriguing scenes yet has an overall predictable stroy line. It is about a girl called Jess who is trying to achieve her life long dream to become a famous soccer player and finally gets the chance when offered a position on a local team. there are so many boundaries and limits that she faces which hold her back yet she is still determined and strives. i would recommend it for anyone who likes a nice light movie and wants to get inspired by what people can achieve. The song choices are really good, 'hush my child, just move on up...to your destination and you make boundaries and complications.' Anyway hope that was at help to your needs in a review. Bend it like Beckham great flick</t>
+  </si>
+  <si>
+    <t>Directed by Diane Keaton and adapted from a book by Franz Lidz. A young mother Selma Lidz(Andie MacDowell)is battling a very serious illness and her self proclaimed inventor husband Sid(John Tururro)is a little lacking in the emotions department. Unhappy with the new home situation, their sensitive son Steven(Nathan Watt)decides he wants to stay with his two eccentric uncles Danny(Michael Richards)and Melvin(Lou Cutell)until his mom is well. Steven seems to be happier and even takes interest in his strange uncle's living habits; he even decides he wants to change his name to Franz. Set in the early 60's, this drama is a bit comedic...change that to zany. Not being a MacDowell fan, UNSTRUNG HEROES assures my attitude; albeit I enjoyed the film and it is not a total waste.</t>
+  </si>
+  <si>
+    <t>Perhaps the most gripping and intelligent of crooked cop movies is Otto Preminger's 'Where the Sidewalks Ends,' from a really excellent script by Ben Hecht based on the novel 'Night Cry' by Frank Rosenberg...&lt;br /&gt;&lt;br /&gt;Dana Andrews is the honest, tough New York policeman, always in trouble with his superiors because he likes his own strong-arm methods as much as he detests crooks... When he hit someone, his knuckles hurt... And the man he wants to hit is a smooth villain (Gary Merrill) who points up the title. 'Why are you always trying to push me in the gutter?' he asks Andrews. 'I have as much right on the sidewalk as you.'&lt;br /&gt;&lt;br /&gt;Dana Andrew's obsession and neurosis are implanted in his hidden, painful discovery that he is the son of a thief... His deep hatred of criminals led him to use their own illegal methods to destroy them, and the pursuit of justice became spoiled in private vendetta...&lt;br /&gt;&lt;br /&gt;By a twist of irony unique to the film itself, Dana Andrews and Gene Tierney of 'Laura' are united once more, and Andrews now seems to be playing the same detective a few years later, but no longer the romantic, beaten down by his job, by the cheap crooks... This time, he goes too far, and accidentally kills a suspect... The killing is accidental, the victim worthless, yet it is a crime that he knows can break him or send him to jail...&lt;br /&gt;&lt;br /&gt;Using his knowledge of police procedure, he covers up his part in the crime, plants false clues, and tries to implicate a gang leader, but cannot avoid investigating the case himself... The double tension of following the larger case through to its conclusion without implicating himself in the murder, is beautifully maintained and the final solution is both logical, satisfying, and in no way a compromise...&lt;br /&gt;&lt;br /&gt;The film is one of the best detective films of the 50's, with curious moral values, also one of Preminger's best... &lt;br /&gt;&lt;br /&gt;Preminger uses a powerful storytelling technique, projecting pretentious camera angles and peculiar touches of the bizarre in order to externalize his suspense in realism...</t>
+  </si>
+  <si>
+    <t>In sum, overlong and filled with more subplots than swiss cheese has holes! The director and co-writer says he wanted to mix genres - in this case drama and comedy. Well, at least here, these two mix like vinegar and oil. To boot, the comedy is not very funny and juvenile. Additionally, the film is not really realistic. Liberties are taken regarding the legal system in committing French Citizens against their will and the apparent ease of absconding with drugs in French Hospitals. I watched this film on my big screen TV at home and found myself shouting at the film to move on. Eventually toward the end I fast forwarded the final long speech one of the main characters makes to his ex-lover's son. By that time I was worn out by the preposterous confused plot that deals with a dead lover, marriage of convenience and a nutty ex-lover. At times the plot diverts to the families of the two main characters and then reverts back to one of them - either Ismael or primarily Nora. To the detriment of the audience, viewpoints keep changing from Nora and Ismael, her ex-lover confined against his will in a psychiatric hospital. There probably are two potentially interesting films here neither of which are well developed. The epilogue does not really wrap up many of the sub-plots and seems to want the viewer to believe Nora somehow will find happiness although given her circumstances in real life the chances are equivalent to a snow ball's chance in hell. The actors do their best and are appealing, but this is not enough to overcome all the glaring faults of poor writing, editing and lack of focus.</t>
+  </si>
+  <si>
+    <t>Incomprehensibly dreadful mishmash of the probably most notorious of all Roman emperors who went insane, leaving infamous party orgies and ruthless killings in his path... I know there are several versions of this, and this is based on the 102 min' one that I watched - but I can't fathom how that possibly can make any difference to lift the rest of this movie out of the muck!&lt;br /&gt;&lt;br /&gt;I'd heard for long about the alleged "shocking" content of sex/nudity (which honestly there isn't much of here at all - and boring when there is) and blood, but beware - it's the technical production amateurishness that well and truly shocks here: Everything looks plain and simply like a junior film school flunk project! Camera-work is hopelessly inept, full of strange zooms, failed framing and confusing pans (to and from what mostly looks like a huge theater stage!) complete with a grainy, cheapish photo quality. Lighting and color schemes are terrible and uneven - is it day or night? Are they in- or outside? Have they changed scenes? Who is, or is meant to be in the shot? Editing is the final sin here, making a confusing mess of everything with randomly jumpy cutaways, continuity flaws and random transitions that destroy any chance of momentum, story progression - and involvement. There is potentially interesting dialog and an equally interesting true historical story... but these faults distract so much it's tragic.&lt;br /&gt;&lt;br /&gt;A story with SO many possibilities to be great is just one gargantuan, burnt (and Fellini-like) turkey that's only good for a few gobble-laughs and Peter O'Toole, who makes a most memorable Tiberius. Oh yes, which brings us to the big-name actors. I'd like to line them all up one by one and just ask: Who did you get free access to bonk in the orgies to be a part of this? There, I've wasted enough lines on one of the truly worst films of all time - period!&lt;br /&gt;&lt;br /&gt;1 out of 10 from Ozjeppe</t>
+  </si>
+  <si>
+    <t>Did anyone edit this film? Or was it only the DVD release that had huge thirty second gaps between scenes? It's OK though, I fell asleep watching it the first time. Then I fell asleep the second time and the third time. The plot is actually not the worst I've seen, but it's close. The acting is not the worst I've seen either...but it's close. The production .... well, I can honestly say that it was the worst I had ever seen in my life! Not trying to be spiteful, but Unhinged could have used some more production.&lt;br /&gt;&lt;br /&gt;Please don't think I'm a hater of horror films, or even that I didn't enjoy this film. I just felt I was laughing at the film much more than I felt I was laughing along with it. The gruesome moments were not too poorly done, but could have been done better even with a shoestring budget.&lt;br /&gt;&lt;br /&gt;Characters seemed awkwardly developed, or ignored all together, twist ending was pretty bad, and the exposition took forever without exposing much.&lt;br /&gt;&lt;br /&gt;I'd recommend avoiding this movie.&lt;br /&gt;&lt;br /&gt;1/10</t>
+  </si>
+  <si>
+    <t>Riding high on the success of "Rebel Without a Cause", came a tidal wave of 'teen' movies. Arguably this is one of the best. A very young McArthur excels here as the not really too troubled teen. The story concentrates more on perceptions of delinquency, than any traumatic occurrence. The supporting cast is memorable, Frankenheimer directs like an old pro. Just a story of a young man that finds others take his actions much too seriously.</t>
+  </si>
+  <si>
+    <t>Most of the comments on this movie are positive so I thought I would try and redress the balance. I came out of this movie wondering what was going on. I now know and still consider it to be a poor movie. I intially discounted a dream sequence as that seemed too obvious. I was glad that I had a free ticket to the movie or I would have asked for my money back. Movie reviewers and critics love this movie, which only confirms to me that most of them would rather sound intelligent than review how an audience may enjoy a film. The 8+ rating this movie has is so misleading. In 20 years time this film will not compare to true greats such as The Godfather. The film does have fine performances from both the leads but that isn't enough to save the film. (nor are the lesbian scenes!)</t>
+  </si>
+  <si>
+    <t>Pepe le Moko, played by Charles Boyer, is some sort of international criminal mastermind wanted in countries throughout Europe, and to stay free he holes himself up in the Casbah, a mysterious part of Algiers where even the police are reluctant to go, until a senior officer is sent from Paris to capture le Moko once and for all. For le Moko, although the Casbah allows him to remain out of police custody, it also becomes a sort of prison at the same time - a place he can't leave, because the moment he does, he knows he'll be arrested.&lt;br /&gt;&lt;br /&gt;Boyer's performance was good, and I can understand why he was nominated for an Oscar. He captures the essence of such a character - a perfect combination of very dangerous and yet very classy at the same time. The movie itself, unfortunately, was quite a letdown. A number of parts of the story seemed inconsistent, of which I'll mention two. First was the idea that the police wouldn't enter the Casbah. That was stated pretty clearly at the beginning of the film by the local commander, and yet repeated references in the movie suggest that in fact the police did enter the Casbah fairly regularly. So, neither the suggestion by Commissioner Janvier that the police wouldn't enter, nor the statement by Inspector Slimane (also a decent performance by Joseph Calleia) that they could get into the Casbah but not out seemed to make much sense. I also found it difficult to believe that le Moko - hardened criminal mastermind that he was - could be so quickly swept off his feet by Gaby (Hedy Lamarr) to the point where he entertains the local populace by singing love songs and then leaves the Casbah to find her, essentially giving himself up. I understand the irony of the final few scenes, of course, as Pepe leaves the freedom of his prison (the Casbah) only to find real freedom in his capture (because he's shot and killed by the police.) I just found it impossible to believe that someone like le Moko would fall into such a trap.&lt;br /&gt;&lt;br /&gt;This is worth watching for Boyer, and to a lesser extent Calleia, but the story is disappointing and inconsistent. 3/10</t>
+  </si>
+  <si>
+    <t>Man with the Screaming Brain certainly isn't a perfect movie, but I'm pretty sure it was never meant to be anything more than a star vehicle for Bruce Campbell, meaning it works as kind of a summary of his entire career: slapstick, sarcasm, cheese, action, and happy endings. Campbell is, as a writer, uneven--there are lots of things in the story that don't make a great deal of sense (why does the robot suddenly have breasts merely because a female brain has been implanted into it?), and some of the scenes feel like retreads of other, better incarnations (the scene in the restaurant, where Yegor and William battle for control of William's body, is straight out of Evil Dead II). There are, however, lots of little touches and non-sequiturs that feel rather brilliant, such as when William is in the height of his panic and screams at a statue, "What are you looking at?!" The movie looks like a Sci-Fi Channel original, probably because it was. The acting is actually pretty good. I particularly enjoyed Tamara Gorski as Tatoya; she was ruthless and cunning, yes, but seemed to have a tragic air about her in certain moments that the story never explored. Ted Raimi handled the standard "bumbling assistant" role admirably enough, and Bruce is funny as the arrogant, sardonic, condescending American jerk. (Now that he's writing his own films, you'd think he'd give himself a role that he hasn't been typecast in already.) Man with the Screaming Brain is a bizarre, nonsensical B-movie that ought to be enjoyable for anybody who can avoid taking a cinematic experience too seriously.</t>
+  </si>
+  <si>
+    <t>You should never ever even consider to watch this movie! It is absolutely awful! This isn't an overstatement!! It is so unbelievable and exaggerated, it gets boring. It is just a movie where they have taken stories and plots from several movies and put it together in one. They writer hasn't been able to pull it off in a good way.&lt;br /&gt;&lt;br /&gt;If you'd like to see pretty girls in bikinis and no brain this might be the movie for you, but still, you should plug your ears and just watch. It's not worth listening:p There are so many great movies out there, and if I could choose one, this would be the last movie I would pick. But all in all, it's your choice!!! &lt;br /&gt;&lt;br /&gt;Enjoy!</t>
+  </si>
+  <si>
+    <t>Tell the truth Iâ€™m a bit stun to see all these positive review by so many people, which is also the main reason why I actually decide to see this movie. And after having seen it, I was really a disappointed, and this comes from the guy that loves this genre of movie.&lt;br /&gt;&lt;br /&gt;Iâ€™m surprise at this movie all completely â€“ it is like a kidâ€™s movie with nudity for absolutely no reason and it all involve little children cursing and swearing. Iâ€™m not at all righteous but this has really gone too far in my account.&lt;br /&gt;&lt;br /&gt;Synopsis: The story about two guys got send to the big brother program for their reckless behavior. There they met up with one kids with boobs obsession and the other is a medieval freak.&lt;br /&gt;&lt;br /&gt;Just the name it self is not really connected with the story at all. They are not being a role model and or do anything but to serve their time for what they have done. The story is very predictable (though expected) and the humor is lame. And havenâ€™t we already seen the same characters (play by Mc Lovinâ€™) in so many other movies (like Sasquatch Gang?). I think I laugh thrice and almost fell a sleep.&lt;br /&gt;&lt;br /&gt;Well the casting was alright after all he is the one that produce the screenplay. And the acting is so-so as expected when youâ€™re watching this type of movie. And the direction, what do one expect? This is the same guy who brought us Wet Hot American Summer, and that movie also sucks. But somehow he always managed to bring in some star to attract his horrendous movie.&lt;br /&gt;&lt;br /&gt;Anyway I felt not total riff off but a completely waste of time. Only the naked scenes seem to be the best part in the movie. Canâ€™t really see any point why I should recommend this to anyone.&lt;br /&gt;&lt;br /&gt;Pros: Elizabeth Bank? Two topless scenes.&lt;br /&gt;&lt;br /&gt;Cons: Not funny, dreadful story, nudity and kids do not mix together.&lt;br /&gt;&lt;br /&gt;Rating: 3.5/10 (Grade: F)</t>
+  </si>
+  <si>
+    <t>This film held my interest enough to watch it several times. The plot has holes, but the lead performers make it work.&lt;br /&gt;&lt;br /&gt;Catherine Mary Stewart (Julia Kerbridge), does a great job as a woman of 37 who has sacrificed everything else to become a physician. She worked years to earn the money to go to medical school. She is performing brilliantly in her residency and is just about to take her board exam and realize her dream.&lt;br /&gt;&lt;br /&gt;Meanwhile, Julia's sister and brother-in-law are murdered and as the nearest living relative she is compelled to take in her niece Amanda (Arlen Aguayo-Stewart) to avoid having her become a ward of the state. Amanda is about 7 years old from her appearance. Amanda is so traumatized from her parent's murder that she has become mute. Needless to say, Julia's 16-hour days get longer caring for Amanda.&lt;br /&gt;&lt;br /&gt;Rob Lowe plays Kevin Finney, a charming neighbor man in their apartment building who works his way into the lives of Julia and Amanda. He is always there with a trick or a joke to help Amanda deal with her distress. Amanda really starts to warm up to Kevin as the film progresses, perhaps more than to her aunt. Julia starts to rely on Kevin to take some of the load of caring for Amanda as she attempts to handle her case load and prepare for her board examination. Kevin is always there whenever some crisis erupts for Julia.&lt;br /&gt;&lt;br /&gt;The chemistry between Rob and Catherine Mary was great. You keep watching to see them get together before the end of the film. The chemistry between Rob and Arlen was good as well. Arlen managed to convey quite a lot without the benefit of words. The plot had Julia and Amanda gradually warming up to each other. You can see them working out a relationship as the film progresses.&lt;br /&gt;&lt;br /&gt;We discover that Julia's sister and brother-in-law (the Meyers) were involved in industrial espionage. They stole an extremely valuable prototype microchip from their employer. They had three associates who intended to share the proceeds of the theft. Julia discovers that the Meyers were planning to skip the country under assumed identities. The plot is unclear whether the Meyers intended to double cross their associates or were themselves double crossed.&lt;br /&gt;&lt;br /&gt;In any case the Meyers are murdered in their home by 2 of their former associates. The killers make no attempt to extract the location of the microchip from the Meyers before killing them. The killers search the home and fail to find their prize. They leave a living witness to their crime, Amanda. The killers then spend the remainder of the film making clumsy attempts to extract the microchip from Julia and Amanda who have no idea where the prize is located. Eventually, the killers kidnap Amanda in hopes she knows something about the microchip's location.&lt;br /&gt;&lt;br /&gt;Eventually Julia discovers the truth about Kevin. He is an investigator hired to recover the stolen microchip. After some rough moments in the relationship they manage to rescue Amanda and dispatch the bad guys. The predictable ending has the three forming a family and moving happily into a future together.&lt;br /&gt;&lt;br /&gt;What struck me about the plot were major holes. Kevin moves into the same apartment building as Julia and Amanda the day after the murder of the Meyers. How does he know that the microchip is not already in the hands of the killers? The killers blithely leave fingerprints at the murder scene, with no concern for concealing their identity. The killer that pretends to be a psychiatrist is revealed to Amanda by the remnants of red paint from the murder scene on his shoe soles. He was not shown in the murder scene at the start of the film. There are other weaknesses along these lines too numerous to mention.&lt;br /&gt;&lt;br /&gt;The film could have been a lot better if the script had been refined more before filming. Filling in the plot holes would have added little expense and greatly improved the effort.</t>
+  </si>
+  <si>
+    <t>Like the previous poster, I am from northern Vermont, and I was inclined to like this film. However, not since "Red Zone Cuba" have I seen such a confusing plot. The things the people to bootleg make no sense. Two of the gang paddle across the border send a second party across in a car. Uhm, why? Then they meet two others, and drive up at night in to the bad guy's hideout in a luxury Packard. --Wouldn't just two people in a flatbed truck make more sense? Then, parked outside the garage that holds the targeted hooch, the four fall asleep! When they waken in the morning and and start hauling the whiskey out, of course they're spotted and shot at, losing some of their precious cargo in the process. Then two of the smugglers put the whiskey in a boat and float it over the border. Again, why? I am told by someone whose great uncle really did smuggle in the area, all one needed was to drive a vehicle that could outrun than the U.S. Canada Border Patrol, which back then had a fraction of the resources it has now. &lt;br /&gt;&lt;br /&gt;And don't get me started on the last half hour, which made no sense whatsoever.&lt;br /&gt;&lt;br /&gt;The only good thing I can say about the film is that Kris Kristopherson has actually grown some charisma with the years.</t>
+  </si>
+  <si>
+    <t>MAY CONTAIN SPOILERS. This movie was the worst movie ever. I couldn't even watch it all it was so bad. This film is actually worse than scarecrow slayer which is saying a whole lot. This was worse than terror toons which at least terror toons was funny at times. Not even the gore in the film was good. The shootings were fake and the acting was worse. Please do yourself a favor and skip this one. If you see it at the rental store then run the other way. There is nothing good about this film at all. If you want to see a good scarecrow movie then watch Night of the scarecrow or pumpkin head. If you want to see an OK new cheesy movie then watch Scarecrow. I rate this movie a 0.2 out of 10. That's how horrible this film really is. THE WORST MOVIE EVER.</t>
+  </si>
+  <si>
+    <t>Watched this last night and was bowled over by the heartfelt story line, the excellent character development, and the good karmic vibe emanating from the acting and movie as a whole.&lt;br /&gt;&lt;br /&gt;Without giving away too much of the plot, it begins with an ordinary joe who commutes to his office job every day who becomes inspired to take dance lessons. Along the way the protagonist and the assorted characters he meets in his quest to be smooth on the dance floor learn lessons about others and about themselves. &lt;br /&gt;&lt;br /&gt;The story has a prologue about what dancing in Japan symbolizes sociologically, so it isn't exactly as simple to learn to dance in Japan as it is here in the U.S. &lt;br /&gt;&lt;br /&gt;The film is lighthearted; you'll laugh out loud at some of the sight gags. Yet it is also dignified in a way hard to describe. All of the film's characters are taken seriously, as they are, and none are diminished because of their "imperfections."&lt;br /&gt;&lt;br /&gt;I've been thinking about taking social dance classes with some friends. It just so happened a friend lent me the video on learning to dance. Is this synchronous or what? I think so because now I'm really geeked to give it a try. &lt;br /&gt;&lt;br /&gt;Watch this wonderful family film (small children might not get it, but teens certainly would) and smile at the genuine caring you see shown in it time and again.&lt;br /&gt;&lt;br /&gt;Why they would make a remake of Shall We Dance is a mystery, as it is perfect as-is.</t>
+  </si>
+  <si>
+    <t>Recap: Something mysteriously dense that transmits radio signals is discovered in the ice of Antarctica. The mysterious block is dug out and brought to a research station on Antarctica. Julian Rome, a former SETI-worker, is brought in to decipher the message. Problem is that one of the researchers is a old girlfriend of his, and the situation quickly turns awkward, especially since the other female researchers practically throw themselves at him. And the block of ice with the thing inside is melting unnaturally quickly. Soon the object is in the open. The mystery continues though as the object generates a huge amount of electricity. It is decided to open the object, but just before that is done, Julian decodes the signal. "Do not open". But too late, and the object explodes as it is finally breached, and two things unleashed on earth. The first is an alien, that had been dormant in the object, and the other is a virus that instantly kills the research staff. And Washington, that is suspiciously updated on this historic event, decides that those things can not be unleashed upon the earth. So a Russian nuclear submarine, carrying nuclear weapons is sent to Antarctica.&lt;br /&gt;&lt;br /&gt;Comments: The movie holds a few surprises. One is Carl Lewis who surprisingly puts in a good acting performance, and the other is that the special effects that are beautiful, well worked through and a lot better than expected. Unfortunately the story holds a lot of surprises of its own, and this time not in a good way. Actually it is so full of plot holes that sometimes the movies seem to consist of almost randomly connected scenes. It is never really explained why Washington know so much, why Washington is able to command Russian submarines, why the object is in the Antarctic and has woken up now. It is really puzzling that the alien pod is transmitting in understandable English. Some might want to explain this with that the alien had been to Earth before and knew the language (and obviously chose English, why?). But then it is very confusing why the nice aliens that apparently want to save the Earth from the virus, send their "Do not open" message encoded! And finally the end is as open as an end can be.&lt;br /&gt;&lt;br /&gt;The movie is a little entertaining but too much energy (from me) must be diverted to fill in the voids in the plot. Therefore the total impression of the movie is not too good.&lt;br /&gt;&lt;br /&gt;3/10</t>
+  </si>
+  <si>
+    <t>This movie features Charlie Spradling dancing in a strip club. Beyond that, it features a truly bad script with dull, unrealistic dialogue. That it got as many positive votes suggests some people may be joking.</t>
+  </si>
+  <si>
+    <t>Had I checked IMDb BEFORE renting this DVD from Netflix, I'd have a couple of hours of my life back. I'm frankly suspicious when I see that a film's director also wrote it. In this case, according to the credits, the same guy was "writter and director" - unfortunately, an indication of the overall quality of this production. There were a few interesting moments (e.g., Judy Tenuta's scene reminded of her early comedy routines touting Judy-ism) which led me to rate this two stars rather than one. Those moments, however, were few and far between ... and I almost did not get to see them because the opening sequence was nearly incomprehensible to me, not to mention reprehensible in its violence. I admit I went back to watch that part again to see if I had missed something that would help me figure it out once I'd seen the whole thing. Nope, though I at least recognized who the characters were who would turn out to be important later. The "spinning camera" technique was overused and essentially pointless. I found myself talking to the TV screen: "What?!?" or "For goodness sake, get ON with it!" Not recommended.</t>
+  </si>
+  <si>
+    <t>The endless bounds of our inhumanity to our own kind never fails to stun me. This truly astonishing story of a horrifically abused and largely unheard-of population is compelling, well-documented and enraging. As an American, I am constantly humiliated by my country's behaviour and this is just another in our long catalogue of international debasement. We suck. This is probably the first John Pilger documentary I've seen, but it immediately made me want to see what else he's done. My only complaint, and the reason I gave this film only 8 out of 10, is that Pilger shows us this travesty and the appalling collaboration of the US and UK governments, demands that we viewers/citizens are complicit in our own inaction...but makes no suggestion of how to help. I don't know about Britain, but America's made it nearly impossible for the citizenry to take part in their government's doings. A gesture in the right direction might help these islanders' cause.</t>
+  </si>
+  <si>
+    <t>This flick is so bad its beyond belief.Even for an independent low budget film...it just, well, sucks.I can't even believe even Troma would put out such crap.I have been a fan of some Troma flicks for years(Toxic Avenger,Squeeze Play,Rockabilly Vampire to name a few).But LLoyd, come on,this goes way beyond the boundaries of any taste.It features some of the worst acting imaginable.I think it would have been possible to find unemployed street people who could have been as good...oh,wait, that is what they did.I mean it,these characters have negative charisma.With any luck, the producer and director of this film will have a huge karmic debt because of this atrocity.As will the special effects people.But beyond the terrible acting and the horrid special effects,the dialogue is absolutely traumatic to the ears.The script is full of plot holes the size of Alaska, and there are severe continuity problems.The worst part however, is that it not entertaining in even the smallest way.And this is the most unforgivable sin in film making.But, don't take my word for it.Go out and waste four bucks renting it.Just don't say I didn't warn you.</t>
+  </si>
+  <si>
+    <t>This is a very memorable spaghetti western. It has a great storyline, interesting characters, and some very good acting, especially from Rosalba Neri. Her role as the evil villainess in this film is truly classic. She steals every scene she is in, and expresses so much with her face and eyes, even when she's not speaking. Her performance is very believable. She manages to be quite mesmerizing without being over the top (not that there's anything wrong with being over the top). Mark Damon is surprisingly good in this movie too.&lt;br /&gt;&lt;br /&gt;The music score is excellent, and the theme song is the kind that will be playing in your head constantly for days after seeing the movie, whether you want it to or not. There are a couple of parts that are very amusing. I especially like the part where Rosalba Neri undresses in front of the parrot. There's also lots of slick gun-play that's very well done.&lt;br /&gt;&lt;br /&gt;I would probably have given this movie 8 or 9 stars if it wasn't for two things. The first being a silly bar room brawl that occurs about 25 minutes into the film. This is one of the most ridiculous looking fights I have ever seen in a movie. It is very poorly choreographed, and looks more like a dance number from a bad musical than any kind of a real fight. One might be able to overlook this if it were a Terence Hill/Bud Spencer comedy, but this is a more serious western, and the brawl really needed to be more realistic. The other thing that annoyed me about this movie was Yuma's cowardly Mexican sidekick. I guess he was supposed to be comic relief or something, but the character was just plain stupid and unnecessary in a movie like this, and he wasn't at all funny. All I can say is where is Tuco when you need him? &lt;br /&gt;&lt;br /&gt;All that having been said, let me assure everyone reading this that Johnny Yuma is a classic spaghetti western despite the faults I have mentioned, and all fans of the genre need to see this movie.</t>
+  </si>
+  <si>
+    <t>The plot: Michael Linnett Connors has done everything in films but direct, and is looking for his 1st big chance. He discovers Molly in a play and at once knows she will be a big film star. He signs her to a contract with the stipulation that he must direct. The producer agrees and their big time careers are under way. What follows is a recreation of the silent film era and early sound movies with great emphasis on comedy. And, oh yes, there's romance, and a little sadness too. The performances by Don Ameche and Alice Fay are top notch. The music is a real plus too with some old familiar tunes heard. Lots of DVD extras as well in this restored version released in 2008. It must be emphasized that this movie is a story 1st, not just a tribute to silent films. Later years would bring similar films such as, Singin' in the Rain(1952) &amp; Dick Van Dyke-Carl Reiner's, The Comic(1969). What is special about this film, though, is recreating silent movies in 1939. We see portions of them as the cinema audience would in that bygone era(although some sound effects are included)in glorious b&amp;w, while the rest of the movie is in pristine color. One of the greatest in the silent era, Buster Keaton, who at this point was on an uphill climb, is used superbly in 2 silent film recreated scenes and he is on the top of his game! It is said that he had some input on his scenes as well. But the real reason to watch the movie, if your a motion picture history fan, is that beyond everything else, Hollywood Cavalcade is Mack Sennett's film legacy. It doesn't take a genius to realize this movie is a "positive" reworking of Mack Sennett's and Mabel Normand's life. The character Michael "Linnett" Connors is Mack Sennett, whose real name was Michael Sinnott. And Molly, of course is Mabel. Sennett had the pie throwings, the bathing beauties and Keystone Cops. He worked with Buster Keaton, Ben Turpin(cameo), Roscoe "Fatty" Arbuckle(body double) and fell in love with his leading lady. Not only all that, but Sennett was technical adviser for this film and appears in it as well. As most film viewers today prefer sound features, those who were associated with short subjects and silents are left out to pasture. As Mack Sennett fell into that category, it is fortunate that there is Hollywood Cavalcade! Sennett was of course very instrumental in the evolution of comedy in movies. His career started in 1908 as an actor, then writer, director &amp; producer. He semi retired in 1935 with about 500 films to his credit. He had worked with the best, such as Charlie Chaplin, Gloria Swanson, Bing Crosby, W.C. Fields, Keaton, Harry Langdon, Arbuckle, and even Roy Rogers(in Way Up Thar).As film comedy is an extremely difficult path to continue for an entire career, Mack played it wise &amp; did only selective work for the next 25 years. In 1931 he had receive an academy award in the short subject category, and another in 1937 for a lifetime of work. In the 1940's his presence was still felt, e.g. Here Come the Co-Eds(1945)where a recreation of the oyster soup scene used in Mack's Wandering Willies(1926)is done. In 1947, The Road to Hollywood, used some of Sennett's Crosby films. 2 years later brought some nostalgia with the film Down Memory Lane in which he participated. With his knack of always associating with the right people, a guest role with the eternally popular Lawrence Welk &amp; his radio show came about later in the year. 1950 brought a re-release of his greatest triumph, Tillie's Punctured Romance(1914) with sound. In 1952 he was honored on TV's, This Is Your Life, then his autobiography, The King of Comedy(1954), which is a great companion piece to Hollywood Cavalcade, was published. 1955 brought a more concrete association with Abbott &amp; Costello, as he had a cameo in A&amp;C Meet the Keystone Kops. Finally in 1957, another tribute with the compilation film, The Golden Age of Comedy. So when you watch Hollywood Cavalcade it is the legacy of a motion picture pioneer. In the film at the banquet scene the camera pans over the guests at a long table. As we get to the silver haired Mack, he alone turns his head to the camera as if to say, "here I am!". When he rises to give a speech a short while later, he is at his most subdued, underplaying the words given him as if to mentally convey, "I know my influence on comedy will never end, but will people forget Mack Sennett the individual. Maybe this movie will help."</t>
+  </si>
+  <si>
+    <t>It got to be a running joke around Bonanza about how fatal it was for any women to get involved with any Cartwright men. After all Ben Cartwright was three times a widower with a son by each marriage. And any woman who got involved with Adam, Hoss, and Little Joe were going to end up dying because we couldn't get rid of the formula of the widower and the three sons that started this classic TV western.&lt;br /&gt;&lt;br /&gt;Perhaps if Bonanza were being done today the writers would have had revolving women characters who came in and out of the lives of the Cartwrights. People have relationships, some go good, some not so good, it's just life. And we're less demanding of our heroes today so if a relationship with one of them goes south we don't have to kill the character off to keep the survivor's nobility intact. But that's if Bonanza were done today.&lt;br /&gt;&lt;br /&gt;But we were still expecting a lot from our western heroes and Bonanza though it took a while to take hold and a change of viewing time from NBC certainly helped, the secret of Bonanza's success was the noble patriarch Ben Cartwright and his stalwart sons. Ben Cartwright was THE ideal TV Dad in any genre you want to name. His whole life was spent in the hard work of building that immense Ponderosa spread for his three children. The kids were all different in personality, but all came together in a pinch.&lt;br /&gt;&lt;br /&gt;The Cartwrights became and still are an American institution. I daresay more people cared about this family than the Kennedys. Just the popularity that Bonanza has in syndication testifies to that. &lt;br /&gt;&lt;br /&gt;Pernell Roberts as oldest son Adam was written out of the show. Rumor has it he didn't care for the noble Cartwright characters which he felt bordered on sanctimonious. Perhaps if it were done now, he'd have liked it better in the way I describe.&lt;br /&gt;&lt;br /&gt;This was just the beginning for Michael Landon, how many people get three hit TV shows to their credit. Landon also has Highway to Heaven and Little House On the Prarie where he had creative control. Little Joe was the youngest, most hot headed, but the most romantic of the Cartwrights. &lt;br /&gt;&lt;br /&gt;When Roberts left. the show kept going with the two younger sons, but when big Dan Blocker left, the heart went out of Bonanza. Other characters had been added on by that time, David Canary, Tim Matheson, and Ben Cartwright adopted young Mitch Vogel. But big, loyal, but a little thick Hoss was easily the most lovable of the Cartwrights. His sudden demise after surgery left too big a hole in that family.&lt;br /&gt;&lt;br /&gt;So the Cartwrights of the Ponderosa have passed into history. I got a real taste of how America took the Cartwrights to heart when I visited the real Virginia City. It doesn't look anything like what you see in Bonanza. But near Lake Tahoe, just about where you see the Ponderosa on the map at the opening credits, is the Cartwright home, the set maintained and open as a tourist attraction. Like 21 Baker Street for Sherlock Holmes fans, the ranchhouse and the Cartwrights are real.&lt;br /&gt;&lt;br /&gt;And if they weren't real, they should have been.</t>
+  </si>
+  <si>
+    <t>Years ago, when DARLING LILI played on TV, it was always the pan and scan version, which I hated and decided to wait and see the film in its proper widescreen format. So when I saw an inexpensive DVD of this Julie Andrews/Blake Edwards opus, I decided to purchase and watch it once and for all.&lt;br /&gt;&lt;br /&gt;Boy, what a terrible film. It's so bad and on so many levels that I really do not know where to start in describing where and when it goes so horribly wrong. Looking at it now, it's obvious to any fans of movies that Blake Edwards created this star vehicle for his wife simply because so many other directors had struck gold with Andrews in musicals (MARY POPPINS, SOUND OF MUSIC, THOROUGHLY MODERN MILLIE, etc) but also because Andrews was snubbed from starring in projects made famous on stage by Julie herself (CAMELOT, MY FAIR LADY, etc) because Hollywood thought she wasn't sexy or glamorous enough. So Blake created this stillborn effort, to showcase his wife in a bizarre concoction of spy story/war movie/romance/slapstick comedy/musical. DARLING LILI suffers from multiple personalities, never knowing who or what it is. Some specific scenes are good or effective but as a whole, it just doesn't work at all to a point of it being very embarrassing.&lt;br /&gt;&lt;br /&gt;Mind you, the version on the DVD is the "director's cut", or in this case, "let's salvage whatever we can" from this notorious box office flop. In releasing the DVD, Edwards cut 19 scenes (19!!!!!!!!) from the original bloated theatrical version into this more streamlined and yet remarkably ineffective version. The film moves along with no idea of what it is. We are 25 minutes into it and we still don't know what's going on or why we're watching what's going. What kind of spy is Lili? How powerful is she? Was she ever responsible for someone's death? Instead we watch a thoroughly bored looking Rock Hudson trying to woo a thoroughly bored looking Julie Andrews. Things aren't helped much with the inexplicable reason why the two fall in love. Why does Julie fall for Hudson? Why him and not other men she got involved with? There should have been one of her ex hanging around, trying to win her back or trying to decipher her secret. This would have given us some much needed contrast to the muddled action. It would also have given us some impetuous to the sluggish proceedings. There's no catalyst in this story.&lt;br /&gt;&lt;br /&gt;One only has to look at the cut scenes to clearly see that Edwards and the writer just came up with ideas inspired by Andrews' (and Edwards') previous successes. The best (or worst) example is the scene when Andrews and Hudson follows a group of children who sing in the middle of a forest. Edwards channeling SOUND OF MUSIC. It's no wonder he removed it from the DVD. Back in 1970, that scene might have worked on a certain level but today, that moment reeks of desperation. There are other plot elements directly inspired by Andrews/Edwards other films. The endless scenes of dogfights is inspired by the much better MODERN MILLIE. The musical moment "I'll give you three guesses" was created just to make fun of Julie's MARY POPPINS persona, which is turned "raunchy" with Julie doing a striptease in the act. The ending, bird's eye view of Julie running towards Hudson's plane, is another "wink" at SOUND OF MUSIC.&lt;br /&gt;&lt;br /&gt;The whole thing is confusing. Julie plays a singer, born from a German father and British mother, who lives in England but sings her (English) songs in Paris. You never know exactly where the story takes place. Some moments are just badly edited. Like when Julie and her "uncle" are on horseback. They talk and talk and then Julie suddenly sprints off in mid-sentence. I'm like "what happened here?"&lt;br /&gt;&lt;br /&gt;The comedy bits are unfunny and cringe-worthy. Every scene with the French police are pathetic. Where's Peter Sellers when you really need him. The action is stupid beyond belief. When Julie and her "uncle" are on their way to Germany on that train, Hudson's squadron shoots rounds of bullets at the train, almost killing Lili in the process. Brilliant. What's also funny about that scene is the two leave on the train in the middle of the night but Hudson and his squadron reach the train even though they fly off the next morning. That's one slow moving train there. &lt;br /&gt;&lt;br /&gt;The musical moments. The beginning is the best part of the entire film (and the reason I gave this film 3 stars) but it's effect is diminished considerably because it's repeated at the end. Speaking of redundant, did we really need to see a can-can dance, Crepe Suzette stripping scene and Julie stripping too? The "Girl in no man's land" is OK even if it's bleeding obvious, but that moment just doesn't make any sense whatsoever because Lili sings it to a group of injured soldiers at a French hospital, making me wonder: how many soldiers there were injured indirectly by the result of her spying?&lt;br /&gt;&lt;br /&gt;The whole project is listless and without energy. The romance is 100% unbelievable. Rock Hudson is way too old and tired looking (check out the museum scene). Julie looks dazed, like she's on Valium. But what really kills this ill-conceived project is Julie playing a German spy. Edwards desperately wanted to dispel the Mary Poppins syndrome afflicting his wife and believed that playing a traitor was a good career decision. As much as I like Julie, she's no Greta Garbo, who pulled it off so beautifully in MATA HARI. Funny enough, even if Julie plays a German spy, she still comes across as cloying and cute.&lt;br /&gt;&lt;br /&gt;How bad is DARLING LILI? Even after 37 years since its release, Blake Edwards felt he still needed to work on it for its DVD release.</t>
+  </si>
+  <si>
+    <t>This series, made for TelevisiÃ³n EspaÃ±ola (TVE) is basically a series of chapters in the life of an ordinary family in 1968, primarily as seen through the eyes of the youngest son.&lt;br /&gt;&lt;br /&gt;Based on a background of historical events, such as the May 1968 student uprising in France, the decaying Franco regime, the war in Viet-Nam, the rise of imperialism, and others specifically related to Spanish life at that particular moment, one might regard this series as a simple compilation of characteristic foibles which make themselves so apparent in this kind of entertainment.&lt;br /&gt;&lt;br /&gt;Generally treated in a lightweight vein though not lacking in certain moments which might be called dramatic, the series would seem to be aimed at people of around fifty who can rember those times, as, it should be stated, anyone younger either chooses to ignore such happenings or is busily occupied in other things.&lt;br /&gt;&lt;br /&gt;The best thing that can be said of this series is Ana Duato's rÃ´le as mother of three children: she plays the part of the total housewife of the times really well, manifesting that peculiar Spanish penchant, especially noticeable among women, of letting all her thinking and her doings be carried forward by the impetus of her heart, without any resorting to the use of the brain. As we say in Spain, common sense is one of the least common senses. Imanol Arias offers very little, apart from not being his usual stereotyped hard policeman as in other television series. Indeed, as an actor, he should not be trusted in anything which is not a TV series. His resources are too limited; however, his part as father of the working-class household is not at all bad.&lt;br /&gt;&lt;br /&gt;Not really recommendable for other audiences, even Spanish-speakers in Latin America: the themes are all too parochially related to a specific spot in contemporary Spanish history, such that if the viewer was not living here at that time he will miss most of the references. It is even probable that certain situations which cause a few Spanish smiles would not mean anything to other viewers.</t>
+  </si>
+  <si>
+    <t>I want the 99 minutes of my life back that was wasted on this pathetic excuse for a movie. The acting was horrific! I used to be a fan of Cameron Diaz and Vincent D'Onofrio. I will never look at them the same again. Keanu Reeves and Dan Aykroyd were not a surprise. Everyone knows they never could act. Thankfully, only Dan attempted an accent. His accent was a disaster as expected. I think he was either confused about the location of the film or had never actually spoken to anyone from Minnesota. I hope this review helps anyone who is undecided about what to do with their precious time. The only reason I was able to sit through the whole movie was because I was stuck somewhere without anything better to watch or read.</t>
+  </si>
+  <si>
+    <t>One of my favorite movies which has been overlooked by too many movie goers, an observation which mystifies me. Not only directed by the acclaimed Ang Lee,it had many young actors who were to become major stars, e.g., Tobey Maguire (before Spiderman), Skeet Ulrich (before Jericho), Jonathan Rhys Meyers (before Tudors), James Caviezel, Simon Baker, Mark Ruffalo, Jeffrey Wright, Tom Wilkinson, and Jewel. All of the acting was superb and each of the actors mentioned gave memorable performances, especially Meyers who portrayed an evil villain who killed for the sake of killing.&lt;br /&gt;&lt;br /&gt;When the biographies and accomplishments of the director ( even when he won an academy award) and the actors are listed, this film is usually omitted from their past performances. I discovered the film on DVD by accident and it became one of my most often watched films. However, it is seldom every seen on cable. I look forward to reading what others suggest are the reasons this film is not well known.</t>
+  </si>
+  <si>
+    <t>It's nice to see a romantic comedy that does not have the prissy man lead, this has solid acting from both male leads and also from the female lead and although the story is a little long and a little clichÃ© you cant help but like it.&lt;br /&gt;&lt;br /&gt;I think the story was a little rushed at the end, but extending that would have made the story even longer. Superior to other romantic comedies such as 100 days with Mr arrogant, and possibly tied with my tutor friend.&lt;br /&gt;&lt;br /&gt;It would make an interesting introduction to Korean cinema, not as great as My sassy girl, but still good.</t>
+  </si>
+  <si>
+    <t>Of all the movies of the seventies, none captured to truest essence of the good versus evil battle as did the Sentinel. I mean, yes, there were movies like the Exorcist, and other ones; but none of them captured the human element of the protagonist like this one. If you have time, check this one out. You may not be able to get past the dated devices as such, but this is a story worth getting into.Then there are all the stars and soon-to-be stars. My absolute favorites were Eli Wallach, Sylvia Miles, and Burgess Meredith. Then there are the subtle clues that lead to what's going on too. Pay close attention. I had to watch it four times to catch on to all the smaller weird statements like 'black and white cat, black and white cake'. Plus, the books are really good as well. I'm just sorry that they're not going to turn the second book into a film. It's so scary that it would outdo this movie.</t>
+  </si>
+  <si>
+    <t>This is apparently the second remake of this film, having been filmed before in 1911 and 1918. And, in so many ways it reminds me of the later film, A YANK AT OXFORD. Both films concern a conceited blow-hard who arrives at one of the top schools in the world and both, ultimately, show the blow-hard slowly learning about teamwork and decency. In this film, William Haines is "Tom Brown" and his main rival, "Bob" is played by Frances X. Bushman. And, in a supporting role is Jack Pickford--always remembered as the brother of Mary. Of these three, Pickford comes off the best, as the sympathetic loser who becomes Tom's pal--he actually has a few decent scenes as well as a dramatic moment just before the Big Game! All the standard clichÃ©s are there and the movie, because it was done so many times before and since, offers few surprises. However, it is pleasant film and is enjoyable viewing.&lt;br /&gt;&lt;br /&gt;In my opinion, for a better silent college film, try Harold Lloyd's THE FRESHMAN--it's football scenes are frankly more exciting and Harold is far more likable and sympathetic than the annoying Tom Brown. THE FRESHMAN is probably the best college picture you can find from the era. Another reason why BROWN AT HARVARD is a lesser picture is that William Haines played essentially the same unlikable and bombastic character with the same plot again and again and again (such as in WESTPOINT and THE SMART SET, among others)--and if you've seen one of these films, you've seen them all. Well made, but certainly NOT original! And, because it is just a rehash of his other films, anyone giving the film a score of 10 is STRONGLY advised to see these other films.&lt;br /&gt;&lt;br /&gt;4/25/08==I just checked and saw this this small film was the highest rated film on IMDb from the 1920!! Talk about over-rated! There are dozens and dozens of better films--how this film got to be no.1 is anyone's guess.</t>
+  </si>
+  <si>
+    <t>This movie illustrates like no other the state of the Australian film industry and everything that's holding it back.&lt;br /&gt;&lt;br /&gt;Awesome talent, outstanding performances (particularly by Victoria Hill), but a let down in practically every other way.&lt;br /&gt;&lt;br /&gt;An "adaptation" of sorts, it brought nothing new to Macbeth (no, setting it in present-day Australia is not enough), and essentially, completely failed to justify its existence, apart from (let's face it, completely unnecessarily) paying homage to the original work. If there's one body of work that has been done (and done and done and done), it's Shakespeare's. So any adaptation, if it's not to be a self-indulgent and pointless exercise, needs to at least bring some new interpretation to the work.&lt;br /&gt;&lt;br /&gt;And that's what this Macbeth fails to do. As it was done, this film has no contemporary relevance whatsoever. It's the same piece that we have seen countless (too many!) times before. Except with guns and in different outfits.&lt;br /&gt;&lt;br /&gt;Apart from the fundamental blunder (no other way to put it) of keeping the original Shakespearian dialogue, one of the more cringeful moments of the movie is the prolonged and incredibly boring slow motion shoot out towards the end, during which I completely tuned out, even though I was looking at the screen. I never thought I had a short attention span, but there you go.&lt;br /&gt;&lt;br /&gt;I suppose the movie succeeds on its own, very limited terms. But as Australia continues to produce world-class acting talent, its movie-makers need to stop being proud of succeeding on limited terms, and actually set high enough standards to show that they respect for the kind of acting talent they work with.&lt;br /&gt;&lt;br /&gt;A shame. An absolute shame.</t>
+  </si>
+  <si>
+    <t>Owen loves his Mamma...only he'd love her better six feet under in this dark, laugh-out-loud comedy that both stars and is directed by Danny DeVito, with admirable assists from Billy Crystal and Anne Ramsey in the title role.&lt;br /&gt;&lt;br /&gt;"Throw Momma From The Train" is a terrific comedy, even if it isn't a great film. It's too shallow in parts, and the ending feels less organic than tacked on. But it's a gut-splitting ride most of the way, with Crystal and DeVito employing great screen chemistry while working their own separate comic takes on the essence of being a struggling writer (DeVito is avid but untalented; Crystal is blocked and bitter).&lt;br /&gt;&lt;br /&gt;Crystal's Professor Donner believes his ex-wife stole his book (the unfortunately titled "Hot Fire") and can't write more than the opening line of his next book, which doesn't come easy. He teaches a creative writing class of budding mediocrities, including a middle-aged woman who writes Tom Clancy-type fiction but doesn't know what that thing is the submarine captain speaks through; and an upholstery salesman who wants to write the story of his life. Mr. Pinsky is probably the funniest character for laughs-per-minutes-on-screen, an ascot-wearing weirdo who sees literature as an excuse to write his opus: "100 Girls I'd Like To Pork."&lt;br /&gt;&lt;br /&gt;Then there's DeVito's Owen Lift, who calls himself Professor Donner's "star pupil" even though the teacher won't read his work in class. Owen is a somewhat unusual character to star in a movie, a man-child in his late 30s who lives with his overbearing mother, Anne Ramsey, who calls him "lardass" and other endearing sentiments. In any other movie, we'd be asked to feel sorry for Owen, but "Throw Momma From The Train" piles life's cruelties onto this sad sack for laughs and expects us to go along. That's one big reason why this film probably loses a lot of people.&lt;br /&gt;&lt;br /&gt;For those of us who enjoy the humor of this character, even identifying with him, and take the rest of what we see here as a lark, it's not as big a stretch to go along with the bigger gambit this comedy takes, asking us to watch in amusement while Owen enlists Professor Donner's help in a plan to kill his mother. Actually, he first goes to Hawaii to kill Donner's hated ex, then tells the professor it's his turn to kill Mrs. Lift, "swapping murders" as seen in Hitchcock's "Strangers On A Train."&lt;br /&gt;&lt;br /&gt;As a director, DeVito not only complements his actors' performances with scene-setting that places the accent on dialogue, he makes some bold visual statements, throwing in bits of amusing unreality to keep the audience on its toes (and away from taking things too seriously.)&lt;br /&gt;&lt;br /&gt;Also helping matters is writer Stu Silver, who keeps the laughs coming with his quotable patter. "You got rats the size of Oldsmobiles here." "She's not a woman...She's the Terminator." "One little murder and I'm Jack the Ripper." Those are all Crystal's words, but some of the funniest lines, which work only in context but absolutely kill, are DeVito's and Ramsey's. Apparently Silver never wrote another screenplay after this, according to the IMDb, and that's a shame, because he had real talent for it.&lt;br /&gt;&lt;br /&gt;The best scene in this movie, when Crystal meets Ramsey, was actually used in its entirety as a theatrical 'coming attraction' presentation, the only time I've seen a movie promoted that way. Owen introduces the professor to his mother as 'Cousin Patty,' and when Momma says he doesn't have a Cousin Patty, panicky Owen loses it. 'You lied to me,' he yells out, slamming the professor's forehead with a pan.&lt;br /&gt;&lt;br /&gt;Of course, in reality the professor wouldn't groan out something witty from the floor, but 'Throw Momma From The Train' works effectively at such moments, when playing its Looney Tunes vibe for all its worth. DeVito hasn't disappeared from films, of course, but it's a mystery why he hasn't really followed up on the directorial promise of this movie. Maybe it's because, as 'Throw Momma From The Train's lack of mainstream success shows, his kind of vision isn't to everyone's tastes. That's too bad for those of us who can watch this over and over, and like it.</t>
+  </si>
+  <si>
+    <t>A Compelling Thriller!!, 10 December 2005 Author:littlehammer16787 from United States&lt;br /&gt;&lt;br /&gt;Just Cause&lt;br /&gt;&lt;br /&gt;Starring:Sean Connery,Laurence Fishburne, and Blair Underwood.&lt;br /&gt;&lt;br /&gt;A liberal,though good-hearted Harvard law professor Paul Armstrong is convoked to the Flordia Everglades by unjustly convicted black guy Bobby Earl.Confessing that sadistic,cold-hearted cops vilifyied and beat him to a pulp to get the confession of a gruesome murder of an eleven year old girl. As he digs further and further into the mysterious case he realizes that Bobby Earl is a victim of discrimination.That the black police detective Lt.Tanny Brown of the small community is corrupt and villainously mean. When the infamous,psychotic serial killer Blair Sullivan is introduced.He discovers that he knows the location of the murder weapon that butchered the little girl.When Armstrong finds that there are lucid coincidences of Sullivan's road trip through the small town and the letter he personally wrote. Bobby Earl gets a re-trial.Is unfettered from prison and eludes his horrific punishment. All seems swimmingly well until an unexpected phone call from serial killer Sullivan comes into focus.Armstrong discovers a lurid double killing which happens to be Sullivan's parents.Whom he immensely detests.Sullivan divulges to Armstrong the truth of Joanie Shriver's heinous murder and why he was brought here.It turns out that Bobby Earl is a psychopathic murderer and he really did rape and kill Joanie Shriver.He just merely struck a bargain with fiendish psycho Sullivan. To get loose so he could kill again for revenge.Upon Armstrong's beautiful wife and daughter.Now Sullivan is executed to his death. Armstrong and tough good guy Brown chase the malevolent villain to the Everglades in order to thwart him.When they arrive Armstrong learns that the psychotic sicko Bobby Earl plans to kill his wife and daughter for a former rape trial that inevitably made him endure agonizing pain and castration.But good,virtuous cop Brown emerges and thwarts the brutal baddie.Is stabbed and eaten by ruthless,man-eating alligators.Paul Armstrong,Tanny Brown,his wife,and daughter survive and live happily ever after. A good thriller that works.Delivers both mystery and subterfuge.How reluctant blacks are hazed by racist lawmen.Sentenced to unfair penalties.Even though sometimes the wrongfully convicted innocent, friendly black man may in truth be the vicious baddie. Sean Connery is great as the oblivious,holier than thou hero.Laurence Fishburne is watchably amazing as the mean,arrogant,but good guy cop. Underwood and Harris are over the top and invigorating as the malevolent psychos.Capeshaw is okay.Ruby Dee is great as the tenacious grandmother.The rest of the cast is wonderful as well.</t>
+  </si>
+  <si>
+    <t>Filmfour are going to have to do a lot better than this little snot of a film if they're going to get the right sort of reputation for themselves.&lt;br /&gt;&lt;br /&gt;This film is set in Glasgow (although only a couple of secondary characters have anything approaching a Scottish accent). The premise, about people who's lives are going nowhere, who all meet up in the same cafe in the early hours of the morning as they have night jobs, COULD have made for a really funny, insightful, quirky, cultish film. Instead we have a group of self-obsessed saddos and a plot which has been so done to bits I'm suprised it hasn't been banned. X and Y are friends. X is sleeping with Z. Y sleeps with Z as well. Oh you figure it out.&lt;br /&gt;&lt;br /&gt;A total waste of time. Painful dialogue - it sounded like something that a group of 16 year olds would have written for a GCSE drama project. The female character was completely superfluous - just written in as a token female in the hope that women would be cajoled into seeing it.&lt;br /&gt;&lt;br /&gt;If you're the sort of thicko lad who laughs at beer adverts and can usually be found wandering round in packs shouting on Saturday nights in nondescript town centres then you will love this film and find it "a right laff". Everyone else, run, don't walk away from this sorry little misfit.&lt;br /&gt;&lt;br /&gt;And one question, when the group left the "boring" seaside town (Saltcoats incidentally although they changed the name on the film), to go back to Glasgow, WHY did they do it via the Forton motorway services at LANCASTER which is in England?</t>
+  </si>
+  <si>
+    <t>Doctor Mordrid is one of those rare films that is completely under the radar, but is totally worthwhile. It really reminds me of the old serials from the 30s and 40s. Which is why I'd have loved to see follow-up movies... but judging by the rest of Full Moon's output there simply weren't enough tits to satisfy the typical audience. Unfortunately, thanks to a completely superfluous sacrifice scene there two too many for a family audience - which is unfortunate, because without em' this could have been a Harry Potter-style magicfest that kids would have eaten up. Both Jeffrey Combs and Yvette Nipar are great - I wasn't sure if Ms. Nipar hadn't wandered off an A-list picture onto this film, she was very believable. No, seriously! Anyway - it's a shame they didn't have the bucks to license Dr. Strange, because I think this could have been a total kiddie phenom.</t>
+  </si>
+  <si>
+    <t>A truly muddled incomprehensible mess. Most things in the film look more or less like 1987, but then there are futuristic things just thrown in, like the policeman's ray gun. And that car! The director seemed to be in love with colored lights. The only really notable performance was the girl who played Valerie, but since there was no cast listing, I don't know which actress that was. This one is worth missing. Grade: F</t>
+  </si>
+  <si>
+    <t>It doesn't happen very often, but occasionally one man can make a difference -- a big difference.&lt;br /&gt;&lt;br /&gt;George Crile's 2003 best seller, CHARLIE WILSON'S WAR, is a fascinating and eye-opening account of the most unlikely "difference maker" imaginable. A relatively obscure Congressman from the Second District of Texas, "Good Time Charlie" was known more for his libertine lifestyle than his libertarian legislation. Likable and licentious (even for a politician), Charlie Wilson served his constituency well since the good folks of Lufkin only really wanted two things, their guns and to be left alone. It's Easy Street replete with his bevy of beltway beauties known, appropriately enough, as Charlie's Angels.&lt;br /&gt;&lt;br /&gt;When asked why his entire office staff was composed of attractive, young aides his response is a classic, "You can teach 'em to type, but you can't teach 'em to grow tits." No argument there.&lt;br /&gt;&lt;br /&gt;But even the most rakish rapscallion has a conscience lurking somewhere underneath, and for Charlie Wilson the unimaginable atrocities being committed in Afghanistan moved him to muster his entire political savvy toward funding the utter, humiliating defeat of the Russian military and, possibly, to even help hasten the end of the Cold War as a result. Fat chance, huh?&lt;br /&gt;&lt;br /&gt;Under the skillful direction of Mike Nichols and a smart, snappy screenplay by Adam Sorkin, CHARLIE WILSON'S WAR is a sparkling, sophisticated satire that chronicles the behind-the- scene machinations of three colorful characters comprising "Charlie's Team."&lt;br /&gt;&lt;br /&gt;The on-screen "Team," is composed of three marvelous actors with four (4) Academy Awards and nine (9) nominations between them. Charlie is beautifully portrayed by Tom Hanks in a solid, slightly understated fashion that is among his best work in years. He's aided, abetted and abedded by Joanne Herring, a wealthy Houston socialite played by the still-slinky Julia Roberts. Hey, why else have the bikini scene than to let the world know this? By all accounts Ms. Roberts looks good and holds her own, but the screenplay never gives us even a hint why Kabul and country is so important to her character. Maybe the two Afghan hounds usually by her side know -- but we as an audience never do. As for the third member of the "Team," Philip Seymour Hoffman steals every scene he appears in as Gust Aurakotos, a smart, street- wise (i.e. non Ivy League graduate) CIA malcontent who knows the score -- both in the Agency's boardroom and in Wilson's bedroom.&lt;br /&gt;&lt;br /&gt;For the Mujahideen to succeed, the most important assistance the U.S. can provide is the ability to shoot down the dreaded MI-21 helicopter gunships which rule the skies. This takes money, lots of money, and eventually "Charlie's Team" covertly coerces those in Congress to fund the effort to the tune of $1 billion dollars for advanced weaponry to arm the Afghan rebels. This includes top-of-the-line, state-of-the-art anti-aircraft and anti-tank rockets as well as other highly sophisticated killing devices. Nasty, nasty stuff.&lt;br /&gt;&lt;br /&gt;That this kind of multi-billion dollar illicit activity can and does take place behind Congressional doors is truly alarming. Every American should see this movie or read this book because it reveals a truly frightening aspect of the business-as-usual political scene rarely seen outside the walls of our very own government. Oh momma, I wish it weren't so...&lt;br /&gt;&lt;br /&gt;Even though the initial outcome for "Team Charlie" was an unqualified success, the unimaginable, unanticipated final result is that these sophisticated weapons are now used against our troops by the Taliban and others. Since the funding was entirely "covert," the young generation in this part of the world has no idea the fall of Soviet oppression and the end to Russian barbarity was the direct result of American intervention. Yes, once the Russkies left, so did our aid -- zip for schools, zip for infrastructure, zip on maintaining meaningful relationships with the Afghan people. As a result, the overall consequence is an unmitigated disaster -- it's like the forerunner to "Mission Accomplished."&lt;br /&gt;&lt;br /&gt;As Nichol's film so pointedly points out, "The ball you've set in motion can keep bouncing even after you've lost interest in it." Mike Krzyzewski knows this, Eva Longoria Parker knows this, little Lateesha in Lafayette knows this, but the typical American politician doesn't. So we go from good guys to bad guys because we couldn't let the world know we were the good guys. Talk about a Catch-22 (another Mike Nichols film).&lt;br /&gt;&lt;br /&gt;Perhaps Charlie Wilson said it best, "We f&amp;%ked up the end game."&lt;br /&gt;&lt;br /&gt;Again.</t>
+  </si>
+  <si>
+    <t>I'm a big fan of surrealist art, but this film by Bunuel (with some ideas from Dali) left me cold. Bunuel had a life-long grudge against the Catholic church and delighted in trying to offend Catholics in fairly silly ways. This is one of the silliest; almost like what you'd expect from a smart-aleck 18-year-old in film class. The last few minutes of the movie, which have nothing to do with anything else, are a final nose-thumbing at religion.&lt;br /&gt;&lt;br /&gt;If you read the "scholars" regarding this slow-paced, occasionally amusing film, it's all about how the church and society are guilty of sexual repression. If that is indeed the point, then Bunuel expresses it in the most roundabout fashion possible. The central male character is a nasty brute who loves kicking dogs and knocking blind men down in the street, and who mentally turns billboard ads into strange sexual fantasies. Is this behavior the church's fault (for interrupting his lovemaking), or is he just a jerk? I vote for the latter. I think Bunuel must have had a lot of personal hangups and chose the Catholics as the ones to blame.&lt;br /&gt;&lt;br /&gt;There are a few moments where you might cry, "Aha! surrealism!": a cow in a bed, a giraffe falling out a window (a poor model), a man shredding a feather pillow, a woman flushing a toilet while we watch pictures of seething lava (or a mud pit...hard to tell in B/W). The rest is forgettable self-indulgence. Unfortunately, Bunuel was still chasing the same bogey-men through the rest of his career (Viridiana, Discreet Charm...). If you're interested in seeing surrealism on the screen, check out Jean Cocteau's early work.</t>
+  </si>
+  <si>
+    <t>This ludicrous film offers the standard 1970's "hippie mentality" in a nut shell and bores us in the process. Its an attempt to rationalize absurd marriages of young, innocent women with old age sex fiends and wash ups. A naive young hippy played by the waif-like ( Kay Lenz ) hitch hikes and sleeps with all the wrong guys, and then one day she meets the ridiculous (Holden), already in old age, hard liquor drinking and washed up as an actor, and she decides that she is in "love" with him. If you think that is superficial, the whole film encapsulates such scenes. She keeps saying how much she "loves" him and she only met him, it wears thin and really quick. I couldn't help but laugh throughout the film. Its obvious she's just using him as a meal ticket but the director is immature enough to think we are going to buy that there is actually any love taking place. A disgusting scene is where the two are naked and having sex, I had to fast forward it because it almost inspired me to vomit. A corny offering of music from the 70's is also spread through the film. Avoid this if you can. Grade D.</t>
+  </si>
+  <si>
+    <t>This film was pretty good. I am not too big a fan of baseball, but this is a movie that was made to help understand the meaning of love, determination, heart, etc.&lt;br /&gt;&lt;br /&gt;Danny Glover, Joseph Gordon-Levitt, Brenda Fricker, Christopher Lloyd, Tony Danza, and Milton Davis Jr. are brought in with a variety of talented actors and understanding of the sport. The plot was believable, and I love the message. William Dear and the guys put together a great movie.&lt;br /&gt;&lt;br /&gt;Most sports films revolve around true stories or events, and they often do not work well. But this film hits a 10 on the perfectness scale, even though there were a few minor mistakes here and there.&lt;br /&gt;&lt;br /&gt;10/10</t>
+  </si>
+  <si>
+    <t>For his first ever debut this film has some riveting and chilling moments. In the best horror film fashion the pit of your stomach tightens every moment during this film. The ending is superb. The makers of Blaire Witch obviously watched this film it's ending wasn't an end but a beginning of the end. A great movie and only a piece of Japan's great as far as scare factor a perfect score it makes you think and scared out of your mind.</t>
+  </si>
+  <si>
+    <t>This film contain far too much meaningless violence. Too much shooting and blood. The acting seems very unrealistic and is generally poor. The only reason to see this film is if you like very old cars.</t>
+  </si>
+  <si>
+    <t>Pathetic attempt to use science to justify new age religion/philosophy. The two have nothing to do with each other and much of what is said about Quantum Physics in this mess is just plain wrong.&lt;br /&gt;&lt;br /&gt;Examples? Quantum theory supports the ideas in eastern religions that reality is an illusion. How? Well, in the world of the subatomic, you can never definitely predict a particles location at a specific time. You can only give the odds of it being precisely at one spot at one time. Also, the act of observation seems to affect the event. Solid particles can pass through barriers. All of this, so far, is accurate. But then they assert that that means that if you believed sincerely enough that you could walk through a wall, you could indeed do it. This is complete poppycock. Instead, the theory asserts that at our level, it is possible for you to walk through a wall, but it is merely by chance and has nothing to do with belief. Also you'd have to keep walking into the wall for eternity to ever have even the remotest chance of passing through the wall, the odds are so astronomically against it.&lt;br /&gt;&lt;br /&gt;This is but one example of how they misrepresent the science. But much more annoying is the narrative involving an unhappy photographer, played by Marlee Maitlan. About halfway through the picture it becomes so confused as to be incomprehensible. Something to do with negative thoughts leading to addiction and self-hate. There may be some truth to that, but Quantum physics has nothing to do with it.&lt;br /&gt;&lt;br /&gt;Plus, string theory is the hot new thing in physics nowadays. Instead of wasting your time with this dreck, I suggest you rent The Elegant Universe, an amazing series done for NOVA on PBS that gives you a history of physics from Newton and gravity to Ed Witten and M Theory in only 3 hour-long episodes. Quantum mechanics is explained there quite well if you want to know it without the fog of metaphysical appropriation.</t>
+  </si>
+  <si>
+    <t>I was truly looking forward to this title. It sounded and looked fun. The idea of someone making a cheesy 50s monster movie could have been worth a few laughs, but instead this title only bores. First off, there is almost no Froggg in the entire movie which is the biggest disappointment. I have to sit through 75+ minutes of lame drama and dialog to get a few glimpses of the Froggg humping a bare breasted chick. Why? On top of that the film lacks any sort of fun plot. I mean give me something thats a bit more interesting than just a bunch of talking heads. I wanted to see some hot chicks search for the creature in the swamp, I wanted to see some cuties dragged off to his lair in desperate need of rescue (Creature from the Black Lagoon stuff), I wanted to see a few goofy action scenes of the Froggg going on a killing spree, or it maybe escaping a silly trap. Something exciting! Geez, have fun with it, be creative! Who wants to sit through endless and tiring dialog scenes in a creature flick? My advice to the filmmakers: Keep going, your concepts are good, but your execution needs to be a lot more inspired. Have some fun with the creature, put the humor in the action and most important...put more creature in a creature movie!!!</t>
+  </si>
+  <si>
+    <t>One of my sisters friends lent me this game, and it is too damn hard! It carries the appearance of a kids game, but you have to learn how to do tons of intricate moves that require you to twist and turn your hands into all sorts of awkward positions, and you have to search seemingly endless levels for 100 notes, to improve your 'score'! You also have to find these impossibly hidden jigsaw puzzle pieces, that require you to do almost impossible tasks to get them! AND I AM ONLY UP TO STAGE THREE!!!!! Maybe if you have no life nad can stay home all the time you might get some enjoyment out of this, but otherwise keep away! AND IT IS DEFINATELY NOT RECOMMENDED FOR KIDS - THEY WILL PULL THEIR HAIR OUT WITHIN THE HOUR!</t>
+  </si>
+  <si>
+    <t>Chuck Jones's 'Rabbit Seasoning', the second in the much beloved hunting trilogy, is often considered to be the best of the three. While I find it almost impossible to choose between this trio of fantastic cartoons, I would have to concede that 'Rabbit Seasoning' is the most finely honed script. Here, the emphasis is placed on language as Bugs and Daffy run through a series of complex dialogues in the grand tradition of Abbot and Costello's 'Who's on next' routine. As a long term Daffy fan, I have always been delighted by the hunting trilogy because it is consistently Daffy who gets all the best lines (the famous "Pronoun trouble" being one of the all time classics) and does most of the work. Bugs plays the role of cool manipulator while Elmer, as always, is the befuddled dupe. Part of what makes the hunting trilogy so much fun is that Daffy and Elmer pose so little threat to Bugs that he is basically just kicking back and having some easy laughs. Elmer falls into every trap that is laid for him but it is poor old Daffy who comes off worst, being shot in the face again and again, his beak ending up in more and more ridiculous positions. It all builds to the inevitable climactic declaration "You're despicable". As intricate an example of Chuck Jones's impeccable timing as you'll come across, 'Rabbit Seasoning' is a true classic.</t>
+  </si>
+  <si>
+    <t>A lovely little B picture with all the usual Joe Lewis touches.... people ripping up pillows and auras of lurking fear. Also, alas, an ending that comes out of nowhere, because, apparently, the auteur has lost interest in the movie, or perhaps because as a B picture it has to fit into a slot.</t>
+  </si>
+  <si>
+    <t>"Crossfire" is a justifiably famous 1947 noir that's a murder mystery with a strong message. It stars Robert Young, Robert Mitchum, Robert Ryan, Sam Levene, and Gloria Grahame, and is strongly directed by Edward Dmytryk. We witness the murder in shadow at the beginning, and for the rest of the film, Young, as the detective, Finlay, in charge of the case, seeks to figure out which of three soldiers is responsible for the death, and just as important, why. The victim, Joseph Samuels (Sam Levene) is someone the soldiers meet in a bar; they go up to his apartment to continue their visit, and Samuels winds up dead.&lt;br /&gt;&lt;br /&gt;I don't know about 1947, but seeing "Crossfire" today, one knows who did it and why the minute we see the suspects. I don't suppose it was so apparent back then, as these actors were just getting started. Nevertheless, the film packs a big punch with its powerful acting, good direction, violence, and unsparing anti-Semite language.&lt;br /&gt;&lt;br /&gt;The characterizations are vivid, including that of Gloria Grahame in a smallish role - she's a woman who meets Mitchell (George Cooper), one of the suspect soldiers, in a bar and can provide him with an alibi. The big performance in the film belongs to Robert Ryan, but everyone is excellent. Robert Young especially is effective as a tough but intelligent police detective. Mitchum is very likable as a soldier trying to help his confused friend Mitchell, a lonely man unsure if he still has feelings for his wife.&lt;br /&gt;&lt;br /&gt;Truly excellent, and a must see.</t>
+  </si>
+  <si>
+    <t>AWWWW, I just love this movie to bits. Me and my cousins enjoy this movie a lot and I am just such a HUGE FAN!!! I hope they bring the TV series out on DVD soon. Come to mention it, I have not see the TV show in a LONG time. Such geart times! Where I come from Australia The Chipmunk Adventure is only known by people in their late teens and adult years which is kinda sad because the young kids don't know what there missing.&lt;br /&gt;&lt;br /&gt;The songs in this film are ace the ones I love the most Boys/girls of rock n'roll, Diamond Dolls and the song that ls sure to make you want to cry My Mother.&lt;br /&gt;&lt;br /&gt;This film is sure to excite both young and old GET THE CHIPMUNK ADVENTURE TODAY!!! 10 out of 10, such an excellent movie.</t>
+  </si>
+  <si>
+    <t>Skippy from "Family Ties" plays Eddie, a wussy 'metal' nerd who gets picked on. When his favorite wussy 'metal' singer, Sammi Curr, dies, he throws a hissy fit tearing down all the posters on his bedroom wall. But when he later gets an unreleased record that holds the spirit of his dead 'metal' idol. He first gets sucked into ideas of revenge, but then he doesn't want to take it as far as Sammi does. Which isn't really that far as his main victims only seem to go to the hospital. This movie is utterly laughable and has about as much to do with real metal as say, "Rock Star". OK, maybe a tad more than that piece of junk, but you get my point. And how ANYone can root for a guy played by Skippy from "Family Ties" I haven't a clue. The cameo by Gene Simmons is OK, and Ozzy Osbourne reaches coherency, I applaud him for that, but otherwise skip this one.&lt;br /&gt;&lt;br /&gt;My Grade: D &lt;br /&gt;&lt;br /&gt;Eye Candy:Elise Richards gets topless, an a topless extra at a pool party</t>
+  </si>
+  <si>
+    <t>Of course I would have to give this film 10 out of 10 as my uncle was the main screenplay writer of Once upon a Crime. Rodolfo Sonego wrote screenplays for over 50 years living in Italy. He was a great story teller and someone suggested that he put his stories into writing. So Rodolfo Sonego did. If you check out his biography, you can see the number of movies that have been made in Italy. Alberto Sordie was the main actor that starred in his stories. My uncle visited Australia and my town, in 1968 to check out locations for "A girl in Australia" and created a great movie about a proxy bride after the second world war. You can see his humor in all his movies. I found a copy of this movie on DVD recently. GREAT</t>
+  </si>
+  <si>
+    <t>Goldeneye will always go down as one of thee most legendary games in VG history. Their is no doubt about that. But this game, although quite different, could quite possibly be the modern-day Bond champ, of its time.&lt;br /&gt;&lt;br /&gt;This was not a bond game based on material from another medium. This was a completely new; scripted game. Which even had its own theme song! (wouldnt be bond without it, haha!) Gameplay was excellent, and if you're a fan of the bond games or films alike, you'll enjoy it.&lt;br /&gt;&lt;br /&gt;Unlike some/most games, these cast members portrayed their characters themselves, as opposed to fictional creations for the game. Which gives it that more cinematic feel. With a very 'bond'-able storyline, you feel like you're in the game as much as you get lost in a movie.&lt;br /&gt;&lt;br /&gt;Enjoyable in all aspects, from start to finish. Even after beating the game there's still plenty more to be done. With the ranking system and unlockables to be achieved, as well as its multi-player missions, this is a stand-out game. Despite being quite old now, in video game years. It's still a good game that you can pick up &amp; play whenever you feel the need to get a little more Bond in your life. Even now just thinking about it, I've got the theme song stuck in my head. Such a great cast and well-written storyline.&lt;br /&gt;&lt;br /&gt;The story comes to life on the screen, almost as if the actors were their in front of you, and is every bit as entertaining as the game itself. Superbly done, in true bond fashion. Which can only be named Awesome, Completely Awesome.&lt;br /&gt;&lt;br /&gt;I've gotta go throw this game on now. If you haven't played it yet, you're missing out!</t>
+  </si>
+  <si>
+    <t>Helena Bonham Carter is the center of this movie. She plays her role almost immobile in a wheelchair but still brings across her traditional intensity. Kenneth Branagh was tolerable. The movie itself was good not exceptional. If you are a Helena Bonham Carter fan it is worth seeing.</t>
+  </si>
+  <si>
+    <t>I commented on this when it first debuted and gave it a "thumbs in the middle" review, remarking that I'd give it the benefit of the doubt beyond just the first episode. I've seen a total of six episodes now up to this point in June 2006. And as a lifelong Batman fanatic, I can say without hesitation: this show is utter crap.&lt;br /&gt;&lt;br /&gt;Everything's wrong with it. Everything. Getting past just the lousy animation and design, the stories are ridiculously convoluted and with no character development or apparent interest by the writers of this dreck to give any substance to any stories.&lt;br /&gt;&lt;br /&gt;And for God's sake...is it just me, or is the Joker in EVERY EPISODE?? Is Gotham that much of a revolving-door justice system? Or, again, is it just a complete lack of interest in the writers to put any effort into other villains (see "no character development", above).&lt;br /&gt;&lt;br /&gt;And to make matters worse, every single Joker tale is the same 3-part formula.&lt;br /&gt;&lt;br /&gt;1) Joker gasses people.&lt;br /&gt;&lt;br /&gt;2) Joker sets out to gas the whole city.&lt;br /&gt;&lt;br /&gt;3) Batman saves the day.&lt;br /&gt;&lt;br /&gt;Pfeh.&lt;br /&gt;&lt;br /&gt;There was one episode I saw that wasn't a Joker story. The title escapes me, but the villain was that nefarious Cluemaster...the "Think Thank Thunk" episode with the quiz show. That was the single-worst Batman story I've ever seen, heard or read. Yes, worse than "I've Got Batman in My Basement." &lt;br /&gt;&lt;br /&gt;I can't really say what I feel this show is because it's probably against the ToS, but it starts with "B" and rhymes with "fastardization". Thank goodness for the existence of the Timm/Dini/etc. era of Bat-entertainment, back from the Fox and Kids WB days. Stuff that good, and I should have known this, just couldn't possibly have lasted forever, unfortunately.</t>
+  </si>
+  <si>
+    <t>Just because someone is under the age of 10 does not mean they are stupid. If your child likes this film you'd better have him/her tested. I am continually amazed at how so many people can be involved in something that turns out so bad. This "film" is a showcase for digital wizardry AND NOTHING ELSE. The writing is horrid. I can't remember when I've heard such bad dialogue. The songs are beyond wretched. The acting is sub-par but then the actors were not given much. Who decided to employ Joey Fatone? He cannot sing and he is ugly as sin.&lt;br /&gt;&lt;br /&gt;The worst thing is the obviousness of it all. It is as if the writers went out of their way to make it all as stupid as possible. Great children's movies are wicked, smart and full of wit - films like Shrek and Toy Story in recent years, Willie Wonka and The Witches to mention two of the past. But in the continual dumbing-down of American more are flocking to dreck like Finding Nemo (yes, that's right), the recent Charlie &amp; The Chocolate Factory and eye-crossing trash like Red Riding Hood.</t>
+  </si>
+  <si>
+    <t>"Hey Babu Riba" is a film about a young woman, Mariana (nicknamed "Esther" after a famous American movie star), and four young men, Glenn, Sacha, Kicha, and Pop, all perhaps 15-17 years old in 1953 Belgrade, Yugoslavia. The five are committed friends and crazy about jazz, blue jeans, or anything American it seems.&lt;br /&gt;&lt;br /&gt;The very close relationship of the teenagers is poignant, and ultimately a sacrifice is willingly made to try to help one of the group who has fallen on unexpected difficulties. In the wake of changing communist politics, they go their separate ways and reunite in 1985 (the year before the film was made).&lt;br /&gt;&lt;br /&gt;I enjoyed the film with some reservations. The subtitles for one thing were difficult. Especially in the beginning, there were a number of dialogues which had no subtitles at all. Perhaps the conversational pace required it, but I couldn't always both read the text and absorb the scene, which caused me to not always understand which character was involved. I watched the movie (a video from our public library) with a friend, and neither of us really understood part of the story about acquiring streptomycin for a sick relative.&lt;br /&gt;&lt;br /&gt;This Yugoslavian coming of age film effectively conveyed the teenagers' sense of invulnerability, idealism, and strong and loyal bonds to each other. There is a main flashforward, and it was intriguing, keeping me guessing until the end as to who these characters were vis-a-vis the 1953 cast, and what had actually happened.&lt;br /&gt;&lt;br /&gt;I would rate it 7 out of 10, and would like to see other films by the director, Jovan Acin (1941-1991).</t>
+  </si>
+  <si>
+    <t>After a snowstorm, the roads are blocked and the highway patrolman Jason (Adam Beach) comes to the diner of his friend Fritz (Jurgen Prochnow) and advises his clients that they will only be able to follow their trips on the next day. Among the weird strangers, Jason meets his former sweetheart Nancy (Rose McGowan), who has just left her husband in Los Angeles. Along the night, without any communication with his base, Jason faces distressful and suspicious situations with the clients, and finds some corpses, indicating that among them there is a killer.&lt;br /&gt;&lt;br /&gt;"The Last Stop" could be an average thriller, but the screenplay is simply awful. Most of the characters are despicable persons and the motives of the surprising serial killer are never disclosed, and the viewers have no further explanation why the killer decided to kill the guests. My vote is four.&lt;br /&gt;&lt;br /&gt;Title (Brazil): "Encurralados" ("Trapped")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,11 +1545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B100"/>
+      <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,6 +2354,2406 @@
         <v>7</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>377</v>
+      </c>
+      <c r="B375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>378</v>
+      </c>
+      <c r="B376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>379</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>380</v>
+      </c>
+      <c r="B378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>381</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>382</v>
+      </c>
+      <c r="B380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>383</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>384</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>388</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>389</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>395</v>
+      </c>
+      <c r="B393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>396</v>
+      </c>
+      <c r="B394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>397</v>
+      </c>
+      <c r="B395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>399</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
